--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A69105-DD80-4BA1-B2A2-B5D238BD15C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E7FC1D-28DD-449D-925D-1B0A52D6757E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,18 +46,6 @@
     <t>1iter2</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
     <t>YaleB1 (l1 = 0.0001, l2 = 0.001, ep_prtr=101, ep=26)</t>
   </si>
   <si>
@@ -68,6 +56,18 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>1_50</t>
+  </si>
+  <si>
+    <t>1_100</t>
+  </si>
+  <si>
+    <t>1_150</t>
+  </si>
+  <si>
+    <t>1_latest</t>
   </si>
 </sst>
 </file>
@@ -185,10 +185,10 @@
     <tableColumn id="6" xr3:uid="{57E130DB-97EF-4550-BA20-94C158345756}" name="1iter1"/>
     <tableColumn id="7" xr3:uid="{B3C9DC46-F27D-4EAD-B301-AD43B6F0FA2D}" name="1alph2"/>
     <tableColumn id="8" xr3:uid="{3C370DA0-9158-4BF2-9229-5F81AAB950DA}" name="1iter2"/>
-    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="50"/>
-    <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="100"/>
-    <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="150"/>
-    <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="latest"/>
+    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="1_50"/>
+    <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="1_100"/>
+    <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="1_150"/>
+    <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="1_latest"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,7 +460,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,9 +473,9 @@
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -498,7 +498,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -522,24 +522,24 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E7FC1D-28DD-449D-925D-1B0A52D6757E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D6ACA1-ED22-492C-9545-1BF4142A7418}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Algorithm</t>
   </si>
@@ -28,27 +28,6 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>1lr</t>
-  </si>
-  <si>
-    <t>1lr_prtr</t>
-  </si>
-  <si>
-    <t>1alph1</t>
-  </si>
-  <si>
-    <t>1iter1</t>
-  </si>
-  <si>
-    <t>1alph2</t>
-  </si>
-  <si>
-    <t>1iter2</t>
-  </si>
-  <si>
-    <t>YaleB1 (l1 = 0.0001, l2 = 0.001, ep_prtr=101, ep=26)</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -61,20 +40,155 @@
     <t>1_50</t>
   </si>
   <si>
-    <t>1_100</t>
-  </si>
-  <si>
-    <t>1_150</t>
-  </si>
-  <si>
-    <t>1_latest</t>
+    <t>skopt.dummy_min</t>
+  </si>
+  <si>
+    <t>skopt.forest_min</t>
+  </si>
+  <si>
+    <t>skopt.gbrt_min</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Paramaeters</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>ep_prtr</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>0_min</t>
+  </si>
+  <si>
+    <t>Space bounds</t>
+  </si>
+  <si>
+    <t>0_max</t>
+  </si>
+  <si>
+    <t>1_min</t>
+  </si>
+  <si>
+    <t>1_max</t>
+  </si>
+  <si>
+    <t>2_min</t>
+  </si>
+  <si>
+    <t>2_max</t>
+  </si>
+  <si>
+    <t>3_min</t>
+  </si>
+  <si>
+    <t>3_max</t>
+  </si>
+  <si>
+    <t>4_min</t>
+  </si>
+  <si>
+    <t>4_max</t>
+  </si>
+  <si>
+    <t>5_min</t>
+  </si>
+  <si>
+    <t>5_max</t>
+  </si>
+  <si>
+    <t>Optimum</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>lr_prtr</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>alph1</t>
+  </si>
+  <si>
+    <t>alph2</t>
+  </si>
+  <si>
+    <t>iter2</t>
+  </si>
+  <si>
+    <t>iter1</t>
+  </si>
+  <si>
+    <t>YaleB</t>
+  </si>
+  <si>
+    <t>Scenario 0</t>
+  </si>
+  <si>
+    <t>0_10</t>
+  </si>
+  <si>
+    <t>0_20</t>
+  </si>
+  <si>
+    <t>0_30</t>
+  </si>
+  <si>
+    <t>0_40</t>
+  </si>
+  <si>
+    <t>0_50</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Seed 0</t>
+  </si>
+  <si>
+    <t>Seed 1</t>
+  </si>
+  <si>
+    <t>Seed 2</t>
+  </si>
+  <si>
+    <t>Seed 3</t>
+  </si>
+  <si>
+    <t>Seed 4</t>
+  </si>
+  <si>
+    <t>1_10</t>
+  </si>
+  <si>
+    <t>1_20</t>
+  </si>
+  <si>
+    <t>1_30</t>
+  </si>
+  <si>
+    <t>1_40</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +204,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,12 +229,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,8 +238,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBC8FDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -142,26 +276,300 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBC8FDD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -174,21 +582,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="A2:L7" totalsRowShown="0">
-  <autoFilter ref="A2:L7" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:M26" totalsRowShown="0" headerRowBorderDxfId="4">
+  <autoFilter ref="B2:M26" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{7B159307-B663-4E12-AB36-3714B3EA6101}" name="Function"/>
-    <tableColumn id="2" xr3:uid="{C5D03F94-B59B-4111-B686-B3565B731BE0}" name="Parameters"/>
-    <tableColumn id="3" xr3:uid="{F4B76DAE-E73E-4F06-AC19-6713538B7470}" name="1lr_prtr"/>
-    <tableColumn id="4" xr3:uid="{147C49FB-2C8E-4BAC-A26B-6BC9CC8F8E5B}" name="1lr"/>
-    <tableColumn id="5" xr3:uid="{065C6BD9-8595-40D7-8294-54679ED2E098}" name="1alph1"/>
-    <tableColumn id="6" xr3:uid="{57E130DB-97EF-4550-BA20-94C158345756}" name="1iter1"/>
-    <tableColumn id="7" xr3:uid="{B3C9DC46-F27D-4EAD-B301-AD43B6F0FA2D}" name="1alph2"/>
-    <tableColumn id="8" xr3:uid="{3C370DA0-9158-4BF2-9229-5F81AAB950DA}" name="1iter2"/>
-    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="1_50"/>
-    <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="1_100"/>
-    <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="1_150"/>
-    <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="1_latest"/>
+    <tableColumn id="2" xr3:uid="{C5D03F94-B59B-4111-B686-B3565B731BE0}" name="Function"/>
+    <tableColumn id="13" xr3:uid="{E5FFF603-2140-4CBD-A5E2-FB1006364FE6}" name="Parameters"/>
+    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE(D7,D11,D15,D19,D23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="0_20"/>
+    <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="0_30"/>
+    <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="0_40"/>
+    <tableColumn id="14" xr3:uid="{7979ACA1-BADA-4348-8B51-C28AD9AC9DC4}" name="0_50"/>
+    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{2963D26E-B527-4009-82A3-456B51C513FA}" name="1_20"/>
+    <tableColumn id="17" xr3:uid="{5F12FDBB-B6D3-41D5-A3E8-4C7491D3E3A4}" name="1_30"/>
+    <tableColumn id="18" xr3:uid="{E1D4DE2A-337D-413B-9569-8907A74F5FB9}" name="1_40"/>
+    <tableColumn id="19" xr3:uid="{0CB7B969-7FCA-450C-BFF4-B282D45DB3F0}" name="1_50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AF39C55-E78F-425F-89F4-BC666A41BB4F}" name="Table2" displayName="Table2" ref="A31:W33" totalsRowShown="0">
+  <autoFilter ref="A31:W33" xr:uid="{2D87966D-B079-4B69-AC3D-C8DEB2366165}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{3F1A14A8-1EC1-43C0-90DF-645BF2780390}" name="Number"/>
+    <tableColumn id="2" xr3:uid="{C568F7B3-4578-4675-A7AC-0C827C456883}" name="Dataset"/>
+    <tableColumn id="3" xr3:uid="{881362A8-4402-4B10-8C23-30D575CC55CB}" name="ep_prtr"/>
+    <tableColumn id="4" xr3:uid="{EB69AEC0-3748-40EA-B73E-3B0CA4A1CF71}" name="epochs"/>
+    <tableColumn id="5" xr3:uid="{574C2CD9-BA7A-4A9F-AD66-C48399A2B618}" name="0_min">
+      <calculatedColumnFormula>10^-2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{95F6BAB4-45FA-4A58-B3C2-5B03531A165E}" name="0_max">
+      <calculatedColumnFormula>10^0</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6B78439E-32CB-4749-91EF-0C440629E94A}" name="1_min">
+      <calculatedColumnFormula>10^-3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1DB43EDB-13A3-4891-B669-0A50D7660BA3}" name="1_max">
+      <calculatedColumnFormula>10^-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{EA465E74-E777-4088-93C3-21E9D91DD78E}" name="2_min">
+      <calculatedColumnFormula>10^0</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{98903145-7EA2-4A32-9E47-C4DD86832D47}" name="2_max">
+      <calculatedColumnFormula>10^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{6BD9BC66-B461-43FE-8FCF-EE6DCBC72A96}" name="3_min"/>
+    <tableColumn id="12" xr3:uid="{84476E16-3370-4B85-B766-6A6FE5147F97}" name="3_max"/>
+    <tableColumn id="13" xr3:uid="{CABEDB27-35F9-458B-9D7A-0337E2148594}" name="4_min">
+      <calculatedColumnFormula>10^0</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{1BBF712F-0E8C-4304-B5BD-CD06AF4CA1FB}" name="4_max">
+      <calculatedColumnFormula>10^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{E8C65F8C-DCEC-45AB-9C33-C0EE0EEC6D16}" name="5_min"/>
+    <tableColumn id="16" xr3:uid="{654EB017-AFCF-423B-A3DF-971634304CF4}" name="5_max"/>
+    <tableColumn id="17" xr3:uid="{F1B5EE51-2F0E-4154-B129-5AC962EE57AC}" name="error"/>
+    <tableColumn id="18" xr3:uid="{0F9C365A-A5F6-4966-93F2-3D347586FF8E}" name="lr_prtr"/>
+    <tableColumn id="19" xr3:uid="{4067613D-3729-4F8C-84A8-334F13889526}" name="lr"/>
+    <tableColumn id="20" xr3:uid="{775DCFA6-1A9F-4484-B078-65F12C846750}" name="alph1"/>
+    <tableColumn id="21" xr3:uid="{67BB85F2-0E40-495F-BF27-F45E857C89F1}" name="iter1"/>
+    <tableColumn id="22" xr3:uid="{F14B21BF-A4AC-4D41-9367-6C9CC7818A67}" name="alph2"/>
+    <tableColumn id="23" xr3:uid="{04052317-4708-4F4E-9267-A6145C60BDEC}" name="iter2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -457,99 +915,1005 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="33">
+        <f t="shared" ref="D3:H26" si="0">AVERAGE(D7,D11,D15,D19,D23)</f>
+        <v>2.2350000000000002E-2</v>
+      </c>
+      <c r="E3" s="34">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F3" s="34">
+        <f t="shared" si="0"/>
+        <v>1.8999999999999998E-3</v>
+      </c>
+      <c r="G3" s="34">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H3" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I3" s="33" t="e">
+        <f t="shared" ref="I3:M3" si="1">AVERAGE(I7,I11,I15,I19,I23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20105000000000001</v>
+      </c>
+      <c r="E4" s="32">
+        <f t="shared" si="0"/>
+        <v>0.11510000000000001</v>
+      </c>
+      <c r="F4" s="32">
+        <f t="shared" si="0"/>
+        <v>1.2100000000000001E-2</v>
+      </c>
+      <c r="G4" s="32">
+        <f t="shared" si="0"/>
+        <v>1.2100000000000001E-2</v>
+      </c>
+      <c r="H4" s="32">
+        <f t="shared" si="0"/>
+        <v>1.2100000000000001E-2</v>
+      </c>
+      <c r="I4" s="14" t="e">
+        <f t="shared" ref="I4:M4" si="2">AVERAGE(I8,I12,I16,I20,I24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20105000000000001</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" si="0"/>
+        <v>8.2150000000000001E-2</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="I5" s="14" t="e">
+        <f t="shared" ref="I5:M5" si="3">AVERAGE(I9,I13,I17,I21,I25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.13084999999999999</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>3.8099999999999995E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>8.4999999999999989E-3</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>8.4999999999999989E-3</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="0"/>
+        <v>7.6500000000000005E-3</v>
+      </c>
+      <c r="I6" s="15" t="e">
+        <f t="shared" ref="I6:M6" si="4">AVERAGE(I10,I14,I18,I22,I26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="str">
+        <f>B3</f>
+        <v>skopt.gp_min</v>
+      </c>
+      <c r="C7" t="str">
+        <f>C3</f>
+        <v>[]</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" t="str">
+        <f t="shared" ref="B8:C8" si="5">B4</f>
+        <v>skopt.dummy_min</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="5"/>
+        <v>[]</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.3387</v>
+      </c>
+      <c r="E8">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="F8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" t="str">
+        <f t="shared" ref="B9:C9" si="6">B5</f>
+        <v>skopt.forest_min</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="6"/>
+        <v>[]</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.3387</v>
+      </c>
+      <c r="E9">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="G9">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H9">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="13" t="str">
+        <f t="shared" ref="B10:C10" si="7">B6</f>
+        <v>skopt.gbrt_min</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>[]</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="E10" s="13">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="str">
+        <f>B3</f>
+        <v>skopt.gp_min</v>
+      </c>
+      <c r="C11" t="str">
+        <f>C3</f>
+        <v>[]</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G11">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" t="str">
+        <f t="shared" ref="B12:C12" si="8">B4</f>
+        <v>skopt.dummy_min</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="8"/>
+        <v>[]</v>
+      </c>
+      <c r="D12" s="14">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="F12">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" t="str">
+        <f t="shared" ref="B13:C13" si="9">B5</f>
+        <v>skopt.forest_min</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="9"/>
+        <v>[]</v>
+      </c>
+      <c r="D13" s="14">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G13">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H13">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="13" t="str">
+        <f t="shared" ref="B14:C14" si="10">B6</f>
+        <v>skopt.gbrt_min</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>[]</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="str">
+        <f>B3</f>
+        <v>skopt.gp_min</v>
+      </c>
+      <c r="C15" t="str">
+        <f>C3</f>
+        <v>[]</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" t="str">
+        <f t="shared" ref="B16:C16" si="11">B4</f>
+        <v>skopt.dummy_min</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="11"/>
+        <v>[]</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" t="str">
+        <f t="shared" ref="B17:C17" si="12">B5</f>
+        <v>skopt.forest_min</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="12"/>
+        <v>[]</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="13" t="str">
+        <f t="shared" ref="B18:C18" si="13">B6</f>
+        <v>skopt.gbrt_min</v>
+      </c>
+      <c r="C18" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>[]</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="str">
+        <f>B3</f>
+        <v>skopt.gp_min</v>
+      </c>
+      <c r="C19" t="str">
+        <f>C3</f>
+        <v>[]</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" t="str">
+        <f t="shared" ref="B20:C20" si="14">B4</f>
+        <v>skopt.dummy_min</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="14"/>
+        <v>[]</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" t="str">
+        <f t="shared" ref="B21:C21" si="15">B5</f>
+        <v>skopt.forest_min</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="15"/>
+        <v>[]</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="13" t="str">
+        <f t="shared" ref="B22:C22" si="16">B6</f>
+        <v>skopt.gbrt_min</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v>[]</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="str">
+        <f>B3</f>
+        <v>skopt.gp_min</v>
+      </c>
+      <c r="C23" t="str">
+        <f>C3</f>
+        <v>[]</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:C24" si="17">B4</f>
+        <v>skopt.dummy_min</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="17"/>
+        <v>[]</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" t="str">
+        <f t="shared" ref="B25:C25" si="18">B5</f>
+        <v>skopt.forest_min</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="18"/>
+        <v>[]</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" t="str">
+        <f t="shared" ref="B26:C26" si="19">B6</f>
+        <v>skopt.gbrt_min</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="19"/>
+        <v>[]</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>201</v>
+      </c>
+      <c r="D32">
+        <v>101</v>
+      </c>
+      <c r="E32" s="10">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="F32">
+        <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G32">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H32">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="I32">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="M32">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="12">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E30:P30"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="Q30:W30"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H26">
+    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M26">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D6ACA1-ED22-492C-9545-1BF4142A7418}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512DD0EF-E1B9-4135-9E8D-4A28C1AE122C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D3" s="33">
         <f t="shared" ref="D3:H26" si="0">AVERAGE(D7,D11,D15,D19,D23)</f>
-        <v>2.2350000000000002E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="E3" s="34">
         <f t="shared" si="0"/>
@@ -1018,11 +1018,11 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.8999999999999998E-3</v>
+        <v>1.9666666666666665E-3</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" si="0"/>
-        <v>1.6999999999999999E-3</v>
+        <v>1.8333333333333333E-3</v>
       </c>
       <c r="H3" s="32">
         <f t="shared" si="0"/>
@@ -1059,23 +1059,23 @@
       </c>
       <c r="D4" s="14">
         <f t="shared" si="0"/>
-        <v>0.20105000000000001</v>
+        <v>0.14793333333333333</v>
       </c>
       <c r="E4" s="32">
         <f t="shared" si="0"/>
-        <v>0.11510000000000001</v>
+        <v>7.7866666666666667E-2</v>
       </c>
       <c r="F4" s="32">
         <f t="shared" si="0"/>
-        <v>1.2100000000000001E-2</v>
+        <v>8.7666666666666674E-3</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" si="0"/>
-        <v>1.2100000000000001E-2</v>
+        <v>8.7666666666666674E-3</v>
       </c>
       <c r="H4" s="32">
         <f t="shared" si="0"/>
-        <v>1.2100000000000001E-2</v>
+        <v>8.7666666666666674E-3</v>
       </c>
       <c r="I4" s="14" t="e">
         <f t="shared" ref="I4:M4" si="2">AVERAGE(I8,I12,I16,I20,I24)</f>
@@ -1108,23 +1108,23 @@
       </c>
       <c r="D5" s="14">
         <f t="shared" si="0"/>
-        <v>0.20105000000000001</v>
+        <v>0.14793333333333333</v>
       </c>
       <c r="E5" s="32">
         <f t="shared" si="0"/>
-        <v>8.2150000000000001E-2</v>
+        <v>5.5466666666666664E-2</v>
       </c>
       <c r="F5" s="32">
         <f t="shared" si="0"/>
-        <v>6.4699999999999994E-2</v>
+        <v>4.3833333333333328E-2</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>1.5E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="H5" s="32">
         <f t="shared" si="0"/>
-        <v>1.5E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="I5" s="14" t="e">
         <f t="shared" ref="I5:M5" si="3">AVERAGE(I9,I13,I17,I21,I25)</f>
@@ -1157,23 +1157,23 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>0.13084999999999999</v>
+        <v>8.879999999999999E-2</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>3.8099999999999995E-2</v>
+        <v>2.6099999999999998E-2</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>8.4999999999999989E-3</v>
+        <v>6.2333333333333329E-3</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>8.4999999999999989E-3</v>
+        <v>6.2333333333333329E-3</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="0"/>
-        <v>7.6500000000000005E-3</v>
+        <v>5.6666666666666671E-3</v>
       </c>
       <c r="I6" s="15" t="e">
         <f t="shared" ref="I6:M6" si="4">AVERAGE(I10,I14,I18,I22,I26)</f>
@@ -1436,7 +1436,21 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F15">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G15">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H15">
+        <v>1.6999999999999999E-3</v>
+      </c>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1449,7 +1463,21 @@
         <f t="shared" si="11"/>
         <v>[]</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G16">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H16">
+        <v>2.0999999999999999E-3</v>
+      </c>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -1462,7 +1490,21 @@
         <f t="shared" si="12"/>
         <v>[]</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H17">
+        <v>2.0999999999999999E-3</v>
+      </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -1475,11 +1517,21 @@
         <f t="shared" si="13"/>
         <v>[]</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="15">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512DD0EF-E1B9-4135-9E8D-4A28C1AE122C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FCDB92-10E5-476E-8853-7DAE536AF2A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Algorithm</t>
   </si>
@@ -452,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,7 +473,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -518,13 +517,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -582,19 +575,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:M26" totalsRowShown="0" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:M26" totalsRowShown="0" headerRowBorderDxfId="3">
   <autoFilter ref="B2:M26" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
   <tableColumns count="12">
     <tableColumn id="2" xr3:uid="{C5D03F94-B59B-4111-B686-B3565B731BE0}" name="Function"/>
     <tableColumn id="13" xr3:uid="{E5FFF603-2140-4CBD-A5E2-FB1006364FE6}" name="Parameters"/>
-    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(D7,D11,D15,D19,D23)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="0_20"/>
     <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="0_30"/>
     <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="0_40"/>
     <tableColumn id="14" xr3:uid="{7979ACA1-BADA-4348-8B51-C28AD9AC9DC4}" name="0_50"/>
-    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="4"/>
     <tableColumn id="16" xr3:uid="{2963D26E-B527-4009-82A3-456B51C513FA}" name="1_20"/>
     <tableColumn id="17" xr3:uid="{5F12FDBB-B6D3-41D5-A3E8-4C7491D3E3A4}" name="1_30"/>
     <tableColumn id="18" xr3:uid="{E1D4DE2A-337D-413B-9569-8907A74F5FB9}" name="1_40"/>
@@ -917,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,67 +932,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
+      <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
@@ -1008,196 +1001,196 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="32">
         <f t="shared" ref="D3:H26" si="0">AVERAGE(D7,D11,D15,D19,D23)</f>
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="E3" s="34">
+        <v>7.3620000000000005E-2</v>
+      </c>
+      <c r="E3" s="33">
         <f t="shared" si="0"/>
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F3" s="34">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="F3" s="33">
         <f t="shared" si="0"/>
-        <v>1.9666666666666665E-3</v>
-      </c>
-      <c r="G3" s="34">
+        <v>1.9399999999999997E-3</v>
+      </c>
+      <c r="G3" s="33">
         <f t="shared" si="0"/>
+        <v>1.8599999999999999E-3</v>
+      </c>
+      <c r="H3" s="31">
+        <f t="shared" si="0"/>
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="I3" s="32">
+        <f t="shared" ref="I3:M3" si="1">AVERAGE(I7,I11,I15,I19,I23)</f>
+        <v>2.58E-2</v>
+      </c>
+      <c r="J3" s="31">
+        <f t="shared" si="1"/>
+        <v>1.43E-2</v>
+      </c>
+      <c r="K3" s="31">
+        <f t="shared" si="1"/>
+        <v>1.1466666666666667E-2</v>
+      </c>
+      <c r="L3" s="31">
+        <f t="shared" si="1"/>
+        <v>2.5666666666666663E-3</v>
+      </c>
+      <c r="M3" s="31">
+        <f t="shared" si="1"/>
         <v>1.8333333333333333E-3</v>
       </c>
-      <c r="H3" s="32">
-        <f t="shared" si="0"/>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="I3" s="33" t="e">
-        <f t="shared" ref="I3:M3" si="1">AVERAGE(I7,I11,I15,I19,I23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <f t="shared" si="0"/>
-        <v>0.14793333333333333</v>
-      </c>
-      <c r="E4" s="32">
+        <v>9.846000000000002E-2</v>
+      </c>
+      <c r="E4" s="31">
         <f t="shared" si="0"/>
-        <v>7.7866666666666667E-2</v>
-      </c>
-      <c r="F4" s="32">
+        <v>5.6420000000000005E-2</v>
+      </c>
+      <c r="F4" s="31">
         <f t="shared" si="0"/>
-        <v>8.7666666666666674E-3</v>
-      </c>
-      <c r="G4" s="32">
+        <v>1.2480000000000002E-2</v>
+      </c>
+      <c r="G4" s="31">
         <f t="shared" si="0"/>
-        <v>8.7666666666666674E-3</v>
-      </c>
-      <c r="H4" s="32">
+        <v>1.2480000000000002E-2</v>
+      </c>
+      <c r="H4" s="31">
         <f t="shared" si="0"/>
-        <v>8.7666666666666674E-3</v>
-      </c>
-      <c r="I4" s="14" t="e">
+        <v>6.1000000000000013E-3</v>
+      </c>
+      <c r="I4" s="13">
         <f t="shared" ref="I4:M4" si="2">AVERAGE(I8,I12,I16,I20,I24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="32" t="e">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="J4" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="32" t="e">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K4" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="32" t="e">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="L4" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="32" t="e">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="M4" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.4000000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f t="shared" si="0"/>
-        <v>0.14793333333333333</v>
-      </c>
-      <c r="E5" s="32">
+        <v>9.846000000000002E-2</v>
+      </c>
+      <c r="E5" s="31">
         <f t="shared" si="0"/>
-        <v>5.5466666666666664E-2</v>
-      </c>
-      <c r="F5" s="32">
+        <v>3.4219999999999993E-2</v>
+      </c>
+      <c r="F5" s="31">
         <f t="shared" si="0"/>
-        <v>4.3833333333333328E-2</v>
-      </c>
-      <c r="G5" s="32">
+        <v>2.7239999999999993E-2</v>
+      </c>
+      <c r="G5" s="31">
         <f t="shared" si="0"/>
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="H5" s="32">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="H5" s="31">
         <f t="shared" si="0"/>
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="I5" s="14" t="e">
+        <v>1.8599999999999999E-3</v>
+      </c>
+      <c r="I5" s="13">
         <f t="shared" ref="I5:M5" si="3">AVERAGE(I9,I13,I17,I21,I25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="32" t="e">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="J5" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="32" t="e">
+        <v>3.966666666666667E-3</v>
+      </c>
+      <c r="K5" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="32" t="e">
+        <v>1.9666666666666665E-3</v>
+      </c>
+      <c r="L5" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="32" t="e">
+        <v>1.9666666666666665E-3</v>
+      </c>
+      <c r="M5" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.9666666666666665E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f t="shared" si="0"/>
-        <v>8.879999999999999E-2</v>
-      </c>
-      <c r="E6" s="13">
+        <v>6.1879999999999991E-2</v>
+      </c>
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
-        <v>2.6099999999999998E-2</v>
-      </c>
-      <c r="F6" s="13">
+        <v>1.6840000000000001E-2</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>6.2333333333333329E-3</v>
-      </c>
-      <c r="G6" s="13">
+        <v>4.5799999999999999E-3</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>6.2333333333333329E-3</v>
-      </c>
-      <c r="H6" s="13">
+        <v>4.5799999999999999E-3</v>
+      </c>
+      <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>5.6666666666666671E-3</v>
-      </c>
-      <c r="I6" s="15" t="e">
+        <v>4.1600000000000005E-3</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" ref="I6:M6" si="4">AVERAGE(I10,I14,I18,I22,I26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="13" t="e">
+        <v>7.3466666666666666E-2</v>
+      </c>
+      <c r="J6" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="13" t="e">
+        <v>2E-3</v>
+      </c>
+      <c r="K6" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="13" t="e">
+        <v>1.8333333333333333E-3</v>
+      </c>
+      <c r="L6" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="13" t="e">
+        <v>1.8333333333333333E-3</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.8333333333333333E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B7" t="str">
@@ -1208,7 +1201,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E7">
@@ -1223,10 +1216,24 @@
       <c r="H7">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.6999999999999999E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" t="str">
         <f t="shared" ref="B8:C8" si="5">B4</f>
         <v>skopt.dummy_min</v>
@@ -1235,7 +1242,7 @@
         <f t="shared" si="5"/>
         <v>[]</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.3387</v>
       </c>
       <c r="E8">
@@ -1250,10 +1257,24 @@
       <c r="H8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="13">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M8">
+        <v>2.0999999999999999E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="str">
         <f t="shared" ref="B9:C9" si="6">B5</f>
         <v>skopt.forest_min</v>
@@ -1262,7 +1283,7 @@
         <f t="shared" si="6"/>
         <v>[]</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.3387</v>
       </c>
       <c r="E9">
@@ -1277,41 +1298,65 @@
       <c r="H9">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="13">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J9">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K9">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L9">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M9">
+        <v>1.6999999999999999E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13" t="str">
+      <c r="A10" s="22"/>
+      <c r="B10" s="12" t="str">
         <f t="shared" ref="B10:C10" si="7">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="12" t="str">
         <f t="shared" si="7"/>
         <v>[]</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0.26</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>1.4E-2</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="I10" s="14">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="str">
@@ -1322,7 +1367,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E11">
@@ -1337,10 +1382,24 @@
       <c r="H11">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="13">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J11">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K11">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L11">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M11">
+        <v>1.6999999999999999E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" t="str">
         <f t="shared" ref="B12:C12" si="8">B4</f>
         <v>skopt.dummy_min</v>
@@ -1349,7 +1408,7 @@
         <f t="shared" si="8"/>
         <v>[]</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="E12">
@@ -1364,10 +1423,24 @@
       <c r="H12">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="13">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="J12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="K12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="L12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M12">
+        <v>6.7999999999999996E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" t="str">
         <f t="shared" ref="B13:C13" si="9">B5</f>
         <v>skopt.forest_min</v>
@@ -1376,7 +1449,7 @@
         <f t="shared" si="9"/>
         <v>[]</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="E13">
@@ -1391,41 +1464,65 @@
       <c r="H13">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="13">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="J13">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="K13">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L13">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M13">
+        <v>2.0999999999999999E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="13" t="str">
+      <c r="A14" s="22"/>
+      <c r="B14" s="12" t="str">
         <f t="shared" ref="B14:C14" si="10">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="12" t="str">
         <f t="shared" si="10"/>
         <v>[]</v>
       </c>
-      <c r="D14" s="15">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="D14" s="14">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F14" s="12">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="I14" s="14">
+        <v>0.2157</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="str">
@@ -1436,7 +1533,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E15">
@@ -1451,10 +1548,24 @@
       <c r="H15">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="13">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>3.8E-3</v>
+      </c>
+      <c r="K15">
+        <v>3.8E-3</v>
+      </c>
+      <c r="L15">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M15">
+        <v>2.0999999999999999E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="B16" t="str">
         <f t="shared" ref="B16:C16" si="11">B4</f>
         <v>skopt.dummy_min</v>
@@ -1463,7 +1574,7 @@
         <f t="shared" si="11"/>
         <v>[]</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E16">
@@ -1478,10 +1589,24 @@
       <c r="H16">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="13">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="L16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M16">
+        <v>1.2999999999999999E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="B17" t="str">
         <f t="shared" ref="B17:C17" si="12">B5</f>
         <v>skopt.forest_min</v>
@@ -1490,7 +1615,7 @@
         <f t="shared" si="12"/>
         <v>[]</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E17">
@@ -1505,41 +1630,65 @@
       <c r="H17">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="13">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M17">
+        <v>2.0999999999999999E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="13" t="str">
+      <c r="A18" s="22"/>
+      <c r="B18" s="12" t="str">
         <f t="shared" ref="B18:C18" si="13">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="12" t="str">
         <f t="shared" si="13"/>
         <v>[]</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="E18" s="13">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="H18" s="13">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="E18" s="12">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I18" s="14">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J18" s="12">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="K18" s="12">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L18" s="12">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M18" s="12">
+        <v>2.0999999999999999E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="str">
@@ -1550,11 +1699,25 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="D19" s="13">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="E19">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" t="str">
         <f t="shared" ref="B20:C20" si="14">B4</f>
         <v>skopt.dummy_min</v>
@@ -1563,11 +1726,25 @@
         <f t="shared" si="14"/>
         <v>[]</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="D20" s="13">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G20">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H20">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" t="str">
         <f t="shared" ref="B21:C21" si="15">B5</f>
         <v>skopt.forest_min</v>
@@ -1576,32 +1753,56 @@
         <f t="shared" si="15"/>
         <v>[]</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="D21" s="13">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F21">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G21">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H21">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="13" t="str">
+      <c r="A22" s="22"/>
+      <c r="B22" s="12" t="str">
         <f t="shared" ref="B22:C22" si="16">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="12" t="str">
         <f t="shared" si="16"/>
         <v>[]</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="D22" s="14">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="str">
@@ -1612,11 +1813,25 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="D23" s="13">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G23">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H23">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
       <c r="B24" t="str">
         <f t="shared" ref="B24:C24" si="17">B4</f>
         <v>skopt.dummy_min</v>
@@ -1625,11 +1840,25 @@
         <f t="shared" si="17"/>
         <v>[]</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="D24" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" t="str">
         <f t="shared" ref="B25:C25" si="18">B5</f>
         <v>skopt.forest_min</v>
@@ -1638,11 +1867,25 @@
         <f t="shared" si="18"/>
         <v>[]</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="D25" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="F25">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G25">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H25">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" t="str">
         <f t="shared" ref="B26:C26" si="19">B6</f>
         <v>skopt.gbrt_min</v>
@@ -1651,8 +1894,22 @@
         <f t="shared" si="19"/>
         <v>[]</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="D26" s="13">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>3.8E-3</v>
+      </c>
+      <c r="F26">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G26">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H26">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I26" s="13"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -1759,7 +2016,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -1771,7 +2028,7 @@
       <c r="D32">
         <v>101</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32">
         <f>10^-2</f>
         <v>0.01</v>
       </c>
@@ -1815,10 +2072,84 @@
       <c r="P32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="Q32">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="R32">
+        <v>7.8104293049744797E-2</v>
+      </c>
+      <c r="S32">
+        <v>1.58915619152023E-3</v>
+      </c>
+      <c r="T32">
+        <v>21.383886468139199</v>
+      </c>
+      <c r="U32">
+        <v>7</v>
+      </c>
+      <c r="V32">
+        <v>10.283602902208001</v>
+      </c>
+      <c r="W32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>201</v>
+      </c>
+      <c r="D33">
+        <v>101</v>
+      </c>
+      <c r="E33">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
+      <c r="F33">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H33">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="I33">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1957,10 +2288,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H26">
-    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M26">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FCDB92-10E5-476E-8853-7DAE536AF2A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4AEF60-8043-492B-93CF-5544EF695ABA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Algorithm</t>
   </si>
@@ -183,6 +183,48 @@
   <si>
     <t>Scenario 1</t>
   </si>
+  <si>
+    <t>Coil20</t>
+  </si>
+  <si>
+    <t>2_10</t>
+  </si>
+  <si>
+    <t>2_20</t>
+  </si>
+  <si>
+    <t>2_30</t>
+  </si>
+  <si>
+    <t>2_40</t>
+  </si>
+  <si>
+    <t>2_50</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>3_10</t>
+  </si>
+  <si>
+    <t>3_20</t>
+  </si>
+  <si>
+    <t>3_30</t>
+  </si>
+  <si>
+    <t>3_40</t>
+  </si>
+  <si>
+    <t>3_50</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>n_rand</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +295,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBC8FDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,6 +527,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -513,11 +568,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -529,6 +605,62 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -574,35 +706,4327 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scenario 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>gp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3620000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9399999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7799999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D189-4D3B-A7DA-C5372823A4D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>dummy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.846000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6420000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2480000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2480000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1000000000000013E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D189-4D3B-A7DA-C5372823A4D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.846000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4219999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7239999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8599999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D189-4D3B-A7DA-C5372823A4D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>gbrt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1879999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6840000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1600000000000005E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D189-4D3B-A7DA-C5372823A4D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383917472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383914520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383914520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383917472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scenario 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>gp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.9820000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2199999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7799999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDB2-419C-B438-AC5336C4C420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>dummy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5599999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDB2-419C-B438-AC5336C4C420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2399999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0199999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0199999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9399999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDB2-419C-B438-AC5336C4C420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>gbrt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.2199999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7799999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDB2-419C-B438-AC5336C4C420}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383917472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383914520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383914520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383917472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scenario 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>gp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.58846000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7DE-4096-A292-D5E5F48630CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>dummy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37403999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29347999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29347999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29347999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7DE-4096-A292-D5E5F48630CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32778000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29637999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28443999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27944000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F7DE-4096-A292-D5E5F48630CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>gbrt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45207999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40401999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38777999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38570000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F7DE-4096-A292-D5E5F48630CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383917472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383914520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383914520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383917472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scenario 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>gp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44278000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34404000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33234000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33234000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D6A-4FEB-86DB-CCCD2AD5B9D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>dummy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37585999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34777999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34415999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33929999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D6A-4FEB-86DB-CCCD2AD5B9D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37585999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33487999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32473999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31751999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31069999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D6A-4FEB-86DB-CCCD2AD5B9D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>gbrt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30515999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23944000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D6A-4FEB-86DB-CCCD2AD5B9D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383917472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383914520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383914520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383917472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B568452C-D4DC-4D9C-9919-AC819B9280D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058CA454-20E8-457E-A7CE-48442CBCF67E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F14ED8B-CA3E-4891-BC17-DEB126542A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93E8737-27EE-43F3-B69D-960DF341C4B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:M26" totalsRowShown="0" headerRowBorderDxfId="3">
-  <autoFilter ref="B2:M26" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:W26" totalsRowShown="0" headerRowBorderDxfId="15">
+  <autoFilter ref="B2:W26" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
+  <tableColumns count="22">
     <tableColumn id="2" xr3:uid="{C5D03F94-B59B-4111-B686-B3565B731BE0}" name="Function"/>
     <tableColumn id="13" xr3:uid="{E5FFF603-2140-4CBD-A5E2-FB1006364FE6}" name="Parameters"/>
-    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(D7,D11,D15,D19,D23)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="0_20"/>
     <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="0_30"/>
     <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="0_40"/>
     <tableColumn id="14" xr3:uid="{7979ACA1-BADA-4348-8B51-C28AD9AC9DC4}" name="0_50"/>
-    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="16"/>
     <tableColumn id="16" xr3:uid="{2963D26E-B527-4009-82A3-456B51C513FA}" name="1_20"/>
     <tableColumn id="17" xr3:uid="{5F12FDBB-B6D3-41D5-A3E8-4C7491D3E3A4}" name="1_30"/>
     <tableColumn id="18" xr3:uid="{E1D4DE2A-337D-413B-9569-8907A74F5FB9}" name="1_40"/>
     <tableColumn id="19" xr3:uid="{0CB7B969-7FCA-450C-BFF4-B282D45DB3F0}" name="1_50"/>
+    <tableColumn id="20" xr3:uid="{25C161C7-3A5F-46F9-A58E-E50C40E695E9}" name="2_10" dataDxfId="13">
+      <calculatedColumnFormula>AVERAGE(N7,N11,N15,N19,N23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{92C77FFB-822C-4C4C-872C-434257092BAB}" name="2_20" dataDxfId="12">
+      <calculatedColumnFormula>AVERAGE(O7,O11,O15,O19,O23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{F58CD74E-3C9C-455A-A6C0-47979DA875CC}" name="2_30" dataDxfId="11">
+      <calculatedColumnFormula>AVERAGE(P7,P11,P15,P19,P23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{218B8C4F-D760-41D0-B96D-65C6EAF8CF93}" name="2_40" dataDxfId="10">
+      <calculatedColumnFormula>AVERAGE(Q7,Q11,Q15,Q19,Q23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{E571C054-FEDA-48EE-B9CA-C0D2C945CC62}" name="2_50" dataDxfId="9">
+      <calculatedColumnFormula>AVERAGE(R7,R11,R15,R19,R23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{65AC0F3E-819B-434F-A1FB-22A82A16F3B5}" name="3_10" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{261E4D8B-13D7-468B-B2D5-9E4351F4C087}" name="3_20" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{C52A27CE-0F57-4E93-8037-A96CCF29B592}" name="3_30" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{D92C4A5A-4403-46AF-9D8E-47D0CAADFA40}" name="3_40" dataDxfId="5"/>
+    <tableColumn id="29" xr3:uid="{50105550-BCDB-4867-B880-55D0C021143E}" name="3_50" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AF39C55-E78F-425F-89F4-BC666A41BB4F}" name="Table2" displayName="Table2" ref="A31:W33" totalsRowShown="0">
-  <autoFilter ref="A31:W33" xr:uid="{2D87966D-B079-4B69-AC3D-C8DEB2366165}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AF39C55-E78F-425F-89F4-BC666A41BB4F}" name="Table2" displayName="Table2" ref="A31:X35" totalsRowShown="0">
+  <autoFilter ref="A31:X35" xr:uid="{2D87966D-B079-4B69-AC3D-C8DEB2366165}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{3F1A14A8-1EC1-43C0-90DF-645BF2780390}" name="Number"/>
     <tableColumn id="2" xr3:uid="{C568F7B3-4578-4675-A7AC-0C827C456883}" name="Dataset"/>
+    <tableColumn id="24" xr3:uid="{8CC9007F-9248-45A0-9266-AF496F21AB16}" name="n_rand"/>
     <tableColumn id="3" xr3:uid="{881362A8-4402-4B10-8C23-30D575CC55CB}" name="ep_prtr"/>
     <tableColumn id="4" xr3:uid="{EB69AEC0-3748-40EA-B73E-3B0CA4A1CF71}" name="epochs"/>
     <tableColumn id="5" xr3:uid="{574C2CD9-BA7A-4A9F-AD66-C48399A2B618}" name="0_min">
@@ -908,10 +5332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,80 +5343,134 @@
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="18" t="s">
         <v>5</v>
       </c>
+      <c r="N2" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="40" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
@@ -1001,196 +5479,356 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="32">
-        <f t="shared" ref="D3:H26" si="0">AVERAGE(D7,D11,D15,D19,D23)</f>
+      <c r="D3" s="33">
+        <f t="shared" ref="D3:H6" si="0">AVERAGE(D7,D11,D15,D19,D23)</f>
         <v>7.3620000000000005E-2</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="34">
         <f t="shared" si="0"/>
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="34">
         <f t="shared" si="0"/>
         <v>1.9399999999999997E-3</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="34">
         <f t="shared" si="0"/>
         <v>1.8599999999999999E-3</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="32">
         <f t="shared" si="0"/>
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="33">
         <f t="shared" ref="I3:M3" si="1">AVERAGE(I7,I11,I15,I19,I23)</f>
-        <v>2.58E-2</v>
-      </c>
-      <c r="J3" s="31">
+        <v>7.9820000000000016E-2</v>
+      </c>
+      <c r="J3" s="32">
         <f t="shared" si="1"/>
-        <v>1.43E-2</v>
-      </c>
-      <c r="K3" s="31">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="K3" s="32">
         <f t="shared" si="1"/>
-        <v>1.1466666666666667E-2</v>
-      </c>
-      <c r="L3" s="31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L3" s="32">
         <f t="shared" si="1"/>
-        <v>2.5666666666666663E-3</v>
-      </c>
-      <c r="M3" s="31">
+        <v>2.2199999999999998E-3</v>
+      </c>
+      <c r="M3" s="32">
         <f t="shared" si="1"/>
-        <v>1.8333333333333333E-3</v>
+        <v>1.7799999999999997E-3</v>
+      </c>
+      <c r="N3" s="33">
+        <f t="shared" ref="N3:N6" si="2">AVERAGE(N7,N11,N15,N19,N23)</f>
+        <v>0.58846000000000009</v>
+      </c>
+      <c r="O3" s="32">
+        <f t="shared" ref="O3:O6" si="3">AVERAGE(O7,O11,O15,O19,O23)</f>
+        <v>0.38666</v>
+      </c>
+      <c r="P3" s="32">
+        <f t="shared" ref="P3:P6" si="4">AVERAGE(P7,P11,P15,P19,P23)</f>
+        <v>0.33584000000000003</v>
+      </c>
+      <c r="Q3" s="32">
+        <f t="shared" ref="Q3:Q6" si="5">AVERAGE(Q7,Q11,Q15,Q19,Q23)</f>
+        <v>0.33404</v>
+      </c>
+      <c r="R3" s="32">
+        <f t="shared" ref="R3:V6" si="6">AVERAGE(R7,R11,R15,R19,R23)</f>
+        <v>0.33404</v>
+      </c>
+      <c r="S3" s="33">
+        <f t="shared" si="6"/>
+        <v>0.44278000000000006</v>
+      </c>
+      <c r="T3" s="32">
+        <f t="shared" si="6"/>
+        <v>0.34404000000000001</v>
+      </c>
+      <c r="U3" s="32">
+        <f t="shared" si="6"/>
+        <v>0.33832000000000001</v>
+      </c>
+      <c r="V3" s="32">
+        <f t="shared" si="6"/>
+        <v>0.33234000000000002</v>
+      </c>
+      <c r="W3" s="32">
+        <f t="shared" ref="W3" si="7">AVERAGE(W7,W11,W15,W19,W23)</f>
+        <v>0.33234000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <f t="shared" si="0"/>
         <v>9.846000000000002E-2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="32">
         <f t="shared" si="0"/>
         <v>5.6420000000000005E-2</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="32">
         <f t="shared" si="0"/>
         <v>1.2480000000000002E-2</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="32">
         <f t="shared" si="0"/>
         <v>1.2480000000000002E-2</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="32">
         <f t="shared" si="0"/>
         <v>6.1000000000000013E-3</v>
       </c>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:M4" si="2">AVERAGE(I8,I12,I16,I20,I24)</f>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="J4" s="31">
+      <c r="I4" s="14">
+        <f t="shared" ref="I4:M4" si="8">AVERAGE(I8,I12,I16,I20,I24)</f>
+        <v>2.0580000000000001E-2</v>
+      </c>
+      <c r="J4" s="32">
+        <f t="shared" si="8"/>
+        <v>3.5599999999999998E-3</v>
+      </c>
+      <c r="K4" s="32">
+        <f t="shared" si="8"/>
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="L4" s="32">
+        <f t="shared" si="8"/>
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="M4" s="32">
+        <f t="shared" si="8"/>
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="N4" s="14">
         <f t="shared" si="2"/>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K4" s="31">
-        <f t="shared" si="2"/>
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="L4" s="31">
-        <f t="shared" si="2"/>
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="M4" s="31">
-        <f t="shared" si="2"/>
-        <v>3.4000000000000002E-3</v>
+        <v>0.37403999999999998</v>
+      </c>
+      <c r="O4" s="32">
+        <f t="shared" si="3"/>
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="P4" s="32">
+        <f t="shared" si="4"/>
+        <v>0.29347999999999996</v>
+      </c>
+      <c r="Q4" s="32">
+        <f t="shared" si="5"/>
+        <v>0.29347999999999996</v>
+      </c>
+      <c r="R4" s="32">
+        <f t="shared" si="6"/>
+        <v>0.29347999999999996</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="6"/>
+        <v>0.37585999999999997</v>
+      </c>
+      <c r="T4" s="32">
+        <f t="shared" si="6"/>
+        <v>0.34777999999999998</v>
+      </c>
+      <c r="U4" s="32">
+        <f t="shared" si="6"/>
+        <v>0.34415999999999997</v>
+      </c>
+      <c r="V4" s="32">
+        <f t="shared" si="6"/>
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="W4" s="32">
+        <f t="shared" ref="W4" si="9">AVERAGE(W8,W12,W16,W20,W24)</f>
+        <v>0.33929999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <f t="shared" si="0"/>
         <v>9.846000000000002E-2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="32">
         <f t="shared" si="0"/>
         <v>3.4219999999999993E-2</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="32">
         <f t="shared" si="0"/>
         <v>2.7239999999999993E-2</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="32">
         <f t="shared" si="0"/>
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="32">
         <f t="shared" si="0"/>
         <v>1.8599999999999999E-3</v>
       </c>
-      <c r="I5" s="13">
-        <f t="shared" ref="I5:M5" si="3">AVERAGE(I9,I13,I17,I21,I25)</f>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="J5" s="31">
+      <c r="I5" s="14">
+        <f t="shared" ref="I5:M5" si="10">AVERAGE(I9,I13,I17,I21,I25)</f>
+        <v>2.0580000000000001E-2</v>
+      </c>
+      <c r="J5" s="32">
+        <f t="shared" si="10"/>
+        <v>4.2399999999999998E-3</v>
+      </c>
+      <c r="K5" s="32">
+        <f t="shared" si="10"/>
+        <v>2.0199999999999997E-3</v>
+      </c>
+      <c r="L5" s="32">
+        <f t="shared" si="10"/>
+        <v>2.0199999999999997E-3</v>
+      </c>
+      <c r="M5" s="32">
+        <f t="shared" si="10"/>
+        <v>1.9399999999999997E-3</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" si="2"/>
+        <v>0.37390000000000001</v>
+      </c>
+      <c r="O5" s="32">
         <f t="shared" si="3"/>
-        <v>3.966666666666667E-3</v>
-      </c>
-      <c r="K5" s="31">
-        <f t="shared" si="3"/>
-        <v>1.9666666666666665E-3</v>
-      </c>
-      <c r="L5" s="31">
-        <f t="shared" si="3"/>
-        <v>1.9666666666666665E-3</v>
-      </c>
-      <c r="M5" s="31">
-        <f t="shared" si="3"/>
-        <v>1.9666666666666665E-3</v>
+        <v>0.32778000000000002</v>
+      </c>
+      <c r="P5" s="32">
+        <f t="shared" si="4"/>
+        <v>0.29637999999999998</v>
+      </c>
+      <c r="Q5" s="32">
+        <f t="shared" si="5"/>
+        <v>0.28443999999999997</v>
+      </c>
+      <c r="R5" s="32">
+        <f t="shared" si="6"/>
+        <v>0.27944000000000002</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="6"/>
+        <v>0.37585999999999997</v>
+      </c>
+      <c r="T5" s="32">
+        <f t="shared" si="6"/>
+        <v>0.33487999999999996</v>
+      </c>
+      <c r="U5" s="32">
+        <f t="shared" si="6"/>
+        <v>0.32473999999999997</v>
+      </c>
+      <c r="V5" s="32">
+        <f t="shared" si="6"/>
+        <v>0.31751999999999997</v>
+      </c>
+      <c r="W5" s="32">
+        <f t="shared" ref="W5" si="11">AVERAGE(W9,W13,W17,W21,W25)</f>
+        <v>0.31069999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>6.1879999999999991E-2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>1.6840000000000001E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>4.5799999999999999E-3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>4.5799999999999999E-3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>4.1600000000000005E-3</v>
       </c>
-      <c r="I6" s="14">
-        <f t="shared" ref="I6:M6" si="4">AVERAGE(I10,I14,I18,I22,I26)</f>
-        <v>7.3466666666666666E-2</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="I6" s="15">
+        <f t="shared" ref="I6:M6" si="12">AVERAGE(I10,I14,I18,I22,I26)</f>
+        <v>6.2199999999999991E-2</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="12"/>
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="12"/>
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="12"/>
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="12"/>
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="2"/>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="3"/>
+        <v>0.45207999999999993</v>
+      </c>
+      <c r="P6" s="13">
         <f t="shared" si="4"/>
-        <v>2E-3</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="4"/>
-        <v>1.8333333333333333E-3</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="4"/>
-        <v>1.8333333333333333E-3</v>
-      </c>
-      <c r="M6" s="12">
-        <f t="shared" si="4"/>
-        <v>1.8333333333333333E-3</v>
+        <v>0.40401999999999993</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38777999999999996</v>
+      </c>
+      <c r="R6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.38570000000000004</v>
+      </c>
+      <c r="S6" s="15">
+        <f t="shared" si="6"/>
+        <v>0.34209999999999996</v>
+      </c>
+      <c r="T6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.30515999999999999</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.29418</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.26929999999999998</v>
+      </c>
+      <c r="W6" s="13">
+        <f t="shared" ref="W6" si="13">AVERAGE(W10,W14,W18,W22,W26)</f>
+        <v>0.23944000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B7" t="str">
@@ -1201,7 +5839,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E7">
@@ -1216,7 +5854,7 @@
       <c r="H7">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="14">
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="J7">
@@ -1231,18 +5869,48 @@
       <c r="M7">
         <v>1.6999999999999999E-3</v>
       </c>
+      <c r="N7" s="14">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="O7">
+        <v>0.434</v>
+      </c>
+      <c r="P7">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="S7" s="44">
+        <v>0.434</v>
+      </c>
+      <c r="T7" s="45">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="U7" s="45">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="V7" s="45">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="W7" s="45">
+        <v>0.32150000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
       <c r="B8" t="str">
-        <f t="shared" ref="B8:C8" si="5">B4</f>
+        <f t="shared" ref="B8:C8" si="14">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>[]</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>0.3387</v>
       </c>
       <c r="E8">
@@ -1257,7 +5925,7 @@
       <c r="H8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="J8">
@@ -1272,18 +5940,48 @@
       <c r="M8">
         <v>2.0999999999999999E-3</v>
       </c>
+      <c r="N8" s="14">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="O8">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="P8">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="S8" s="44">
+        <v>0.4264</v>
+      </c>
+      <c r="T8" s="45">
+        <v>0.4264</v>
+      </c>
+      <c r="U8" s="45">
+        <v>0.4083</v>
+      </c>
+      <c r="V8" s="45">
+        <v>0.4083</v>
+      </c>
+      <c r="W8" s="45">
+        <v>0.4083</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
       <c r="B9" t="str">
-        <f t="shared" ref="B9:C9" si="6">B5</f>
+        <f t="shared" ref="B9:C9" si="15">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>[]</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>0.3387</v>
       </c>
       <c r="E9">
@@ -1298,7 +5996,7 @@
       <c r="H9">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="14">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="J9">
@@ -1313,50 +6011,110 @@
       <c r="M9">
         <v>1.6999999999999999E-3</v>
       </c>
+      <c r="N9" s="14">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="P9">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.43540000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.42430000000000001</v>
+      </c>
+      <c r="S9" s="44">
+        <v>0.4264</v>
+      </c>
+      <c r="T9" s="45">
+        <v>0.3236</v>
+      </c>
+      <c r="U9" s="45">
+        <v>0.3236</v>
+      </c>
+      <c r="V9" s="45">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="W9" s="45">
+        <v>0.28749999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12" t="str">
-        <f t="shared" ref="B10:C10" si="7">B6</f>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="13" t="str">
+        <f t="shared" ref="B10:C10" si="16">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C10" s="12" t="str">
-        <f t="shared" si="7"/>
+      <c r="C10" s="13" t="str">
+        <f t="shared" si="16"/>
         <v>[]</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="15">
         <v>0.26</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <v>1.4E-2</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="15">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
+      <c r="N10" s="15">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="S10" s="46">
+        <v>0.4264</v>
+      </c>
+      <c r="T10" s="47">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="U10" s="47">
+        <v>0.3125</v>
+      </c>
+      <c r="V10" s="47">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="W10" s="47">
+        <v>0.27289999999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="str">
@@ -1367,7 +6125,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E11">
@@ -1382,7 +6140,7 @@
       <c r="H11">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="J11">
@@ -1397,18 +6155,48 @@
       <c r="M11">
         <v>1.6999999999999999E-3</v>
       </c>
+      <c r="N11" s="14">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="O11">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="S11" s="44">
+        <v>0.67290000000000005</v>
+      </c>
+      <c r="T11" s="45">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="U11" s="45">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="V11" s="45">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="W11" s="45">
+        <v>0.33400000000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
       <c r="B12" t="str">
-        <f t="shared" ref="B12:C12" si="8">B4</f>
+        <f t="shared" ref="B12:C12" si="17">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>[]</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="E12">
@@ -1423,7 +6211,7 @@
       <c r="H12">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="J12">
@@ -1438,18 +6226,48 @@
       <c r="M12">
         <v>6.7999999999999996E-3</v>
       </c>
+      <c r="N12" s="14">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="O12" s="32">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="P12" s="32">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="R12" s="32">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="S12" s="44">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="T12" s="45">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="U12" s="45">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="V12" s="45">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="W12" s="45">
+        <v>0.35489999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
       <c r="B13" t="str">
-        <f t="shared" ref="B13:C13" si="9">B5</f>
+        <f t="shared" ref="B13:C13" si="18">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[]</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="E13">
@@ -1464,7 +6282,7 @@
       <c r="H13">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="J13">
@@ -1479,50 +6297,110 @@
       <c r="M13">
         <v>2.0999999999999999E-3</v>
       </c>
+      <c r="N13" s="14">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="S13" s="44">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="T13" s="45">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="U13" s="45">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="V13" s="45">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="W13" s="45">
+        <v>0.30420000000000003</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="12" t="str">
-        <f t="shared" ref="B14:C14" si="10">B6</f>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="13" t="str">
+        <f t="shared" ref="B14:C14" si="19">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C14" s="12" t="str">
-        <f t="shared" si="10"/>
+      <c r="C14" s="13" t="str">
+        <f t="shared" si="19"/>
         <v>[]</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="15">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="15">
         <v>0.2157</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
+      <c r="N14" s="15">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.4521</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0.3271</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0.3271</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.3271</v>
+      </c>
+      <c r="S14" s="46">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="T14" s="47">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="U14" s="47">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="V14" s="47">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="W14" s="47">
+        <v>0.2271</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="str">
@@ -1533,7 +6411,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E15">
@@ -1548,7 +6426,7 @@
       <c r="H15">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="14">
         <v>3.8300000000000001E-2</v>
       </c>
       <c r="J15">
@@ -1563,18 +6441,48 @@
       <c r="M15">
         <v>2.0999999999999999E-3</v>
       </c>
+      <c r="N15" s="14">
+        <v>0.48470000000000002</v>
+      </c>
+      <c r="O15">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="P15">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="R15">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="S15" s="44">
+        <v>0.3826</v>
+      </c>
+      <c r="T15" s="45">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="U15" s="45">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="V15" s="45">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="W15" s="45">
+        <v>0.32990000000000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
       <c r="B16" t="str">
-        <f t="shared" ref="B16:C16" si="11">B4</f>
+        <f t="shared" ref="B16:C16" si="20">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>[]</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E16">
@@ -1589,7 +6497,7 @@
       <c r="H16">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="14">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="J16">
@@ -1604,18 +6512,48 @@
       <c r="M16">
         <v>1.2999999999999999E-3</v>
       </c>
+      <c r="N16" s="14">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="O16">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="P16">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="Q16">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="S16" s="44">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="T16" s="45">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="U16" s="45">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="V16" s="45">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="W16" s="45">
+        <v>0.30209999999999998</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:C17" si="12">B5</f>
+        <f t="shared" ref="B17:C17" si="21">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>[]</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E17">
@@ -1630,7 +6568,7 @@
       <c r="H17">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="14">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="J17">
@@ -1645,50 +6583,110 @@
       <c r="M17">
         <v>2.0999999999999999E-3</v>
       </c>
+      <c r="N17" s="14">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="O17">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="Q17">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="R17">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="S17" s="44">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="T17" s="45">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="U17" s="45">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="V17" s="45">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="W17" s="45">
+        <v>0.30209999999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="12" t="str">
-        <f t="shared" ref="B18:C18" si="13">B6</f>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="13" t="str">
+        <f t="shared" ref="B18:C18" si="22">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C18" s="12" t="str">
-        <f t="shared" si="13"/>
+      <c r="C18" s="13" t="str">
+        <f t="shared" si="22"/>
         <v>[]</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="15">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="15">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="13">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
+      <c r="N18" s="15">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.44929999999999998</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="S18" s="46">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="T18" s="47">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="U18" s="47">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="V18" s="47">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="W18" s="47">
+        <v>0.30209999999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="str">
@@ -1699,7 +6697,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="14">
         <v>0.31830000000000003</v>
       </c>
       <c r="E19">
@@ -1714,19 +6712,63 @@
       <c r="H19">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="14">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="J19">
+        <v>0.02</v>
+      </c>
+      <c r="K19">
+        <v>4.3E-3</v>
+      </c>
+      <c r="L19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0.5736</v>
+      </c>
+      <c r="O19">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="P19">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="Q19">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="R19">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="S19" s="44">
+        <v>0.3306</v>
+      </c>
+      <c r="T19" s="45">
+        <v>0.316</v>
+      </c>
+      <c r="U19" s="45">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="V19" s="45">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="W19" s="45">
+        <v>0.29370000000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
       <c r="B20" t="str">
-        <f t="shared" ref="B20:C20" si="14">B4</f>
+        <f t="shared" ref="B20:C20" si="23">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="14">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="E20">
@@ -1741,19 +6783,63 @@
       <c r="H20">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="14">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="J20">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K20">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="L20">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M20">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="R20">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="S20" s="44">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="T20" s="45">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="U20" s="45">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="V20" s="45">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="W20" s="45">
+        <v>0.29649999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
       <c r="B21" t="str">
-        <f t="shared" ref="B21:C21" si="15">B5</f>
+        <f t="shared" ref="B21:C21" si="24">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>[]</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="14">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="E21">
@@ -1768,41 +6854,125 @@
       <c r="H21">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="14">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="J21">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="K21">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L21">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M21">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.1542</v>
+      </c>
+      <c r="P21">
+        <v>0.1236</v>
+      </c>
+      <c r="Q21">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="R21">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="S21" s="44">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="T21" s="45">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="U21" s="45">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="V21" s="45">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="W21">
+        <v>0.31869999999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="12" t="str">
-        <f t="shared" ref="B22:C22" si="16">B6</f>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="13" t="str">
+        <f t="shared" ref="B22:C22" si="25">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C22" s="12" t="str">
-        <f t="shared" si="16"/>
+      <c r="C22" s="13" t="str">
+        <f t="shared" si="25"/>
         <v>[]</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="15">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="I22" s="15">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L22" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M22" s="13">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N22" s="15">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.35759999999999997</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="S22" s="46">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="T22" s="47">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="U22" s="47">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="V22" s="47">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="W22" s="47">
+        <v>0.28260000000000002</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="str">
@@ -1813,7 +6983,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="14">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="E23">
@@ -1828,19 +6998,63 @@
       <c r="H23">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="14">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J23">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="K23">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="L23">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M23">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="O23">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="P23">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="S23" s="44">
+        <v>0.39379999999999998</v>
+      </c>
+      <c r="T23" s="45">
+        <v>0.39379999999999998</v>
+      </c>
+      <c r="U23" s="45">
+        <v>0.39379999999999998</v>
+      </c>
+      <c r="V23" s="45">
+        <v>0.3826</v>
+      </c>
+      <c r="W23" s="45">
+        <v>0.3826</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:C24" si="17">B4</f>
+        <f t="shared" ref="B24:C24" si="26">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>[]</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="14">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E24">
@@ -1855,19 +7069,63 @@
       <c r="H24">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="14">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J24">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="P24">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="R24">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="S24" s="44">
+        <v>0.4042</v>
+      </c>
+      <c r="T24" s="45">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="U24" s="45">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="V24" s="45">
+        <v>0.3347</v>
+      </c>
+      <c r="W24" s="45">
+        <v>0.3347</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
       <c r="B25" t="str">
-        <f t="shared" ref="B25:C25" si="18">B5</f>
+        <f t="shared" ref="B25:C25" si="27">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>[]</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="14">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E25">
@@ -1882,19 +7140,63 @@
       <c r="H25">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="14">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J25">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K25">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L25">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M25">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="P25">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="Q25">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="R25">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="S25" s="44">
+        <v>0.4042</v>
+      </c>
+      <c r="T25" s="45">
+        <v>0.3528</v>
+      </c>
+      <c r="U25" s="45">
+        <v>0.3528</v>
+      </c>
+      <c r="V25" s="45">
+        <v>0.3528</v>
+      </c>
+      <c r="W25" s="45">
+        <v>0.34100000000000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
       <c r="B26" t="str">
-        <f t="shared" ref="B26:C26" si="19">B6</f>
+        <f t="shared" ref="B26:C26" si="28">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>[]</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="14">
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="E26">
@@ -1909,9 +7211,53 @@
       <c r="H26">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="14">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J26">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K26">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="L26">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M26">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="O26">
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="P26">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="Q26">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="R26">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="S26" s="44">
+        <v>0.1799</v>
+      </c>
+      <c r="T26" s="45">
+        <v>0.1799</v>
+      </c>
+      <c r="U26" s="45">
+        <v>0.1799</v>
+      </c>
+      <c r="V26" s="45">
+        <v>0.1125</v>
+      </c>
+      <c r="W26" s="45">
+        <v>0.1125</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1920,10 +7266,10 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1934,17 +7280,18 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="5"/>
+      <c r="R30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1952,212 +7299,406 @@
         <v>12</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="V31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
         <v>0</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
         <v>201</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>101</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f>10^-3</f>
         <v>1E-3</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f>10^-1</f>
         <v>0.1</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f>10^2</f>
         <v>100</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>32</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f>10^2</f>
         <v>100</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>32</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>7.8104293049744797E-2</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1.58915619152023E-3</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>21.383886468139199</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>7</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>10.283602902208001</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
         <v>201</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>101</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f>10^-2</f>
         <v>0.01</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f>10^-3</f>
         <v>1E-3</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f>10^-1</f>
         <v>0.1</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f>10^2</f>
         <v>100</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>10</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>32</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <f>10^2</f>
         <v>100</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>10</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>32</v>
+      </c>
+      <c r="R33">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="S33">
+        <v>0.20652340258472601</v>
+      </c>
+      <c r="T33">
+        <v>1.17437068936225E-2</v>
+      </c>
+      <c r="U33">
+        <v>21.53360747208</v>
+      </c>
+      <c r="V33">
+        <v>27</v>
+      </c>
+      <c r="W33">
+        <v>16.968321863245102</v>
+      </c>
+      <c r="X33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="39">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>201</v>
+      </c>
+      <c r="E34">
+        <v>101</v>
+      </c>
+      <c r="F34">
+        <f>10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="G34">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f>10^-5</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I34">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="J34">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="O34">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>100</v>
+      </c>
+      <c r="R34">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="S34">
+        <v>3.6488256520773101E-4</v>
+      </c>
+      <c r="T34" s="10">
+        <v>1.1395576042057601E-5</v>
+      </c>
+      <c r="U34">
+        <v>534.41186237189197</v>
+      </c>
+      <c r="V34">
+        <v>16</v>
+      </c>
+      <c r="W34">
+        <v>5.3377586213430801</v>
+      </c>
+      <c r="X34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>1001</v>
+      </c>
+      <c r="E35">
+        <v>251</v>
+      </c>
+      <c r="F35">
+        <f>10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="G35">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f>10^-5</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I35">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="J35">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="K35">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>200</v>
+      </c>
+      <c r="N35">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="O35">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>200</v>
+      </c>
+      <c r="R35">
+        <v>0.1125</v>
+      </c>
+      <c r="S35">
+        <v>1.03347623075461E-4</v>
+      </c>
+      <c r="T35" s="10">
+        <v>1.5415805242432599E-5</v>
+      </c>
+      <c r="U35">
+        <v>14.519110660781701</v>
+      </c>
+      <c r="V35">
+        <v>93</v>
+      </c>
+      <c r="W35">
+        <v>6.1054043480560001</v>
+      </c>
+      <c r="X35">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E30:P30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="Q30:W30"/>
+    <mergeCell ref="F30:Q30"/>
+    <mergeCell ref="R30:X30"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
@@ -2166,8 +7707,136 @@
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D6">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L6">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H26">
+    <cfRule type="top10" dxfId="3" priority="19" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M26">
+    <cfRule type="top10" dxfId="2" priority="13" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2179,7 +7848,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
+  <conditionalFormatting sqref="O3:O6">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2191,7 +7860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="P3:P6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2203,7 +7872,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G6">
+  <conditionalFormatting sqref="Q3:Q6">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2215,7 +7884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6">
+  <conditionalFormatting sqref="R3:R6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2227,19 +7896,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="R7:R26">
+    <cfRule type="top10" dxfId="1" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J6">
+  <conditionalFormatting sqref="S3:S6">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2251,7 +7911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K6">
+  <conditionalFormatting sqref="T3:T6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2263,7 +7923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L6">
+  <conditionalFormatting sqref="U3:U6">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2275,7 +7935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M6">
+  <conditionalFormatting sqref="V3:V6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2287,16 +7947,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H26">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="W3:W6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M26">
+  <conditionalFormatting sqref="W7:W11 W13:W15 W19:W26">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4AEF60-8043-492B-93CF-5544EF695ABA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05F761-BC85-43A3-9D8D-65EC598BCA2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Algorithm</t>
   </si>
@@ -224,6 +224,21 @@
   </si>
   <si>
     <t>n_rand</t>
+  </si>
+  <si>
+    <t>3_60</t>
+  </si>
+  <si>
+    <t>3_70</t>
+  </si>
+  <si>
+    <t>3_80</t>
+  </si>
+  <si>
+    <t>3_90</t>
+  </si>
+  <si>
+    <t>3_100</t>
   </si>
 </sst>
 </file>
@@ -506,27 +521,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -538,85 +538,94 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="22">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -663,6 +672,15 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -680,13 +698,28 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <vertical/>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2220,10 +2253,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$W$3</c:f>
+              <c:f>Sheet1!$S$3:$AB$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.44278000000000006</c:v>
                 </c:pt>
@@ -2238,6 +2271,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.33234000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31682500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31355000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30435000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30227500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,10 +2317,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$4:$W$4</c:f>
+              <c:f>Sheet1!$S$4:$AB$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.37585999999999997</c:v>
                 </c:pt>
@@ -2287,6 +2335,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.33929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33455000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32047500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,10 +2381,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$5:$W$5</c:f>
+              <c:f>Sheet1!$S$5:$AB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.37585999999999997</c:v>
                 </c:pt>
@@ -2336,6 +2399,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.31069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29793333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29446666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29446666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29446666666666665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29446666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,10 +2445,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:f>Sheet1!$S$6:$AB$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.34209999999999996</c:v>
                 </c:pt>
@@ -2385,6 +2463,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2673666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2673666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2673666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2673666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2673666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4978,43 +5071,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:W26" totalsRowShown="0" headerRowBorderDxfId="15">
-  <autoFilter ref="B2:W26" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:AB26" totalsRowShown="0" headerRowBorderDxfId="17">
+  <autoFilter ref="B2:AB26" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
+  <tableColumns count="27">
     <tableColumn id="2" xr3:uid="{C5D03F94-B59B-4111-B686-B3565B731BE0}" name="Function"/>
     <tableColumn id="13" xr3:uid="{E5FFF603-2140-4CBD-A5E2-FB1006364FE6}" name="Parameters"/>
-    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="14">
+    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="16">
       <calculatedColumnFormula>AVERAGE(D7,D11,D15,D19,D23)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="0_20"/>
     <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="0_30"/>
     <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="0_40"/>
     <tableColumn id="14" xr3:uid="{7979ACA1-BADA-4348-8B51-C28AD9AC9DC4}" name="0_50"/>
-    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="15"/>
     <tableColumn id="16" xr3:uid="{2963D26E-B527-4009-82A3-456B51C513FA}" name="1_20"/>
     <tableColumn id="17" xr3:uid="{5F12FDBB-B6D3-41D5-A3E8-4C7491D3E3A4}" name="1_30"/>
     <tableColumn id="18" xr3:uid="{E1D4DE2A-337D-413B-9569-8907A74F5FB9}" name="1_40"/>
     <tableColumn id="19" xr3:uid="{0CB7B969-7FCA-450C-BFF4-B282D45DB3F0}" name="1_50"/>
-    <tableColumn id="20" xr3:uid="{25C161C7-3A5F-46F9-A58E-E50C40E695E9}" name="2_10" dataDxfId="13">
+    <tableColumn id="20" xr3:uid="{25C161C7-3A5F-46F9-A58E-E50C40E695E9}" name="2_10" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(N7,N11,N15,N19,N23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{92C77FFB-822C-4C4C-872C-434257092BAB}" name="2_20" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{92C77FFB-822C-4C4C-872C-434257092BAB}" name="2_20" dataDxfId="13">
       <calculatedColumnFormula>AVERAGE(O7,O11,O15,O19,O23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F58CD74E-3C9C-455A-A6C0-47979DA875CC}" name="2_30" dataDxfId="11">
+    <tableColumn id="22" xr3:uid="{F58CD74E-3C9C-455A-A6C0-47979DA875CC}" name="2_30" dataDxfId="12">
       <calculatedColumnFormula>AVERAGE(P7,P11,P15,P19,P23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{218B8C4F-D760-41D0-B96D-65C6EAF8CF93}" name="2_40" dataDxfId="10">
+    <tableColumn id="23" xr3:uid="{218B8C4F-D760-41D0-B96D-65C6EAF8CF93}" name="2_40" dataDxfId="11">
       <calculatedColumnFormula>AVERAGE(Q7,Q11,Q15,Q19,Q23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{E571C054-FEDA-48EE-B9CA-C0D2C945CC62}" name="2_50" dataDxfId="9">
+    <tableColumn id="24" xr3:uid="{E571C054-FEDA-48EE-B9CA-C0D2C945CC62}" name="2_50" dataDxfId="10">
       <calculatedColumnFormula>AVERAGE(R7,R11,R15,R19,R23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{65AC0F3E-819B-434F-A1FB-22A82A16F3B5}" name="3_10" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{261E4D8B-13D7-468B-B2D5-9E4351F4C087}" name="3_20" dataDxfId="7"/>
-    <tableColumn id="27" xr3:uid="{C52A27CE-0F57-4E93-8037-A96CCF29B592}" name="3_30" dataDxfId="6"/>
-    <tableColumn id="28" xr3:uid="{D92C4A5A-4403-46AF-9D8E-47D0CAADFA40}" name="3_40" dataDxfId="5"/>
-    <tableColumn id="29" xr3:uid="{50105550-BCDB-4867-B880-55D0C021143E}" name="3_50" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{65AC0F3E-819B-434F-A1FB-22A82A16F3B5}" name="3_10" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{261E4D8B-13D7-468B-B2D5-9E4351F4C087}" name="3_20" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{C52A27CE-0F57-4E93-8037-A96CCF29B592}" name="3_30" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{D92C4A5A-4403-46AF-9D8E-47D0CAADFA40}" name="3_40" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{50105550-BCDB-4867-B880-55D0C021143E}" name="3_50" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{C0737663-FA87-49B0-90F7-45D5039674EF}" name="3_60" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE(X7,X11,X15,X19,X23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{63A8CBCD-AC26-4DA7-A250-1577CB9D4075}" name="3_70" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE(Y7,Y11,Y15,Y19,Y23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CDE6D331-A76C-4BA8-829A-44E5A0EC4005}" name="3_80" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(Z7,Z11,Z15,Z19,Z23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B419A679-1103-4029-B1ED-20343920C68E}" name="3_90" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE(AA7,AA11,AA15,AA19,AA23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9CD4E167-BE63-4E5A-B882-4C3E124FFD45}" name="3_100" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(AB7,AB11,AB15,AB19,AB23)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5332,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5361,116 +5469,140 @@
     <col min="20" max="20" width="8.6640625" customWidth="1"/>
     <col min="21" max="21" width="8.5546875" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.21875" customWidth="1"/>
+    <col min="24" max="24" width="8.109375" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" customWidth="1"/>
+    <col min="27" max="27" width="8.5546875" customWidth="1"/>
+    <col min="28" max="28" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="30" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="37" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="42" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40" t="s">
         <v>66</v>
       </c>
       <c r="T1" s="41"/>
       <c r="U1" s="41"/>
       <c r="V1" s="41"/>
       <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="25" t="s">
         <v>65</v>
       </c>
+      <c r="X2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
@@ -5479,356 +5611,436 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="20">
         <f t="shared" ref="D3:H6" si="0">AVERAGE(D7,D11,D15,D19,D23)</f>
         <v>7.3620000000000005E-2</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="21">
         <f t="shared" si="0"/>
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="21">
         <f t="shared" si="0"/>
         <v>1.9399999999999997E-3</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="21">
         <f t="shared" si="0"/>
         <v>1.8599999999999999E-3</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="19">
         <f t="shared" si="0"/>
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="20">
         <f t="shared" ref="I3:M3" si="1">AVERAGE(I7,I11,I15,I19,I23)</f>
         <v>7.9820000000000016E-2</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="19">
         <f t="shared" si="1"/>
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="19">
         <f t="shared" si="1"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="19">
         <f t="shared" si="1"/>
         <v>2.2199999999999998E-3</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="19">
         <f t="shared" si="1"/>
         <v>1.7799999999999997E-3</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="20">
         <f t="shared" ref="N3:N6" si="2">AVERAGE(N7,N11,N15,N19,N23)</f>
         <v>0.58846000000000009</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="19">
         <f t="shared" ref="O3:O6" si="3">AVERAGE(O7,O11,O15,O19,O23)</f>
         <v>0.38666</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="19">
         <f t="shared" ref="P3:P6" si="4">AVERAGE(P7,P11,P15,P19,P23)</f>
         <v>0.33584000000000003</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="19">
         <f t="shared" ref="Q3:Q6" si="5">AVERAGE(Q7,Q11,Q15,Q19,Q23)</f>
         <v>0.33404</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="19">
         <f t="shared" ref="R3:V6" si="6">AVERAGE(R7,R11,R15,R19,R23)</f>
         <v>0.33404</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="20">
         <f t="shared" si="6"/>
         <v>0.44278000000000006</v>
       </c>
-      <c r="T3" s="32">
+      <c r="T3" s="19">
         <f t="shared" si="6"/>
         <v>0.34404000000000001</v>
       </c>
-      <c r="U3" s="32">
+      <c r="U3" s="19">
         <f t="shared" si="6"/>
         <v>0.33832000000000001</v>
       </c>
-      <c r="V3" s="32">
+      <c r="V3" s="19">
         <f t="shared" si="6"/>
         <v>0.33234000000000002</v>
       </c>
-      <c r="W3" s="32">
+      <c r="W3" s="21">
         <f t="shared" ref="W3" si="7">AVERAGE(W7,W11,W15,W19,W23)</f>
         <v>0.33234000000000002</v>
       </c>
+      <c r="X3" s="32">
+        <f t="shared" ref="X3:X6" si="8">AVERAGE(X7,X11,X15,X19,X23)</f>
+        <v>0.31682500000000002</v>
+      </c>
+      <c r="Y3" s="28">
+        <f t="shared" ref="Y3:Y6" si="9">AVERAGE(Y7,Y11,Y15,Y19,Y23)</f>
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="Z3" s="28">
+        <f t="shared" ref="Z3:Z6" si="10">AVERAGE(Z7,Z11,Z15,Z19,Z23)</f>
+        <v>0.31355000000000005</v>
+      </c>
+      <c r="AA3" s="28">
+        <f t="shared" ref="AA3:AA6" si="11">AVERAGE(AA7,AA11,AA15,AA19,AA23)</f>
+        <v>0.30435000000000001</v>
+      </c>
+      <c r="AB3" s="28">
+        <f t="shared" ref="AB3:AB6" si="12">AVERAGE(AB7,AB11,AB15,AB19,AB23)</f>
+        <v>0.30227500000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>9.846000000000002E-2</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>5.6420000000000005E-2</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="19">
         <f t="shared" si="0"/>
         <v>1.2480000000000002E-2</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="19">
         <f t="shared" si="0"/>
         <v>1.2480000000000002E-2</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="19">
         <f t="shared" si="0"/>
         <v>6.1000000000000013E-3</v>
       </c>
-      <c r="I4" s="14">
-        <f t="shared" ref="I4:M4" si="8">AVERAGE(I8,I12,I16,I20,I24)</f>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:M4" si="13">AVERAGE(I8,I12,I16,I20,I24)</f>
         <v>2.0580000000000001E-2</v>
       </c>
-      <c r="J4" s="32">
-        <f t="shared" si="8"/>
+      <c r="J4" s="19">
+        <f t="shared" si="13"/>
         <v>3.5599999999999998E-3</v>
       </c>
-      <c r="K4" s="32">
-        <f t="shared" si="8"/>
+      <c r="K4" s="19">
+        <f t="shared" si="13"/>
         <v>2.9000000000000002E-3</v>
       </c>
-      <c r="L4" s="32">
-        <f t="shared" si="8"/>
+      <c r="L4" s="19">
+        <f t="shared" si="13"/>
         <v>2.9000000000000002E-3</v>
       </c>
-      <c r="M4" s="32">
-        <f t="shared" si="8"/>
+      <c r="M4" s="19">
+        <f t="shared" si="13"/>
         <v>2.9000000000000002E-3</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="9">
         <f t="shared" si="2"/>
         <v>0.37403999999999998</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="19">
         <f t="shared" si="3"/>
         <v>0.33639999999999998</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="19">
         <f t="shared" si="4"/>
         <v>0.29347999999999996</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="19">
         <f t="shared" si="5"/>
         <v>0.29347999999999996</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="19">
         <f t="shared" si="6"/>
         <v>0.29347999999999996</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="9">
         <f t="shared" si="6"/>
         <v>0.37585999999999997</v>
       </c>
-      <c r="T4" s="32">
+      <c r="T4" s="19">
         <f t="shared" si="6"/>
         <v>0.34777999999999998</v>
       </c>
-      <c r="U4" s="32">
+      <c r="U4" s="19">
         <f t="shared" si="6"/>
         <v>0.34415999999999997</v>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="19">
         <f t="shared" si="6"/>
         <v>0.33929999999999999</v>
       </c>
-      <c r="W4" s="32">
-        <f t="shared" ref="W4" si="9">AVERAGE(W8,W12,W16,W20,W24)</f>
+      <c r="W4" s="19">
+        <f t="shared" ref="W4" si="14">AVERAGE(W8,W12,W16,W20,W24)</f>
         <v>0.33929999999999999</v>
       </c>
+      <c r="X4" s="28">
+        <f t="shared" si="8"/>
+        <v>0.33455000000000001</v>
+      </c>
+      <c r="Y4" s="28">
+        <f t="shared" si="9"/>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="Z4" s="28">
+        <f t="shared" si="10"/>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AA4" s="28">
+        <f t="shared" si="11"/>
+        <v>0.3231</v>
+      </c>
+      <c r="AB4" s="28">
+        <f t="shared" si="12"/>
+        <v>0.32047500000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>9.846000000000002E-2</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>3.4219999999999993E-2</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>2.7239999999999993E-2</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="19">
         <f t="shared" si="0"/>
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="19">
         <f t="shared" si="0"/>
         <v>1.8599999999999999E-3</v>
       </c>
-      <c r="I5" s="14">
-        <f t="shared" ref="I5:M5" si="10">AVERAGE(I9,I13,I17,I21,I25)</f>
+      <c r="I5" s="9">
+        <f t="shared" ref="I5:M5" si="15">AVERAGE(I9,I13,I17,I21,I25)</f>
         <v>2.0580000000000001E-2</v>
       </c>
-      <c r="J5" s="32">
-        <f t="shared" si="10"/>
+      <c r="J5" s="19">
+        <f t="shared" si="15"/>
         <v>4.2399999999999998E-3</v>
       </c>
-      <c r="K5" s="32">
-        <f t="shared" si="10"/>
+      <c r="K5" s="19">
+        <f t="shared" si="15"/>
         <v>2.0199999999999997E-3</v>
       </c>
-      <c r="L5" s="32">
-        <f t="shared" si="10"/>
+      <c r="L5" s="19">
+        <f t="shared" si="15"/>
         <v>2.0199999999999997E-3</v>
       </c>
-      <c r="M5" s="32">
-        <f t="shared" si="10"/>
+      <c r="M5" s="19">
+        <f t="shared" si="15"/>
         <v>1.9399999999999997E-3</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="9">
         <f t="shared" si="2"/>
         <v>0.37390000000000001</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="19">
         <f t="shared" si="3"/>
         <v>0.32778000000000002</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="19">
         <f t="shared" si="4"/>
         <v>0.29637999999999998</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="19">
         <f t="shared" si="5"/>
         <v>0.28443999999999997</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="19">
         <f t="shared" si="6"/>
         <v>0.27944000000000002</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="9">
         <f t="shared" si="6"/>
         <v>0.37585999999999997</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="19">
         <f t="shared" si="6"/>
         <v>0.33487999999999996</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="19">
         <f t="shared" si="6"/>
         <v>0.32473999999999997</v>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="19">
         <f t="shared" si="6"/>
         <v>0.31751999999999997</v>
       </c>
-      <c r="W5" s="32">
-        <f t="shared" ref="W5" si="11">AVERAGE(W9,W13,W17,W21,W25)</f>
+      <c r="W5" s="19">
+        <f t="shared" ref="W5" si="16">AVERAGE(W9,W13,W17,W21,W25)</f>
         <v>0.31069999999999998</v>
       </c>
+      <c r="X5" s="28">
+        <f t="shared" si="8"/>
+        <v>0.29793333333333333</v>
+      </c>
+      <c r="Y5" s="28">
+        <f t="shared" si="9"/>
+        <v>0.29446666666666665</v>
+      </c>
+      <c r="Z5" s="28">
+        <f t="shared" si="10"/>
+        <v>0.29446666666666665</v>
+      </c>
+      <c r="AA5" s="28">
+        <f t="shared" si="11"/>
+        <v>0.29446666666666665</v>
+      </c>
+      <c r="AB5" s="28">
+        <f t="shared" si="12"/>
+        <v>0.29446666666666665</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>6.1879999999999991E-2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>1.6840000000000001E-2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>4.5799999999999999E-3</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>4.5799999999999999E-3</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>4.1600000000000005E-3</v>
       </c>
-      <c r="I6" s="15">
-        <f t="shared" ref="I6:M6" si="12">AVERAGE(I10,I14,I18,I22,I26)</f>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:M6" si="17">AVERAGE(I10,I14,I18,I22,I26)</f>
         <v>6.2199999999999991E-2</v>
       </c>
-      <c r="J6" s="13">
-        <f t="shared" si="12"/>
+      <c r="J6" s="8">
+        <f t="shared" si="17"/>
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="K6" s="13">
-        <f t="shared" si="12"/>
+      <c r="K6" s="8">
+        <f t="shared" si="17"/>
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="L6" s="13">
-        <f t="shared" si="12"/>
+      <c r="L6" s="8">
+        <f t="shared" si="17"/>
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="M6" s="13">
-        <f t="shared" si="12"/>
+      <c r="M6" s="8">
+        <f t="shared" si="17"/>
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="10">
         <f t="shared" si="2"/>
         <v>0.52900000000000003</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="8">
         <f t="shared" si="3"/>
         <v>0.45207999999999993</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="8">
         <f t="shared" si="4"/>
         <v>0.40401999999999993</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="8">
         <f t="shared" si="5"/>
         <v>0.38777999999999996</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="8">
         <f t="shared" si="6"/>
         <v>0.38570000000000004</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="10">
         <f t="shared" si="6"/>
         <v>0.34209999999999996</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="8">
         <f t="shared" si="6"/>
         <v>0.30515999999999999</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="8">
         <f t="shared" si="6"/>
         <v>0.29418</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="8">
         <f t="shared" si="6"/>
         <v>0.26929999999999998</v>
       </c>
-      <c r="W6" s="13">
-        <f t="shared" ref="W6" si="13">AVERAGE(W10,W14,W18,W22,W26)</f>
+      <c r="W6" s="8">
+        <f t="shared" ref="W6" si="18">AVERAGE(W10,W14,W18,W22,W26)</f>
         <v>0.23944000000000001</v>
       </c>
+      <c r="X6" s="30">
+        <f t="shared" si="8"/>
+        <v>0.2673666666666667</v>
+      </c>
+      <c r="Y6" s="30">
+        <f t="shared" si="9"/>
+        <v>0.2673666666666667</v>
+      </c>
+      <c r="Z6" s="30">
+        <f t="shared" si="10"/>
+        <v>0.2673666666666667</v>
+      </c>
+      <c r="AA6" s="30">
+        <f t="shared" si="11"/>
+        <v>0.2673666666666667</v>
+      </c>
+      <c r="AB6" s="30">
+        <f t="shared" si="12"/>
+        <v>0.2673666666666667</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B7" t="str">
@@ -5839,7 +6051,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E7">
@@ -5854,7 +6066,7 @@
       <c r="H7">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="9">
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="J7">
@@ -5869,7 +6081,7 @@
       <c r="M7">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="9">
         <v>0.57010000000000005</v>
       </c>
       <c r="O7">
@@ -5884,33 +6096,48 @@
       <c r="R7">
         <v>0.42849999999999999</v>
       </c>
-      <c r="S7" s="44">
+      <c r="S7" s="27">
         <v>0.434</v>
       </c>
-      <c r="T7" s="45">
+      <c r="T7" s="28">
         <v>0.32779999999999998</v>
       </c>
-      <c r="U7" s="45">
+      <c r="U7" s="28">
         <v>0.32150000000000001</v>
       </c>
-      <c r="V7" s="45">
+      <c r="V7" s="28">
         <v>0.32150000000000001</v>
       </c>
-      <c r="W7" s="45">
+      <c r="W7" s="28">
         <v>0.32150000000000001</v>
       </c>
+      <c r="X7" s="31">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>0.2979</v>
+      </c>
+      <c r="AB7" s="31">
+        <v>0.28960000000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
       <c r="B8" t="str">
-        <f t="shared" ref="B8:C8" si="14">B4</f>
+        <f t="shared" ref="B8:C8" si="19">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>[]</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>0.3387</v>
       </c>
       <c r="E8">
@@ -5925,7 +6152,7 @@
       <c r="H8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="J8">
@@ -5940,7 +6167,7 @@
       <c r="M8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="9">
         <v>0.46600000000000003</v>
       </c>
       <c r="O8">
@@ -5955,33 +6182,48 @@
       <c r="R8">
         <v>0.25140000000000001</v>
       </c>
-      <c r="S8" s="44">
+      <c r="S8" s="27">
         <v>0.4264</v>
       </c>
-      <c r="T8" s="45">
+      <c r="T8" s="28">
         <v>0.4264</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="28">
         <v>0.4083</v>
       </c>
-      <c r="V8" s="45">
+      <c r="V8" s="28">
         <v>0.4083</v>
       </c>
-      <c r="W8" s="45">
+      <c r="W8" s="28">
         <v>0.4083</v>
       </c>
+      <c r="X8" s="31">
+        <v>0.38469999999999999</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>0.33889999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
       <c r="B9" t="str">
-        <f t="shared" ref="B9:C9" si="15">B5</f>
+        <f t="shared" ref="B9:C9" si="20">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>[]</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="9">
         <v>0.3387</v>
       </c>
       <c r="E9">
@@ -5996,7 +6238,7 @@
       <c r="H9">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="J9">
@@ -6011,7 +6253,7 @@
       <c r="M9">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="9">
         <v>0.46600000000000003</v>
       </c>
       <c r="O9">
@@ -6026,95 +6268,125 @@
       <c r="R9">
         <v>0.42430000000000001</v>
       </c>
-      <c r="S9" s="44">
+      <c r="S9" s="27">
         <v>0.4264</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="28">
         <v>0.3236</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="28">
         <v>0.3236</v>
       </c>
-      <c r="V9" s="45">
+      <c r="V9" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="W9" s="45">
+      <c r="W9" s="28">
         <v>0.28749999999999998</v>
       </c>
+      <c r="X9" s="31">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AA9" s="31">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>0.28749999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13" t="str">
-        <f t="shared" ref="B10:C10" si="16">B6</f>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="8" t="str">
+        <f t="shared" ref="B10:C10" si="21">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C10" s="13" t="str">
-        <f t="shared" si="16"/>
+      <c r="C10" s="8" t="str">
+        <f t="shared" si="21"/>
         <v>[]</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="10">
         <v>0.26</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="8">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="8">
         <v>1.4E-2</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="10">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="10">
         <v>0.36599999999999999</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="8">
         <v>0.34860000000000002</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="8">
         <v>0.30759999999999998</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="8">
         <v>0.30759999999999998</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="8">
         <v>0.30759999999999998</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10" s="29">
         <v>0.4264</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T10" s="30">
         <v>0.35139999999999999</v>
       </c>
-      <c r="U10" s="47">
+      <c r="U10" s="30">
         <v>0.3125</v>
       </c>
-      <c r="V10" s="47">
+      <c r="V10" s="30">
         <v>0.27289999999999998</v>
       </c>
-      <c r="W10" s="47">
+      <c r="W10" s="30">
         <v>0.27289999999999998</v>
       </c>
+      <c r="X10" s="30">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="Y10" s="30">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="AA10" s="30">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="AB10" s="30">
+        <v>0.27289999999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="str">
@@ -6125,7 +6397,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E11">
@@ -6140,7 +6412,7 @@
       <c r="H11">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="9">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="J11">
@@ -6155,7 +6427,7 @@
       <c r="M11">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="9">
         <v>0.69720000000000004</v>
       </c>
       <c r="O11">
@@ -6170,33 +6442,48 @@
       <c r="R11">
         <v>0.31459999999999999</v>
       </c>
-      <c r="S11" s="44">
+      <c r="S11" s="27">
         <v>0.67290000000000005</v>
       </c>
-      <c r="T11" s="45">
+      <c r="T11" s="28">
         <v>0.33400000000000002</v>
       </c>
-      <c r="U11" s="45">
+      <c r="U11" s="28">
         <v>0.33400000000000002</v>
       </c>
-      <c r="V11" s="45">
+      <c r="V11" s="28">
         <v>0.33400000000000002</v>
       </c>
-      <c r="W11" s="45">
+      <c r="W11" s="28">
         <v>0.33400000000000002</v>
       </c>
+      <c r="X11" s="31">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="Y11" s="31">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="Z11" s="31">
+        <v>0.31319999999999998</v>
+      </c>
+      <c r="AA11" s="31">
+        <v>0.31319999999999998</v>
+      </c>
+      <c r="AB11" s="31">
+        <v>0.31319999999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
       <c r="B12" t="str">
-        <f t="shared" ref="B12:C12" si="17">B4</f>
+        <f t="shared" ref="B12:C12" si="22">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>[]</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="9">
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="E12">
@@ -6211,7 +6498,7 @@
       <c r="H12">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="9">
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="J12">
@@ -6226,48 +6513,63 @@
       <c r="M12">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="9">
         <v>0.41460000000000002</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="19">
         <v>0.41460000000000002</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="19">
         <v>0.41460000000000002</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="19">
         <v>0.41460000000000002</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="19">
         <v>0.41460000000000002</v>
       </c>
-      <c r="S12" s="44">
+      <c r="S12" s="27">
         <v>0.35489999999999999</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="28">
         <v>0.35489999999999999</v>
       </c>
-      <c r="U12" s="45">
+      <c r="U12" s="28">
         <v>0.35489999999999999</v>
       </c>
-      <c r="V12" s="45">
+      <c r="V12" s="28">
         <v>0.35489999999999999</v>
       </c>
-      <c r="W12" s="45">
+      <c r="W12" s="28">
         <v>0.35489999999999999</v>
       </c>
+      <c r="X12" s="31">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="Y12" s="31">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>0.34439999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
       <c r="B13" t="str">
-        <f t="shared" ref="B13:C13" si="18">B5</f>
+        <f t="shared" ref="B13:C13" si="23">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="9">
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="E13">
@@ -6282,7 +6584,7 @@
       <c r="H13">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="9">
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="J13">
@@ -6297,7 +6599,7 @@
       <c r="M13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="9">
         <v>0.41389999999999999</v>
       </c>
       <c r="O13">
@@ -6312,95 +6614,125 @@
       <c r="R13">
         <v>0.41389999999999999</v>
       </c>
-      <c r="S13" s="44">
+      <c r="S13" s="27">
         <v>0.35489999999999999</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="28">
         <v>0.35489999999999999</v>
       </c>
-      <c r="U13" s="45">
+      <c r="U13" s="28">
         <v>0.30420000000000003</v>
       </c>
-      <c r="V13" s="45">
+      <c r="V13" s="28">
         <v>0.30420000000000003</v>
       </c>
-      <c r="W13" s="45">
+      <c r="W13" s="28">
         <v>0.30420000000000003</v>
       </c>
+      <c r="X13" s="31">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="Y13" s="31">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="Z13" s="31">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="AA13" s="31">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="AB13" s="31">
+        <v>0.30420000000000003</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="13" t="str">
-        <f t="shared" ref="B14:C14" si="19">B6</f>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="8" t="str">
+        <f t="shared" ref="B14:C14" si="24">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C14" s="13" t="str">
-        <f t="shared" si="19"/>
+      <c r="C14" s="8" t="str">
+        <f t="shared" si="24"/>
         <v>[]</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="10">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="10">
         <v>0.2157</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="10">
         <v>0.57779999999999998</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="8">
         <v>0.4521</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="8">
         <v>0.3271</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="8">
         <v>0.3271</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="8">
         <v>0.3271</v>
       </c>
-      <c r="S14" s="46">
+      <c r="S14" s="29">
         <v>0.35489999999999999</v>
       </c>
-      <c r="T14" s="47">
+      <c r="T14" s="30">
         <v>0.35489999999999999</v>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="30">
         <v>0.33889999999999998</v>
       </c>
-      <c r="V14" s="47">
+      <c r="V14" s="30">
         <v>0.32150000000000001</v>
       </c>
-      <c r="W14" s="47">
+      <c r="W14" s="30">
         <v>0.2271</v>
       </c>
+      <c r="X14" s="30">
+        <v>0.2271</v>
+      </c>
+      <c r="Y14" s="30">
+        <v>0.2271</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>0.2271</v>
+      </c>
+      <c r="AA14" s="30">
+        <v>0.2271</v>
+      </c>
+      <c r="AB14" s="30">
+        <v>0.2271</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="str">
@@ -6411,7 +6743,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E15">
@@ -6426,7 +6758,7 @@
       <c r="H15">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="9">
         <v>3.8300000000000001E-2</v>
       </c>
       <c r="J15">
@@ -6441,7 +6773,7 @@
       <c r="M15">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="9">
         <v>0.48470000000000002</v>
       </c>
       <c r="O15">
@@ -6456,33 +6788,48 @@
       <c r="R15">
         <v>0.41320000000000001</v>
       </c>
-      <c r="S15" s="44">
+      <c r="S15" s="27">
         <v>0.3826</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="28">
         <v>0.34860000000000002</v>
       </c>
-      <c r="U15" s="45">
+      <c r="U15" s="28">
         <v>0.34860000000000002</v>
       </c>
-      <c r="V15" s="45">
+      <c r="V15" s="28">
         <v>0.32990000000000003</v>
       </c>
-      <c r="W15" s="45">
+      <c r="W15" s="28">
         <v>0.32990000000000003</v>
       </c>
+      <c r="X15" s="31">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="Y15" s="31">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="Z15" s="31">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="AA15" s="31">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="AB15" s="31">
+        <v>0.32990000000000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
       <c r="B16" t="str">
-        <f t="shared" ref="B16:C16" si="20">B4</f>
+        <f t="shared" ref="B16:C16" si="25">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>[]</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="9">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E16">
@@ -6497,7 +6844,7 @@
       <c r="H16">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="9">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="J16">
@@ -6512,7 +6859,7 @@
       <c r="M16">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="9">
         <v>0.67779999999999996</v>
       </c>
       <c r="O16">
@@ -6527,33 +6874,48 @@
       <c r="R16">
         <v>0.48959999999999998</v>
       </c>
-      <c r="S16" s="44">
+      <c r="S16" s="27">
         <v>0.30209999999999998</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="28">
         <v>0.30209999999999998</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="28">
         <v>0.30209999999999998</v>
       </c>
-      <c r="V16" s="45">
+      <c r="V16" s="28">
         <v>0.30209999999999998</v>
       </c>
-      <c r="W16" s="45">
+      <c r="W16" s="28">
         <v>0.30209999999999998</v>
       </c>
+      <c r="X16" s="31">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="Y16" s="31">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="Z16" s="31">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="AB16" s="31">
+        <v>0.30209999999999998</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:C17" si="21">B5</f>
+        <f t="shared" ref="B17:C17" si="26">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>[]</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="9">
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E17">
@@ -6568,7 +6930,7 @@
       <c r="H17">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="9">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="J17">
@@ -6583,7 +6945,7 @@
       <c r="M17">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="9">
         <v>0.67779999999999996</v>
       </c>
       <c r="O17">
@@ -6598,95 +6960,125 @@
       <c r="R17">
         <v>0.34649999999999997</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="27">
         <v>0.30209999999999998</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="28">
         <v>0.30209999999999998</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U17" s="28">
         <v>0.30209999999999998</v>
       </c>
-      <c r="V17" s="45">
+      <c r="V17" s="28">
         <v>0.30209999999999998</v>
       </c>
-      <c r="W17" s="45">
+      <c r="W17" s="28">
         <v>0.30209999999999998</v>
       </c>
+      <c r="X17" s="31">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="Y17" s="31">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="Z17" s="31">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="AA17" s="31">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>0.29170000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="13" t="str">
-        <f t="shared" ref="B18:C18" si="22">B6</f>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="8" t="str">
+        <f t="shared" ref="B18:C18" si="27">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C18" s="13" t="str">
-        <f t="shared" si="22"/>
+      <c r="C18" s="8" t="str">
+        <f t="shared" si="27"/>
         <v>[]</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="10">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="10">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="8">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="10">
         <v>0.94930000000000003</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="8">
         <v>0.44929999999999998</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="8">
         <v>0.44650000000000001</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="8">
         <v>0.36530000000000001</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="8">
         <v>0.36530000000000001</v>
       </c>
-      <c r="S18" s="46">
+      <c r="S18" s="29">
         <v>0.30209999999999998</v>
       </c>
-      <c r="T18" s="47">
+      <c r="T18" s="30">
         <v>0.30209999999999998</v>
       </c>
-      <c r="U18" s="47">
+      <c r="U18" s="30">
         <v>0.30209999999999998</v>
       </c>
-      <c r="V18" s="47">
+      <c r="V18" s="30">
         <v>0.30209999999999998</v>
       </c>
-      <c r="W18" s="47">
+      <c r="W18" s="30">
         <v>0.30209999999999998</v>
       </c>
+      <c r="X18" s="30">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="AA18" s="30">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="AB18" s="30">
+        <v>0.30209999999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="str">
@@ -6697,7 +7089,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="9">
         <v>0.31830000000000003</v>
       </c>
       <c r="E19">
@@ -6712,7 +7104,7 @@
       <c r="H19">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="9">
         <v>0.31830000000000003</v>
       </c>
       <c r="J19">
@@ -6727,7 +7119,7 @@
       <c r="M19">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="9">
         <v>0.5736</v>
       </c>
       <c r="O19">
@@ -6742,33 +7134,48 @@
       <c r="R19">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="S19" s="44">
+      <c r="S19" s="27">
         <v>0.3306</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="28">
         <v>0.316</v>
       </c>
-      <c r="U19" s="45">
+      <c r="U19" s="28">
         <v>0.29370000000000002</v>
       </c>
-      <c r="V19" s="45">
+      <c r="V19" s="28">
         <v>0.29370000000000002</v>
       </c>
-      <c r="W19" s="45">
+      <c r="W19" s="28">
         <v>0.29370000000000002</v>
       </c>
+      <c r="X19" s="31">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="Y19" s="31">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="Z19" s="31">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="AA19" s="31">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="AB19" s="31">
+        <v>0.27639999999999998</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
       <c r="B20" t="str">
-        <f t="shared" ref="B20:C20" si="23">B4</f>
+        <f t="shared" ref="B20:C20" si="28">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>[]</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="9">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="E20">
@@ -6783,7 +7190,7 @@
       <c r="H20">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="9">
         <v>8.8499999999999995E-2</v>
       </c>
       <c r="J20">
@@ -6798,7 +7205,7 @@
       <c r="M20">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="9">
         <v>0.16600000000000001</v>
       </c>
       <c r="O20">
@@ -6813,33 +7220,48 @@
       <c r="R20">
         <v>0.16600000000000001</v>
       </c>
-      <c r="S20" s="44">
+      <c r="S20" s="27">
         <v>0.39169999999999999</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="28">
         <v>0.29649999999999999</v>
       </c>
-      <c r="U20" s="45">
+      <c r="U20" s="28">
         <v>0.29649999999999999</v>
       </c>
-      <c r="V20" s="45">
+      <c r="V20" s="28">
         <v>0.29649999999999999</v>
       </c>
-      <c r="W20" s="45">
+      <c r="W20" s="28">
         <v>0.29649999999999999</v>
       </c>
+      <c r="X20" s="31">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="Y20" s="31">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="Z20" s="31">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="AA20" s="31">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="AB20" s="31">
+        <v>0.29649999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
       <c r="B21" t="str">
-        <f t="shared" ref="B21:C21" si="24">B5</f>
+        <f t="shared" ref="B21:C21" si="29">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>[]</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="9">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="E21">
@@ -6854,7 +7276,7 @@
       <c r="H21">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="9">
         <v>8.8499999999999995E-2</v>
       </c>
       <c r="J21">
@@ -6869,7 +7291,7 @@
       <c r="M21">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="9">
         <v>0.16600000000000001</v>
       </c>
       <c r="O21">
@@ -6884,95 +7306,105 @@
       <c r="R21">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="S21" s="44">
+      <c r="S21" s="27">
         <v>0.39169999999999999</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="28">
         <v>0.34100000000000003</v>
       </c>
-      <c r="U21" s="45">
+      <c r="U21" s="28">
         <v>0.34100000000000003</v>
       </c>
-      <c r="V21" s="45">
+      <c r="V21" s="28">
         <v>0.34100000000000003</v>
       </c>
       <c r="W21">
         <v>0.31869999999999998</v>
       </c>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="13" t="str">
-        <f t="shared" ref="B22:C22" si="25">B6</f>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="B22" s="8" t="str">
+        <f t="shared" ref="B22:C22" si="30">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
-      <c r="C22" s="13" t="str">
-        <f t="shared" si="25"/>
+      <c r="C22" s="8" t="str">
+        <f t="shared" si="30"/>
         <v>[]</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="10">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="10">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="10">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="8">
         <v>0.35759999999999997</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="8">
         <v>0.31040000000000001</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="8">
         <v>0.31040000000000001</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="8">
         <v>0.31040000000000001</v>
       </c>
-      <c r="S22" s="46">
+      <c r="S22" s="29">
         <v>0.44719999999999999</v>
       </c>
-      <c r="T22" s="47">
+      <c r="T22" s="30">
         <v>0.33750000000000002</v>
       </c>
-      <c r="U22" s="47">
+      <c r="U22" s="30">
         <v>0.33750000000000002</v>
       </c>
-      <c r="V22" s="47">
+      <c r="V22" s="30">
         <v>0.33750000000000002</v>
       </c>
-      <c r="W22" s="47">
+      <c r="W22" s="30">
         <v>0.28260000000000002</v>
       </c>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="str">
@@ -6983,7 +7415,7 @@
         <f>C3</f>
         <v>[]</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="E23">
@@ -6998,7 +7430,7 @@
       <c r="H23">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="9">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="J23">
@@ -7013,7 +7445,7 @@
       <c r="M23">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="9">
         <v>0.61670000000000003</v>
       </c>
       <c r="O23">
@@ -7028,33 +7460,38 @@
       <c r="R23">
         <v>0.41739999999999999</v>
       </c>
-      <c r="S23" s="44">
+      <c r="S23" s="27">
         <v>0.39379999999999998</v>
       </c>
-      <c r="T23" s="45">
+      <c r="T23" s="28">
         <v>0.39379999999999998</v>
       </c>
-      <c r="U23" s="45">
+      <c r="U23" s="28">
         <v>0.39379999999999998</v>
       </c>
-      <c r="V23" s="45">
+      <c r="V23" s="28">
         <v>0.3826</v>
       </c>
-      <c r="W23" s="45">
+      <c r="W23" s="28">
         <v>0.3826</v>
       </c>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:C24" si="26">B4</f>
+        <f t="shared" ref="B24:C24" si="31">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>[]</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="9">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E24">
@@ -7069,7 +7506,7 @@
       <c r="H24">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="J24">
@@ -7084,7 +7521,7 @@
       <c r="M24">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="9">
         <v>0.14580000000000001</v>
       </c>
       <c r="O24">
@@ -7099,33 +7536,38 @@
       <c r="R24">
         <v>0.14580000000000001</v>
       </c>
-      <c r="S24" s="44">
+      <c r="S24" s="27">
         <v>0.4042</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="28">
         <v>0.35899999999999999</v>
       </c>
-      <c r="U24" s="45">
+      <c r="U24" s="28">
         <v>0.35899999999999999</v>
       </c>
-      <c r="V24" s="45">
+      <c r="V24" s="28">
         <v>0.3347</v>
       </c>
-      <c r="W24" s="45">
+      <c r="W24" s="28">
         <v>0.3347</v>
       </c>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
       <c r="B25" t="str">
-        <f t="shared" ref="B25:C25" si="27">B5</f>
+        <f t="shared" ref="B25:C25" si="32">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>[]</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="9">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E25">
@@ -7140,7 +7582,7 @@
       <c r="H25">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="J25">
@@ -7155,7 +7597,7 @@
       <c r="M25">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="9">
         <v>0.14580000000000001</v>
       </c>
       <c r="O25">
@@ -7170,33 +7612,38 @@
       <c r="R25">
         <v>0.12709999999999999</v>
       </c>
-      <c r="S25" s="44">
+      <c r="S25" s="27">
         <v>0.4042</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="28">
         <v>0.3528</v>
       </c>
-      <c r="U25" s="45">
+      <c r="U25" s="28">
         <v>0.3528</v>
       </c>
-      <c r="V25" s="45">
+      <c r="V25" s="28">
         <v>0.3528</v>
       </c>
-      <c r="W25" s="45">
+      <c r="W25" s="28">
         <v>0.34100000000000003</v>
       </c>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
       <c r="B26" t="str">
-        <f t="shared" ref="B26:C26" si="28">B6</f>
+        <f t="shared" ref="B26:C26" si="33">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>[]</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="9">
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="E26">
@@ -7211,7 +7658,7 @@
       <c r="H26">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="J26">
@@ -7226,7 +7673,7 @@
       <c r="M26">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="9">
         <v>0.70279999999999998</v>
       </c>
       <c r="O26">
@@ -7241,106 +7688,111 @@
       <c r="R26">
         <v>0.61809999999999998</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="27">
         <v>0.1799</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="28">
         <v>0.1799</v>
       </c>
-      <c r="U26" s="45">
+      <c r="U26" s="28">
         <v>0.1799</v>
       </c>
-      <c r="V26" s="45">
+      <c r="V26" s="28">
         <v>0.1125</v>
       </c>
-      <c r="W26" s="45">
+      <c r="W26" s="33">
         <v>0.1125</v>
       </c>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="5" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="9" t="s">
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="R31" s="1" t="s">
@@ -7365,8 +7817,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -7448,7 +7900,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="6">
         <v>1</v>
       </c>
       <c r="B33" t="s">
@@ -7530,7 +7982,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="39">
+      <c r="A34" s="24">
         <v>2</v>
       </c>
       <c r="B34" t="s">
@@ -7595,7 +8047,7 @@
       <c r="S34">
         <v>3.6488256520773101E-4</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34" s="5">
         <v>1.1395576042057601E-5</v>
       </c>
       <c r="U34">
@@ -7677,7 +8129,7 @@
       <c r="S35">
         <v>1.03347623075461E-4</v>
       </c>
-      <c r="T35" s="10">
+      <c r="T35" s="5">
         <v>1.5415805242432599E-5</v>
       </c>
       <c r="U35">
@@ -7700,18 +8152,18 @@
     <mergeCell ref="F30:Q30"/>
     <mergeCell ref="R30:X30"/>
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AB1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7723,6 +8175,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -7734,7 +8234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="J3:J6">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -7746,7 +8246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G6">
+  <conditionalFormatting sqref="K3:K6">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -7758,7 +8258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6">
+  <conditionalFormatting sqref="L3:L6">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -7770,8 +8270,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="M3:M6">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7782,7 +8282,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J6">
+  <conditionalFormatting sqref="H7:H26">
+    <cfRule type="top10" dxfId="21" priority="24" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M26">
+    <cfRule type="top10" dxfId="20" priority="18" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N6">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -7794,7 +8300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K6">
+  <conditionalFormatting sqref="O3:O6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -7806,7 +8312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L6">
+  <conditionalFormatting sqref="P3:P6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -7818,7 +8324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M6">
+  <conditionalFormatting sqref="Q3:Q6">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -7830,14 +8336,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H26">
-    <cfRule type="top10" dxfId="3" priority="19" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M26">
-    <cfRule type="top10" dxfId="2" priority="13" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N6">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="R3:R6">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7848,7 +8348,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O6">
+  <conditionalFormatting sqref="R7:R26">
+    <cfRule type="top10" dxfId="19" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S6">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -7860,7 +8363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P6">
+  <conditionalFormatting sqref="T3:T6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -7872,7 +8375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q6">
+  <conditionalFormatting sqref="U3:U6">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -7884,7 +8387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R6">
+  <conditionalFormatting sqref="V3:V6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -7896,10 +8399,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:R26">
-    <cfRule type="top10" dxfId="1" priority="7" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="W3:W6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S6">
+  <conditionalFormatting sqref="AB7:AB26">
+    <cfRule type="top10" dxfId="18" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X6">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7911,7 +8426,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T6">
+  <conditionalFormatting sqref="Y3:Y6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -7923,7 +8438,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U6">
+  <conditionalFormatting sqref="Z3:Z6">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -7935,7 +8450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V6">
+  <conditionalFormatting sqref="AA3:AA6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7947,7 +8462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W6">
+  <conditionalFormatting sqref="AB3:AB6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7959,9 +8474,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W7:W11 W13:W15 W19:W26">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05F761-BC85-43A3-9D8D-65EC598BCA2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB923A7C-0584-4AB3-B201-9F9D2F16B9CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,16 +11,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>Algorithm</t>
   </si>
@@ -239,6 +234,33 @@
   </si>
   <si>
     <t>3_100</t>
+  </si>
+  <si>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>gbrt</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>avg - log10</t>
+  </si>
+  <si>
+    <t>std - log10</t>
+  </si>
+  <si>
+    <t>min/max - regular</t>
+  </si>
+  <si>
+    <t>stacked area - regular</t>
   </si>
 </sst>
 </file>
@@ -521,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -607,11 +629,45 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -697,30 +753,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -740,6 +772,4082 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scenario 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>blank1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$92:$H$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9706402174274155E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7794323609500772E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7436582388169583E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6715035046223098E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6574348892824419E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>gp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$93:$H$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1339906340567666E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4683678691271075E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9214344519247681E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7591606449129361E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.400115061158305E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>blank2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$94:$H$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4.9355462862928003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.450133002156311E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.259360223727829E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3755390747695121E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.1416343707883548E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>dummy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$95:$H$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.5872631621200383E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6672295790994275E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8429678628864358E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8429678628864358E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5575560806091469E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>blank3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$96:$H$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9.5872631621200383E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.4123343520501294E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.894930691000473E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8576723867675726E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5913128677224332E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$97:$H$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.5872631621200383E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8916617512106548E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6057343183897746E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6855710792647094E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0931726412314724E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>blank4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$98:$H$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.11584500798078569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8640680962308424E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5888126043226286E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7192300958401411E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.5974645625739687E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>gbrt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$99:$H$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.787850521984645E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2540301578421809E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1426333603415766E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1426333603415766E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7548867258095477E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>gp_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$83:$H$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9706402174274155E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7794323609500772E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7436582388169583E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6715035046223098E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6574348892824419E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>gp_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$84:$H$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3310546557995085E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2478002300771846E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1358016840094351E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0474195691136034E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8974463953982724E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dummy_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$85:$H$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3955083695067082E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.697933232233496E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7098656616366522E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7098656616366522E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5832829583194369E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>dummy_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$86:$H$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11982771531626747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5370229023227769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0139544290501011E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0139544290501011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1408390389285838E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>forest_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$87:$H$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3955083695067082E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.246885502726476E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1902373804962823E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5628204228252862E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5495261712061507E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>forest_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$88:$H$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11982771531626747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0163503014833023E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.724758056439403E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3313775307517571E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1588434353292979E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>gbrt_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$89:$H$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9827073354817832E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5228220525245982E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.359454521167743E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.359454521167743E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.299096979071901E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>gbrt_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$90:$H$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1861212555328234E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4063123630946407E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5020878815093197E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5020878815093197E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.053983704881449E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-6B96-4442-981D-CB1D652A3684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383917472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383914520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383914520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383917472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scenario 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>blank1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$92:$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.9345731592811606E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7245637978647562E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.773898070687626E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.588373849213618E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.517627846327642E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>gp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$93:$M$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2209205610315467E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8009128434392514E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3145181070027382E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1093994984327994E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0793921982678308E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>blank2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$94:$M$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9.509189755702771E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8446136681449274E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.8694649106018869E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4788220805579395E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.066157990659472E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>dummy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$95:$M$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6568804113621445E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2475822246211521E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9093449475023855E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9093449475023855E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9093449475023855E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>blank3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$96:$M$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.6568804113621445E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3665955276408984E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.246820137765693E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.246820137765693E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.384637975773905E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$97:$M$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6568804113621445E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9746288847725634E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7245468877224377E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7245468877224377E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9214344519247681E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>blank4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$98:$M$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.6998290469540746E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4858864005167028E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.964958763149722E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.964958763149722E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.7836679472699323E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>gbrt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$99:$M$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.2696630997180415E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9186637129448032E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.400115061158305E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.400115061158305E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.400115061158305E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>gp_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$83:$M$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.9345731592811606E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7245637978647562E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.773898070687626E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.588373849213618E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.517627846327642E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>gp_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$84:$M$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.7143778769596623E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.073369223225727E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0884161776903644E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6977733476464174E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0255670661544251E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dummy_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$85:$M$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.051881212568918E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2875555508079957E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2189512670884779E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2189512670884779E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2189512670884779E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>dummy_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$86:$M$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8620685326190364E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5351377754291478E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1282962145908634E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1282962145908634E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1282962145908634E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>forest_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$87:$M$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.051881212568918E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1685422477882494E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8814760768251703E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8814760768251703E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7436582388169583E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>forest_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$88:$M$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8620685326190364E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1431711325608124E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1539307655974141E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1539307655974141E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1358016840094351E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>gbrt_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$89:$M$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6223948566496196E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65728473204411E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6574348892824419E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6574348892824419E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6574348892824419E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>gbrt_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$90:$M$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.431902585383004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2491511033385903E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8974463953982724E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8974463953982724E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8974463953982724E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-C52C-401E-A1F0-3CBCCC865148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383917472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383914520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383914520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383917472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scenario 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>blank1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$92:$R$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.53293556090763006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2054309253823868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19060203194145037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18876648076062211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18876648076062211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>gp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$93:$R$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10784763175413437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3464473901309586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27276020702982984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27303462341945062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27303462341945062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>blank2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$94:$R$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.46148102480217701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.37489385586848412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2935283750389357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.29196724024772819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.29196724024772819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>dummy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$95:$R$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3789204330936764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31955499168477719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23442201691069986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23442201691069986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23442201691069986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>blank3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$96:$R$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.37893255208517157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.33283259803314436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.25756766698104572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27354817406211518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28206568152522726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$97:$R$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37859307266414693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32979077494979536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29845926585458266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30815791340551468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.315244947031592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>blank4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$98:$R$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.1081933265226751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.12450219122408523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14306410676806375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.13671041584085786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.13467433278395974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>gbrt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$99:$R$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31470391979178403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15616184261835858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19560708176840563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15702942046529067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15245688402966567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>gp_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$83:$R$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.53293556090763006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2054309253823868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19060203194145037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18876648076062211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18876648076062211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>gp_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$84:$R$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64078319266176442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55187831551334543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4633622389712802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4618011041800727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4618011041800727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dummy_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$85:$R$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17930216785958741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17698445964486129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16983386393234451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16983386393234451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16983386393234451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>dummy_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$86:$R$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55822260095326381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4965394513296385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40425588084304437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40425588084304437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40425588084304437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>forest_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$87:$R$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17929004886809224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16370685329649418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14668821386199865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13070770678092922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12219019931781708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>forest_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$88:$R$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55788312153223918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49349762824628957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44514747971658131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43886562018644387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43743514634940905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>gbrt_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$89:$R$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44968979500956408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36899543702220433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30208337294851756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30215520434558601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30276081356544932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>gbrt_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$90:$R$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7643937148013481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52515727964056291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49769045471692319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45918462481087668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45521769759511499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-BDA1-4905-8BE0-B62E044F5488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383917472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383914520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383914520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383917472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scenario 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>blank1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$92:$AB$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.35679508183764297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32251593383729804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31194295138869893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31145015321555231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31145015321555231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30896598858498414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30828704258637707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30582590970692053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29157218833188892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28731697579345444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>gp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$93:$AB$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15924882500072646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2327942714462219E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1552195812843038E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0592203661946324E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0592203661946324E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0837730167819775E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4797108360535058E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6155259763213701E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9773023850852463E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7699363110813289E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>blank2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$94:$AB$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.17992910226571412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.6980596697553232E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.6165555328950012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.6398413998664456E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6398413998664456E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.406352108033107E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8070009573302246E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.6967028096524348E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7151300672796141E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.1623520525372641E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>dummy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$95:$AB$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.8229981876659083E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8076313487136784E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2630269986384999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5849208936347492E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5849208936347492E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6896028367285911E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9944769552331625E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9944769552331625E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2265979219974437E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4941440410406976E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>blank3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$96:$AB$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-7.8229981876659083E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.9066310649891438E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.2928087071383929E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.7261165235000595E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.6062369472860103E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.7205443697437195E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.3230586275690837E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.3230586275690837E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.4731566079669003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.6605934139051397E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$97:$AB$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.8229981876659083E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5768407345835973E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5150286635041939E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.633489424578735E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0239361549260935E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0239361549260935E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3485781021853844E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3485781021853844E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3485781021853844E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3485781021853844E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>blank4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$98:$AB$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.16505927919375557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10990463646732909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.10415971283856493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.15826447773478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.15450137069615671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15450137069615671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15404533247667873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.15404533247667873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15404533247667873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15404533247667873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>gbrt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$99:$AB$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17684803575516711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11918020442899011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10770454694590989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16468381194243617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12837058302482013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12837058302482013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12837058302482013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12837058302482013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12837058302482013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12837058302482013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>gp_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$83:$AB$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.35679508183764297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32251593383729804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31194295138869893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31145015321555231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31145015321555231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30896598858498414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30828704258637707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30582590970692053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29157218833188892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28731697579345444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>gp_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$84:$AB$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.51604390683836943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36484387655176026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36349514720154197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35204235687749863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35204235687749863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34980371875280392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33308415094691213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33198116947013423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33134521218274138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32501633890426773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dummy_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$85:$AB$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.3361148045726553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30786327985420703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30732959187259196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30564394287883417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30564394287883417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30574019767247285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30501414137360988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30501414137360988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30419391150994524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30339281837889509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>dummy_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$86:$AB$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41434478644931438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38593959334134381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37995986185897695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37149315181518167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37149315181518167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36263622603975876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35495891092594151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35495891092594151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34645989072991967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33833425878930207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>forest_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$87:$AB$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.3361148045726553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31687328269145237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30703177478759303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29423198658018107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29543078234232156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29543078234232156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29172832465025067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29172832465025067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29172832465025067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29172832465025067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>forest_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$88:$AB$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41434478644931438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35264169003728835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34218206142263496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34056688082596842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3256701438915825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3256701438915825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32521410567210451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32521410567210451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32521410567210451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32521410567210451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>gbrt_min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$89:$AB$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24928550725555881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24273705356995925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23802234858407004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18230240309118842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17116877319542578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17116877319542578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17116877319542578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17116877319542578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17116877319542578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17116877319542578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>gbrt_max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$90:$AB$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42613354301072592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36191725799894936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34572689552997993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34698621503362459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29953935622024591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29953935622024591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29953935622024591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29953935622024591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29953935622024591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29953935622024591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-E9F0-4009-A0FF-DF3C3C19EBF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="383917472"/>
+        <c:axId val="383914520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383917472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383914520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383914520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383917472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -839,19 +4947,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.3620000000000005E-2</c:v>
+                  <c:v>1.2019513775888363E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6199999999999999E-3</c:v>
+                  <c:v>2.4040051645744117E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9399999999999997E-3</c:v>
+                  <c:v>1.9297948602901255E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8599999999999999E-3</c:v>
+                  <c:v>1.8499375625154729E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7799999999999999E-3</c:v>
+                  <c:v>1.7733848584772303E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +4967,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D189-4D3B-A7DA-C5372823A4D2}"/>
+              <c16:uniqueId val="{00000000-236D-48E5-80C4-432D7725E8F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -888,19 +4996,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.846000000000002E-2</c:v>
+                  <c:v>5.3576888201815692E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6420000000000005E-2</c:v>
+                  <c:v>2.3845039052596391E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2480000000000002E-2</c:v>
+                  <c:v>5.8682122680879696E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2480000000000002E-2</c:v>
+                  <c:v>5.8682122680879696E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1000000000000013E-3</c:v>
+                  <c:v>3.3624349448632867E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +5016,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D189-4D3B-A7DA-C5372823A4D2}"/>
+              <c16:uniqueId val="{00000001-236D-48E5-80C4-432D7725E8F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -937,19 +5045,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.846000000000002E-2</c:v>
+                  <c:v>5.3576888201815692E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4219999999999993E-2</c:v>
+                  <c:v>5.0141379711149663E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7239999999999993E-2</c:v>
+                  <c:v>4.5308625129066712E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9599999999999999E-3</c:v>
+                  <c:v>1.9088018279472684E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8599999999999999E-3</c:v>
+                  <c:v>1.8289845277036489E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +5065,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D189-4D3B-A7DA-C5372823A4D2}"/>
+              <c16:uniqueId val="{00000002-236D-48E5-80C4-432D7725E8F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -986,19 +5094,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.1879999999999991E-2</c:v>
+                  <c:v>1.5696340497896432E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6840000000000001E-2</c:v>
+                  <c:v>4.6277029715167525E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5799999999999999E-3</c:v>
+                  <c:v>2.734929294585161E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5799999999999999E-3</c:v>
+                  <c:v>2.734929294585161E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1600000000000005E-3</c:v>
+                  <c:v>2.5623455979414847E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,7 +5114,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D189-4D3B-A7DA-C5372823A4D2}"/>
+              <c16:uniqueId val="{00000003-236D-48E5-80C4-432D7725E8F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1183,11 +5291,10 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1212,7 +5319,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1312,19 +5419,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.9820000000000016E-2</c:v>
+                  <c:v>2.1894361906837991E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3100000000000001E-2</c:v>
+                  <c:v>7.5160007485415986E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>4.0152115664322278E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2199999999999998E-3</c:v>
+                  <c:v>2.0700416992193785E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7799999999999997E-3</c:v>
+                  <c:v>1.7532988861572178E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,7 +5439,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDB2-419C-B438-AC5336C4C420}"/>
+              <c16:uniqueId val="{00000000-F13B-45B1-8FEC-BA6C322D1270}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1361,19 +5468,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0580000000000001E-2</c:v>
+                  <c:v>6.1812162545867751E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5599999999999998E-3</c:v>
+                  <c:v>3.2209283742210045E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9000000000000002E-3</c:v>
+                  <c:v>2.2432547563065821E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9000000000000002E-3</c:v>
+                  <c:v>2.2432547563065821E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9000000000000002E-3</c:v>
+                  <c:v>2.2432547563065821E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,7 +5488,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EDB2-419C-B438-AC5336C4C420}"/>
+              <c16:uniqueId val="{00000001-F13B-45B1-8FEC-BA6C322D1270}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1410,19 +5517,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0580000000000001E-2</c:v>
+                  <c:v>6.1812162545867751E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2399999999999998E-3</c:v>
+                  <c:v>3.6498939897415248E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0199999999999997E-3</c:v>
+                  <c:v>2.0130994030621674E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0199999999999997E-3</c:v>
+                  <c:v>2.0130994030621674E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9399999999999997E-3</c:v>
+                  <c:v>1.9297948602901255E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,7 +5537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EDB2-419C-B438-AC5336C4C420}"/>
+              <c16:uniqueId val="{00000002-F13B-45B1-8FEC-BA6C322D1270}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1459,19 +5566,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.2199999999999991E-2</c:v>
+                  <c:v>1.1696099942415003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9599999999999999E-3</c:v>
+                  <c:v>1.9306692579577711E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7799999999999999E-3</c:v>
+                  <c:v>1.7733848584772303E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7799999999999999E-3</c:v>
+                  <c:v>1.7733848584772303E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7799999999999999E-3</c:v>
+                  <c:v>1.7733848584772303E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,7 +5586,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EDB2-419C-B438-AC5336C4C420}"/>
+              <c16:uniqueId val="{00000003-F13B-45B1-8FEC-BA6C322D1270}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1656,11 +5763,10 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1685,7 +5791,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1785,19 +5891,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.58846000000000009</c:v>
+                  <c:v>0.58437671942111069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38666</c:v>
+                  <c:v>0.33670888472741467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33584000000000003</c:v>
+                  <c:v>0.29718308207713628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33404</c:v>
+                  <c:v>0.29525001142665808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33404</c:v>
+                  <c:v>0.29525001142665808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,7 +5911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7DE-4096-A292-D5E5F48630CC}"/>
+              <c16:uniqueId val="{00000000-54C5-42F7-A59F-1F57D01BD291}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1834,19 +5940,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.37403999999999998</c:v>
+                  <c:v>0.31637086227896777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33639999999999998</c:v>
+                  <c:v>0.2964452166690027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29347999999999996</c:v>
+                  <c:v>0.26202354524154436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29347999999999996</c:v>
+                  <c:v>0.26202354524154436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29347999999999996</c:v>
+                  <c:v>0.26202354524154436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,7 +5960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F7DE-4096-A292-D5E5F48630CC}"/>
+              <c16:uniqueId val="{00000001-54C5-42F7-A59F-1F57D01BD291}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1883,19 +5989,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.37390000000000001</c:v>
+                  <c:v>0.3162639595689003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32778000000000002</c:v>
+                  <c:v>0.28423395966964116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29637999999999998</c:v>
+                  <c:v>0.2555345156819242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28443999999999997</c:v>
+                  <c:v>0.2395059890682493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27944000000000002</c:v>
+                  <c:v>0.23119318268723404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,7 +6009,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F7DE-4096-A292-D5E5F48630CC}"/>
+              <c16:uniqueId val="{00000002-54C5-42F7-A59F-1F57D01BD291}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1932,19 +6038,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.52900000000000003</c:v>
+                  <c:v>0.58629348701449646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45207999999999993</c:v>
+                  <c:v>0.44020522476040813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40401999999999993</c:v>
+                  <c:v>0.38774219688495298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38777999999999996</c:v>
+                  <c:v>0.37248493142955685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38570000000000004</c:v>
+                  <c:v>0.37124396355131178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,7 +6058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F7DE-4096-A292-D5E5F48630CC}"/>
+              <c16:uniqueId val="{00000003-54C5-42F7-A59F-1F57D01BD291}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2129,11 +6235,10 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2158,7 +6263,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2258,34 +6363,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.44278000000000006</c:v>
+                  <c:v>0.42909431127924902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34404000000000001</c:v>
+                  <c:v>0.34302764254635637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33832000000000001</c:v>
+                  <c:v>0.33673394398771056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33234000000000002</c:v>
+                  <c:v>0.33112481934741933</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33234000000000002</c:v>
+                  <c:v>0.33112481934741933</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31682500000000002</c:v>
+                  <c:v>0.32875135250697268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31580000000000003</c:v>
+                  <c:v>0.32044582666625254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31355000000000005</c:v>
+                  <c:v>0.31863528235079552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30435000000000001</c:v>
+                  <c:v>0.3108231790092495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30227500000000002</c:v>
+                  <c:v>0.30558584976637032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,7 +6398,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D6A-4FEB-86DB-CCCD2AD5B9D7}"/>
+              <c16:uniqueId val="{00000000-CE20-4C40-99F7-3498EAADFF86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2322,34 +6427,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.37585999999999997</c:v>
+                  <c:v>0.3731854993473217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34777999999999998</c:v>
+                  <c:v>0.34469788080530023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34415999999999997</c:v>
+                  <c:v>0.34172051339228343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33929999999999999</c:v>
+                  <c:v>0.33696384327295031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33929999999999999</c:v>
+                  <c:v>0.33696384327295031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33455000000000001</c:v>
+                  <c:v>0.33297518140635546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32900000000000001</c:v>
+                  <c:v>0.3290402520042004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32900000000000001</c:v>
+                  <c:v>0.3290402520042004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3231</c:v>
+                  <c:v>0.32463978397978654</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32047500000000001</c:v>
+                  <c:v>0.32038755332912172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,7 +6462,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3D6A-4FEB-86DB-CCCD2AD5B9D7}"/>
+              <c16:uniqueId val="{00000001-CE20-4C40-99F7-3498EAADFF86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2386,34 +6491,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.37585999999999997</c:v>
+                  <c:v>0.3731854993473217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33487999999999996</c:v>
+                  <c:v>0.33427941895363106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32473999999999997</c:v>
+                  <c:v>0.32413078474447432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31751999999999997</c:v>
+                  <c:v>0.31655279166173916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31069999999999998</c:v>
+                  <c:v>0.31018218097664257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29793333333333333</c:v>
+                  <c:v>0.31018218097664257</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29446666666666665</c:v>
+                  <c:v>0.308016503129869</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29446666666666665</c:v>
+                  <c:v>0.308016503129869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29446666666666665</c:v>
+                  <c:v>0.308016503129869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29446666666666665</c:v>
+                  <c:v>0.308016503129869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,7 +6526,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3D6A-4FEB-86DB-CCCD2AD5B9D7}"/>
+              <c16:uniqueId val="{00000002-CE20-4C40-99F7-3498EAADFF86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2450,34 +6555,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.34209999999999996</c:v>
+                  <c:v>0.32592777793253108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30515999999999999</c:v>
+                  <c:v>0.29639623621561684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29418</c:v>
+                  <c:v>0.28686360459759491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26929999999999998</c:v>
+                  <c:v>0.25150829179203138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23944000000000001</c:v>
+                  <c:v>0.22643273643174286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2673666666666667</c:v>
+                  <c:v>0.22643273643174286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2673666666666667</c:v>
+                  <c:v>0.22643273643174286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2673666666666667</c:v>
+                  <c:v>0.22643273643174286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2673666666666667</c:v>
+                  <c:v>0.22643273643174286</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2673666666666667</c:v>
+                  <c:v>0.22643273643174286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,7 +6590,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3D6A-4FEB-86DB-CCCD2AD5B9D7}"/>
+              <c16:uniqueId val="{00000003-CE20-4C40-99F7-3498EAADFF86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2662,11 +6767,10 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -4921,25 +9025,27 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B568452C-D4DC-4D9C-9919-AC819B9280D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2D5E81-DF0E-411C-A04F-D7420D65CB36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4957,21 +9063,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058CA454-20E8-457E-A7CE-48442CBCF67E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2074F3-451C-4F24-855E-E6F29A873B45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4995,21 +9101,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F14ED8B-CA3E-4891-BC17-DEB126542A68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0536E4C-93A7-4147-93EC-5B8986B9987D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5033,21 +9139,21 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93E8737-27EE-43F3-B69D-960DF341C4B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5306E509-D063-4395-A7E5-41E28EDAFD7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5067,60 +9173,212 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871B7A07-4980-4AEF-9F92-54E9DB03DA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F285B0-2E20-4923-BEB3-6052F0370D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB98E66C-2759-404A-A384-F47F43C78AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117C85A2-1705-4015-9B82-CAB59E433EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:AB26" totalsRowShown="0" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:AB26" totalsRowShown="0" headerRowBorderDxfId="21">
   <autoFilter ref="B2:AB26" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
   <tableColumns count="27">
     <tableColumn id="2" xr3:uid="{C5D03F94-B59B-4111-B686-B3565B731BE0}" name="Function"/>
     <tableColumn id="13" xr3:uid="{E5FFF603-2140-4CBD-A5E2-FB1006364FE6}" name="Parameters"/>
-    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="20">
       <calculatedColumnFormula>AVERAGE(D7,D11,D15,D19,D23)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="0_20"/>
     <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="0_30"/>
     <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="0_40"/>
     <tableColumn id="14" xr3:uid="{7979ACA1-BADA-4348-8B51-C28AD9AC9DC4}" name="0_50"/>
-    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="19"/>
     <tableColumn id="16" xr3:uid="{2963D26E-B527-4009-82A3-456B51C513FA}" name="1_20"/>
     <tableColumn id="17" xr3:uid="{5F12FDBB-B6D3-41D5-A3E8-4C7491D3E3A4}" name="1_30"/>
     <tableColumn id="18" xr3:uid="{E1D4DE2A-337D-413B-9569-8907A74F5FB9}" name="1_40"/>
     <tableColumn id="19" xr3:uid="{0CB7B969-7FCA-450C-BFF4-B282D45DB3F0}" name="1_50"/>
-    <tableColumn id="20" xr3:uid="{25C161C7-3A5F-46F9-A58E-E50C40E695E9}" name="2_10" dataDxfId="14">
+    <tableColumn id="20" xr3:uid="{25C161C7-3A5F-46F9-A58E-E50C40E695E9}" name="2_10" dataDxfId="18">
       <calculatedColumnFormula>AVERAGE(N7,N11,N15,N19,N23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{92C77FFB-822C-4C4C-872C-434257092BAB}" name="2_20" dataDxfId="13">
+    <tableColumn id="21" xr3:uid="{92C77FFB-822C-4C4C-872C-434257092BAB}" name="2_20" dataDxfId="17">
       <calculatedColumnFormula>AVERAGE(O7,O11,O15,O19,O23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F58CD74E-3C9C-455A-A6C0-47979DA875CC}" name="2_30" dataDxfId="12">
+    <tableColumn id="22" xr3:uid="{F58CD74E-3C9C-455A-A6C0-47979DA875CC}" name="2_30" dataDxfId="16">
       <calculatedColumnFormula>AVERAGE(P7,P11,P15,P19,P23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{218B8C4F-D760-41D0-B96D-65C6EAF8CF93}" name="2_40" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{218B8C4F-D760-41D0-B96D-65C6EAF8CF93}" name="2_40" dataDxfId="15">
       <calculatedColumnFormula>AVERAGE(Q7,Q11,Q15,Q19,Q23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{E571C054-FEDA-48EE-B9CA-C0D2C945CC62}" name="2_50" dataDxfId="10">
+    <tableColumn id="24" xr3:uid="{E571C054-FEDA-48EE-B9CA-C0D2C945CC62}" name="2_50" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(R7,R11,R15,R19,R23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{65AC0F3E-819B-434F-A1FB-22A82A16F3B5}" name="3_10" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{261E4D8B-13D7-468B-B2D5-9E4351F4C087}" name="3_20" dataDxfId="8"/>
-    <tableColumn id="27" xr3:uid="{C52A27CE-0F57-4E93-8037-A96CCF29B592}" name="3_30" dataDxfId="7"/>
-    <tableColumn id="28" xr3:uid="{D92C4A5A-4403-46AF-9D8E-47D0CAADFA40}" name="3_40" dataDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{50105550-BCDB-4867-B880-55D0C021143E}" name="3_50" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{C0737663-FA87-49B0-90F7-45D5039674EF}" name="3_60" dataDxfId="4">
+    <tableColumn id="25" xr3:uid="{65AC0F3E-819B-434F-A1FB-22A82A16F3B5}" name="3_10" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{261E4D8B-13D7-468B-B2D5-9E4351F4C087}" name="3_20" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{C52A27CE-0F57-4E93-8037-A96CCF29B592}" name="3_30" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{D92C4A5A-4403-46AF-9D8E-47D0CAADFA40}" name="3_40" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{50105550-BCDB-4867-B880-55D0C021143E}" name="3_50" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{C0737663-FA87-49B0-90F7-45D5039674EF}" name="3_60" dataDxfId="8">
       <calculatedColumnFormula>AVERAGE(X7,X11,X15,X19,X23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{63A8CBCD-AC26-4DA7-A250-1577CB9D4075}" name="3_70" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{63A8CBCD-AC26-4DA7-A250-1577CB9D4075}" name="3_70" dataDxfId="7">
       <calculatedColumnFormula>AVERAGE(Y7,Y11,Y15,Y19,Y23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CDE6D331-A76C-4BA8-829A-44E5A0EC4005}" name="3_80" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{CDE6D331-A76C-4BA8-829A-44E5A0EC4005}" name="3_80" dataDxfId="6">
       <calculatedColumnFormula>AVERAGE(Z7,Z11,Z15,Z19,Z23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B419A679-1103-4029-B1ED-20343920C68E}" name="3_90" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{B419A679-1103-4029-B1ED-20343920C68E}" name="3_90" dataDxfId="5">
       <calculatedColumnFormula>AVERAGE(AA7,AA11,AA15,AA19,AA23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CD4E167-BE63-4E5A-B882-4C3E124FFD45}" name="3_100" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{9CD4E167-BE63-4E5A-B882-4C3E124FFD45}" name="3_100" dataDxfId="4">
       <calculatedColumnFormula>AVERAGE(AB7,AB11,AB15,AB19,AB23)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5129,8 +9387,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AF39C55-E78F-425F-89F4-BC666A41BB4F}" name="Table2" displayName="Table2" ref="A31:X35" totalsRowShown="0">
-  <autoFilter ref="A31:X35" xr:uid="{2D87966D-B079-4B69-AC3D-C8DEB2366165}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AF39C55-E78F-425F-89F4-BC666A41BB4F}" name="Table2" displayName="Table2" ref="A32:X36" totalsRowShown="0">
+  <autoFilter ref="A32:X36" xr:uid="{2D87966D-B079-4B69-AC3D-C8DEB2366165}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{3F1A14A8-1EC1-43C0-90DF-645BF2780390}" name="Number"/>
     <tableColumn id="2" xr3:uid="{C568F7B3-4578-4675-A7AC-0C827C456883}" name="Dataset"/>
@@ -5440,10 +9698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5612,104 +9870,104 @@
         <v>4</v>
       </c>
       <c r="D3" s="20">
-        <f t="shared" ref="D3:H6" si="0">AVERAGE(D7,D11,D15,D19,D23)</f>
-        <v>7.3620000000000005E-2</v>
+        <f>POWER(10, D73)</f>
+        <v>1.2019513775888363E-2</v>
       </c>
       <c r="E3" s="21">
-        <f t="shared" si="0"/>
-        <v>2.6199999999999999E-3</v>
+        <f>POWER(10, E73)</f>
+        <v>2.4040051645744117E-3</v>
       </c>
       <c r="F3" s="21">
-        <f t="shared" si="0"/>
-        <v>1.9399999999999997E-3</v>
+        <f>POWER(10, F73)</f>
+        <v>1.9297948602901255E-3</v>
       </c>
       <c r="G3" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8599999999999999E-3</v>
+        <f>POWER(10, G73)</f>
+        <v>1.8499375625154729E-3</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" si="0"/>
-        <v>1.7799999999999999E-3</v>
+        <f>POWER(10, H73)</f>
+        <v>1.7733848584772303E-3</v>
       </c>
       <c r="I3" s="20">
-        <f t="shared" ref="I3:M3" si="1">AVERAGE(I7,I11,I15,I19,I23)</f>
-        <v>7.9820000000000016E-2</v>
+        <f>POWER(10, I73)</f>
+        <v>2.1894361906837991E-2</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" si="1"/>
-        <v>1.3100000000000001E-2</v>
+        <f>POWER(10, J73)</f>
+        <v>7.5160007485415986E-3</v>
       </c>
       <c r="K3" s="19">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <f>POWER(10, K73)</f>
+        <v>4.0152115664322278E-3</v>
       </c>
       <c r="L3" s="19">
-        <f t="shared" si="1"/>
-        <v>2.2199999999999998E-3</v>
+        <f>POWER(10, L73)</f>
+        <v>2.0700416992193785E-3</v>
       </c>
       <c r="M3" s="19">
-        <f t="shared" si="1"/>
-        <v>1.7799999999999997E-3</v>
+        <f>POWER(10, M73)</f>
+        <v>1.7532988861572178E-3</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N6" si="2">AVERAGE(N7,N11,N15,N19,N23)</f>
-        <v>0.58846000000000009</v>
+        <f>POWER(10, N73)</f>
+        <v>0.58437671942111069</v>
       </c>
       <c r="O3" s="19">
-        <f t="shared" ref="O3:O6" si="3">AVERAGE(O7,O11,O15,O19,O23)</f>
-        <v>0.38666</v>
+        <f>POWER(10, O73)</f>
+        <v>0.33670888472741467</v>
       </c>
       <c r="P3" s="19">
-        <f t="shared" ref="P3:P6" si="4">AVERAGE(P7,P11,P15,P19,P23)</f>
-        <v>0.33584000000000003</v>
+        <f>POWER(10, P73)</f>
+        <v>0.29718308207713628</v>
       </c>
       <c r="Q3" s="19">
-        <f t="shared" ref="Q3:Q6" si="5">AVERAGE(Q7,Q11,Q15,Q19,Q23)</f>
-        <v>0.33404</v>
+        <f>POWER(10, Q73)</f>
+        <v>0.29525001142665808</v>
       </c>
       <c r="R3" s="19">
-        <f t="shared" ref="R3:V6" si="6">AVERAGE(R7,R11,R15,R19,R23)</f>
-        <v>0.33404</v>
+        <f>POWER(10, R73)</f>
+        <v>0.29525001142665808</v>
       </c>
       <c r="S3" s="20">
-        <f t="shared" si="6"/>
-        <v>0.44278000000000006</v>
+        <f>POWER(10, S73)</f>
+        <v>0.42909431127924902</v>
       </c>
       <c r="T3" s="19">
-        <f t="shared" si="6"/>
-        <v>0.34404000000000001</v>
+        <f>POWER(10, T73)</f>
+        <v>0.34302764254635637</v>
       </c>
       <c r="U3" s="19">
-        <f t="shared" si="6"/>
-        <v>0.33832000000000001</v>
+        <f>POWER(10, U73)</f>
+        <v>0.33673394398771056</v>
       </c>
       <c r="V3" s="19">
-        <f t="shared" si="6"/>
-        <v>0.33234000000000002</v>
+        <f>POWER(10, V73)</f>
+        <v>0.33112481934741933</v>
       </c>
       <c r="W3" s="21">
-        <f t="shared" ref="W3" si="7">AVERAGE(W7,W11,W15,W19,W23)</f>
-        <v>0.33234000000000002</v>
+        <f>POWER(10, W73)</f>
+        <v>0.33112481934741933</v>
       </c>
       <c r="X3" s="32">
-        <f t="shared" ref="X3:X6" si="8">AVERAGE(X7,X11,X15,X19,X23)</f>
-        <v>0.31682500000000002</v>
+        <f>POWER(10, X73)</f>
+        <v>0.32875135250697268</v>
       </c>
       <c r="Y3" s="28">
-        <f t="shared" ref="Y3:Y6" si="9">AVERAGE(Y7,Y11,Y15,Y19,Y23)</f>
-        <v>0.31580000000000003</v>
+        <f>POWER(10, Y73)</f>
+        <v>0.32044582666625254</v>
       </c>
       <c r="Z3" s="28">
-        <f t="shared" ref="Z3:Z6" si="10">AVERAGE(Z7,Z11,Z15,Z19,Z23)</f>
-        <v>0.31355000000000005</v>
+        <f>POWER(10, Z73)</f>
+        <v>0.31863528235079552</v>
       </c>
       <c r="AA3" s="28">
-        <f t="shared" ref="AA3:AA6" si="11">AVERAGE(AA7,AA11,AA15,AA19,AA23)</f>
-        <v>0.30435000000000001</v>
+        <f>POWER(10, AA73)</f>
+        <v>0.3108231790092495</v>
       </c>
       <c r="AB3" s="28">
-        <f t="shared" ref="AB3:AB6" si="12">AVERAGE(AB7,AB11,AB15,AB19,AB23)</f>
-        <v>0.30227500000000002</v>
+        <f>POWER(10, AB73)</f>
+        <v>0.30558584976637032</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
@@ -5721,104 +9979,104 @@
         <v>4</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" si="0"/>
-        <v>9.846000000000002E-2</v>
+        <f>POWER(10, D74)</f>
+        <v>5.3576888201815692E-2</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" si="0"/>
-        <v>5.6420000000000005E-2</v>
+        <f>POWER(10, E74)</f>
+        <v>2.3845039052596391E-2</v>
       </c>
       <c r="F4" s="19">
-        <f t="shared" si="0"/>
-        <v>1.2480000000000002E-2</v>
+        <f>POWER(10, F74)</f>
+        <v>5.8682122680879696E-3</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" si="0"/>
-        <v>1.2480000000000002E-2</v>
+        <f>POWER(10, G74)</f>
+        <v>5.8682122680879696E-3</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" si="0"/>
-        <v>6.1000000000000013E-3</v>
+        <f>POWER(10, H74)</f>
+        <v>3.3624349448632867E-3</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:M4" si="13">AVERAGE(I8,I12,I16,I20,I24)</f>
-        <v>2.0580000000000001E-2</v>
+        <f>POWER(10, I74)</f>
+        <v>6.1812162545867751E-3</v>
       </c>
       <c r="J4" s="19">
-        <f t="shared" si="13"/>
-        <v>3.5599999999999998E-3</v>
+        <f>POWER(10, J74)</f>
+        <v>3.2209283742210045E-3</v>
       </c>
       <c r="K4" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9000000000000002E-3</v>
+        <f>POWER(10, K74)</f>
+        <v>2.2432547563065821E-3</v>
       </c>
       <c r="L4" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9000000000000002E-3</v>
+        <f>POWER(10, L74)</f>
+        <v>2.2432547563065821E-3</v>
       </c>
       <c r="M4" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9000000000000002E-3</v>
+        <f>POWER(10, M74)</f>
+        <v>2.2432547563065821E-3</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" si="2"/>
-        <v>0.37403999999999998</v>
+        <f>POWER(10, N74)</f>
+        <v>0.31637086227896777</v>
       </c>
       <c r="O4" s="19">
-        <f t="shared" si="3"/>
-        <v>0.33639999999999998</v>
+        <f>POWER(10, O74)</f>
+        <v>0.2964452166690027</v>
       </c>
       <c r="P4" s="19">
-        <f t="shared" si="4"/>
-        <v>0.29347999999999996</v>
+        <f>POWER(10, P74)</f>
+        <v>0.26202354524154436</v>
       </c>
       <c r="Q4" s="19">
-        <f t="shared" si="5"/>
-        <v>0.29347999999999996</v>
+        <f>POWER(10, Q74)</f>
+        <v>0.26202354524154436</v>
       </c>
       <c r="R4" s="19">
-        <f t="shared" si="6"/>
-        <v>0.29347999999999996</v>
+        <f>POWER(10, R74)</f>
+        <v>0.26202354524154436</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" si="6"/>
-        <v>0.37585999999999997</v>
+        <f>POWER(10, S74)</f>
+        <v>0.3731854993473217</v>
       </c>
       <c r="T4" s="19">
-        <f t="shared" si="6"/>
-        <v>0.34777999999999998</v>
+        <f>POWER(10, T74)</f>
+        <v>0.34469788080530023</v>
       </c>
       <c r="U4" s="19">
-        <f t="shared" si="6"/>
-        <v>0.34415999999999997</v>
+        <f>POWER(10, U74)</f>
+        <v>0.34172051339228343</v>
       </c>
       <c r="V4" s="19">
-        <f t="shared" si="6"/>
-        <v>0.33929999999999999</v>
+        <f>POWER(10, V74)</f>
+        <v>0.33696384327295031</v>
       </c>
       <c r="W4" s="19">
-        <f t="shared" ref="W4" si="14">AVERAGE(W8,W12,W16,W20,W24)</f>
-        <v>0.33929999999999999</v>
+        <f>POWER(10, W74)</f>
+        <v>0.33696384327295031</v>
       </c>
       <c r="X4" s="28">
-        <f t="shared" si="8"/>
-        <v>0.33455000000000001</v>
+        <f>POWER(10, X74)</f>
+        <v>0.33297518140635546</v>
       </c>
       <c r="Y4" s="28">
-        <f t="shared" si="9"/>
-        <v>0.32900000000000001</v>
+        <f>POWER(10, Y74)</f>
+        <v>0.3290402520042004</v>
       </c>
       <c r="Z4" s="28">
-        <f t="shared" si="10"/>
-        <v>0.32900000000000001</v>
+        <f>POWER(10, Z74)</f>
+        <v>0.3290402520042004</v>
       </c>
       <c r="AA4" s="28">
-        <f t="shared" si="11"/>
-        <v>0.3231</v>
+        <f>POWER(10, AA74)</f>
+        <v>0.32463978397978654</v>
       </c>
       <c r="AB4" s="28">
-        <f t="shared" si="12"/>
-        <v>0.32047500000000001</v>
+        <f>POWER(10, AB74)</f>
+        <v>0.32038755332912172</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
@@ -5830,104 +10088,104 @@
         <v>4</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>9.846000000000002E-2</v>
+        <f>POWER(10, D75)</f>
+        <v>5.3576888201815692E-2</v>
       </c>
       <c r="E5" s="19">
-        <f t="shared" si="0"/>
-        <v>3.4219999999999993E-2</v>
+        <f>POWER(10, E75)</f>
+        <v>5.0141379711149663E-3</v>
       </c>
       <c r="F5" s="19">
-        <f t="shared" si="0"/>
-        <v>2.7239999999999993E-2</v>
+        <f>POWER(10, F75)</f>
+        <v>4.5308625129066712E-3</v>
       </c>
       <c r="G5" s="19">
-        <f t="shared" si="0"/>
-        <v>1.9599999999999999E-3</v>
+        <f>POWER(10, G75)</f>
+        <v>1.9088018279472684E-3</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" si="0"/>
-        <v>1.8599999999999999E-3</v>
+        <f>POWER(10, H75)</f>
+        <v>1.8289845277036489E-3</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:M5" si="15">AVERAGE(I9,I13,I17,I21,I25)</f>
-        <v>2.0580000000000001E-2</v>
+        <f>POWER(10, I75)</f>
+        <v>6.1812162545867751E-3</v>
       </c>
       <c r="J5" s="19">
-        <f t="shared" si="15"/>
-        <v>4.2399999999999998E-3</v>
+        <f>POWER(10, J75)</f>
+        <v>3.6498939897415248E-3</v>
       </c>
       <c r="K5" s="19">
-        <f t="shared" si="15"/>
-        <v>2.0199999999999997E-3</v>
+        <f>POWER(10, K75)</f>
+        <v>2.0130994030621674E-3</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" si="15"/>
-        <v>2.0199999999999997E-3</v>
+        <f>POWER(10, L75)</f>
+        <v>2.0130994030621674E-3</v>
       </c>
       <c r="M5" s="19">
-        <f t="shared" si="15"/>
-        <v>1.9399999999999997E-3</v>
+        <f>POWER(10, M75)</f>
+        <v>1.9297948602901255E-3</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" si="2"/>
-        <v>0.37390000000000001</v>
+        <f>POWER(10, N75)</f>
+        <v>0.3162639595689003</v>
       </c>
       <c r="O5" s="19">
-        <f t="shared" si="3"/>
-        <v>0.32778000000000002</v>
+        <f>POWER(10, O75)</f>
+        <v>0.28423395966964116</v>
       </c>
       <c r="P5" s="19">
-        <f t="shared" si="4"/>
-        <v>0.29637999999999998</v>
+        <f>POWER(10, P75)</f>
+        <v>0.2555345156819242</v>
       </c>
       <c r="Q5" s="19">
-        <f t="shared" si="5"/>
-        <v>0.28443999999999997</v>
+        <f>POWER(10, Q75)</f>
+        <v>0.2395059890682493</v>
       </c>
       <c r="R5" s="19">
-        <f t="shared" si="6"/>
-        <v>0.27944000000000002</v>
+        <f>POWER(10, R75)</f>
+        <v>0.23119318268723404</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="6"/>
-        <v>0.37585999999999997</v>
+        <f>POWER(10, S75)</f>
+        <v>0.3731854993473217</v>
       </c>
       <c r="T5" s="19">
-        <f t="shared" si="6"/>
-        <v>0.33487999999999996</v>
+        <f>POWER(10, T75)</f>
+        <v>0.33427941895363106</v>
       </c>
       <c r="U5" s="19">
-        <f t="shared" si="6"/>
-        <v>0.32473999999999997</v>
+        <f>POWER(10, U75)</f>
+        <v>0.32413078474447432</v>
       </c>
       <c r="V5" s="19">
-        <f t="shared" si="6"/>
-        <v>0.31751999999999997</v>
+        <f>POWER(10, V75)</f>
+        <v>0.31655279166173916</v>
       </c>
       <c r="W5" s="19">
-        <f t="shared" ref="W5" si="16">AVERAGE(W9,W13,W17,W21,W25)</f>
-        <v>0.31069999999999998</v>
+        <f>POWER(10, W75)</f>
+        <v>0.31018218097664257</v>
       </c>
       <c r="X5" s="28">
-        <f t="shared" si="8"/>
-        <v>0.29793333333333333</v>
+        <f>POWER(10, X75)</f>
+        <v>0.31018218097664257</v>
       </c>
       <c r="Y5" s="28">
-        <f t="shared" si="9"/>
-        <v>0.29446666666666665</v>
+        <f>POWER(10, Y75)</f>
+        <v>0.308016503129869</v>
       </c>
       <c r="Z5" s="28">
-        <f t="shared" si="10"/>
-        <v>0.29446666666666665</v>
+        <f>POWER(10, Z75)</f>
+        <v>0.308016503129869</v>
       </c>
       <c r="AA5" s="28">
-        <f t="shared" si="11"/>
-        <v>0.29446666666666665</v>
+        <f>POWER(10, AA75)</f>
+        <v>0.308016503129869</v>
       </c>
       <c r="AB5" s="28">
-        <f t="shared" si="12"/>
-        <v>0.29446666666666665</v>
+        <f>POWER(10, AB75)</f>
+        <v>0.308016503129869</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
@@ -5939,104 +10197,104 @@
         <v>4</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>6.1879999999999991E-2</v>
+        <f>POWER(10, D76)</f>
+        <v>1.5696340497896432E-2</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6840000000000001E-2</v>
+        <f>POWER(10, E76)</f>
+        <v>4.6277029715167525E-3</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5799999999999999E-3</v>
+        <f>POWER(10, F76)</f>
+        <v>2.734929294585161E-3</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5799999999999999E-3</v>
+        <f>POWER(10, G76)</f>
+        <v>2.734929294585161E-3</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1600000000000005E-3</v>
+        <f>POWER(10, H76)</f>
+        <v>2.5623455979414847E-3</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" ref="I6:M6" si="17">AVERAGE(I10,I14,I18,I22,I26)</f>
-        <v>6.2199999999999991E-2</v>
+        <f>POWER(10, I76)</f>
+        <v>1.1696099942415003E-2</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="17"/>
-        <v>1.9599999999999999E-3</v>
+        <f>POWER(10, J76)</f>
+        <v>1.9306692579577711E-3</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="17"/>
-        <v>1.7799999999999999E-3</v>
+        <f>POWER(10, K76)</f>
+        <v>1.7733848584772303E-3</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="17"/>
-        <v>1.7799999999999999E-3</v>
+        <f>POWER(10, L76)</f>
+        <v>1.7733848584772303E-3</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="17"/>
-        <v>1.7799999999999999E-3</v>
+        <f>POWER(10, M76)</f>
+        <v>1.7733848584772303E-3</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" si="2"/>
-        <v>0.52900000000000003</v>
+        <f>POWER(10, N76)</f>
+        <v>0.58629348701449646</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="3"/>
-        <v>0.45207999999999993</v>
+        <f>POWER(10, O76)</f>
+        <v>0.44020522476040813</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.40401999999999993</v>
+        <f>POWER(10, P76)</f>
+        <v>0.38774219688495298</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" si="5"/>
-        <v>0.38777999999999996</v>
+        <f>POWER(10, Q76)</f>
+        <v>0.37248493142955685</v>
       </c>
       <c r="R6" s="8">
-        <f t="shared" si="6"/>
-        <v>0.38570000000000004</v>
+        <f>POWER(10, R76)</f>
+        <v>0.37124396355131178</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" si="6"/>
-        <v>0.34209999999999996</v>
+        <f>POWER(10, S76)</f>
+        <v>0.32592777793253108</v>
       </c>
       <c r="T6" s="8">
-        <f t="shared" si="6"/>
-        <v>0.30515999999999999</v>
+        <f>POWER(10, T76)</f>
+        <v>0.29639623621561684</v>
       </c>
       <c r="U6" s="8">
-        <f t="shared" si="6"/>
-        <v>0.29418</v>
+        <f>POWER(10, U76)</f>
+        <v>0.28686360459759491</v>
       </c>
       <c r="V6" s="8">
-        <f t="shared" si="6"/>
-        <v>0.26929999999999998</v>
+        <f>POWER(10, V76)</f>
+        <v>0.25150829179203138</v>
       </c>
       <c r="W6" s="8">
-        <f t="shared" ref="W6" si="18">AVERAGE(W10,W14,W18,W22,W26)</f>
-        <v>0.23944000000000001</v>
+        <f>POWER(10, W76)</f>
+        <v>0.22643273643174286</v>
       </c>
       <c r="X6" s="30">
-        <f t="shared" si="8"/>
-        <v>0.2673666666666667</v>
+        <f>POWER(10, X76)</f>
+        <v>0.22643273643174286</v>
       </c>
       <c r="Y6" s="30">
-        <f t="shared" si="9"/>
-        <v>0.2673666666666667</v>
+        <f>POWER(10, Y76)</f>
+        <v>0.22643273643174286</v>
       </c>
       <c r="Z6" s="30">
-        <f t="shared" si="10"/>
-        <v>0.2673666666666667</v>
+        <f>POWER(10, Z76)</f>
+        <v>0.22643273643174286</v>
       </c>
       <c r="AA6" s="30">
-        <f t="shared" si="11"/>
-        <v>0.2673666666666667</v>
+        <f>POWER(10, AA76)</f>
+        <v>0.22643273643174286</v>
       </c>
       <c r="AB6" s="30">
-        <f t="shared" si="12"/>
-        <v>0.2673666666666667</v>
+        <f>POWER(10, AB76)</f>
+        <v>0.22643273643174286</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
@@ -6130,11 +10388,11 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" t="str">
-        <f t="shared" ref="B8:C8" si="19">B4</f>
+        <f t="shared" ref="B8:C8" si="0">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v>[]</v>
       </c>
       <c r="D8" s="9">
@@ -6216,11 +10474,11 @@
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" t="str">
-        <f t="shared" ref="B9:C9" si="20">B5</f>
+        <f t="shared" ref="B9:C9" si="1">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="1"/>
         <v>[]</v>
       </c>
       <c r="D9" s="9">
@@ -6302,11 +10560,11 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="8" t="str">
-        <f t="shared" ref="B10:C10" si="21">B6</f>
+        <f t="shared" ref="B10:C10" si="2">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
       <c r="C10" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>[]</v>
       </c>
       <c r="D10" s="10">
@@ -6476,11 +10734,11 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" t="str">
-        <f t="shared" ref="B12:C12" si="22">B4</f>
+        <f t="shared" ref="B12:C12" si="3">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="3"/>
         <v>[]</v>
       </c>
       <c r="D12" s="9">
@@ -6562,11 +10820,11 @@
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" t="str">
-        <f t="shared" ref="B13:C13" si="23">B5</f>
+        <f t="shared" ref="B13:C13" si="4">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="D13" s="9">
@@ -6648,11 +10906,11 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="8" t="str">
-        <f t="shared" ref="B14:C14" si="24">B6</f>
+        <f t="shared" ref="B14:C14" si="5">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
       <c r="C14" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>[]</v>
       </c>
       <c r="D14" s="10">
@@ -6822,11 +11080,11 @@
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" t="str">
-        <f t="shared" ref="B16:C16" si="25">B4</f>
+        <f t="shared" ref="B16:C16" si="6">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>[]</v>
       </c>
       <c r="D16" s="9">
@@ -6908,11 +11166,11 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:C17" si="26">B5</f>
+        <f t="shared" ref="B17:C17" si="7">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="D17" s="9">
@@ -6994,11 +11252,11 @@
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="8" t="str">
-        <f t="shared" ref="B18:C18" si="27">B6</f>
+        <f t="shared" ref="B18:C18" si="8">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
       <c r="C18" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="8"/>
         <v>[]</v>
       </c>
       <c r="D18" s="10">
@@ -7168,11 +11426,11 @@
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" t="str">
-        <f t="shared" ref="B20:C20" si="28">B4</f>
+        <f t="shared" ref="B20:C20" si="9">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="9"/>
         <v>[]</v>
       </c>
       <c r="D20" s="9">
@@ -7254,11 +11512,11 @@
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" t="str">
-        <f t="shared" ref="B21:C21" si="29">B5</f>
+        <f t="shared" ref="B21:C21" si="10">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="10"/>
         <v>[]</v>
       </c>
       <c r="D21" s="9">
@@ -7321,20 +11579,30 @@
       <c r="W21">
         <v>0.31869999999999998</v>
       </c>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
+      <c r="X21" s="31">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="Y21" s="31">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="Z21" s="31">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="AA21" s="31">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="AB21" s="31">
+        <v>0.31869999999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="8" t="str">
-        <f t="shared" ref="B22:C22" si="30">B6</f>
+        <f t="shared" ref="B22:C22" si="11">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
       <c r="C22" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="11"/>
         <v>[]</v>
       </c>
       <c r="D22" s="10">
@@ -7368,7 +11636,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="N22" s="10">
-        <v>4.9099999999999998E-2</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="O22" s="8">
         <v>0.35759999999999997</v>
@@ -7397,11 +11665,21 @@
       <c r="W22" s="30">
         <v>0.28260000000000002</v>
       </c>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
+      <c r="X22" s="30">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="Y22" s="30">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="Z22" s="30">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="AA22" s="30">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="AB22" s="30">
+        <v>0.28260000000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
@@ -7475,20 +11753,30 @@
       <c r="W23" s="28">
         <v>0.3826</v>
       </c>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
+      <c r="X23" s="31">
+        <v>0.3826</v>
+      </c>
+      <c r="Y23" s="31">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="Z23" s="31">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AA23" s="31">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AB23" s="31">
+        <v>0.32219999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:C24" si="31">B4</f>
+        <f t="shared" ref="B24:C24" si="12">B4</f>
         <v>skopt.dummy_min</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="12"/>
         <v>[]</v>
       </c>
       <c r="D24" s="9">
@@ -7551,20 +11839,30 @@
       <c r="W24" s="28">
         <v>0.3347</v>
       </c>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
+      <c r="X24" s="31">
+        <v>0.3347</v>
+      </c>
+      <c r="Y24" s="31">
+        <v>0.3347</v>
+      </c>
+      <c r="Z24" s="31">
+        <v>0.3347</v>
+      </c>
+      <c r="AA24" s="31">
+        <v>0.3347</v>
+      </c>
+      <c r="AB24" s="31">
+        <v>0.32290000000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" t="str">
-        <f t="shared" ref="B25:C25" si="32">B5</f>
+        <f t="shared" ref="B25:C25" si="13">B5</f>
         <v>skopt.forest_min</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>[]</v>
       </c>
       <c r="D25" s="9">
@@ -7627,20 +11925,30 @@
       <c r="W25" s="28">
         <v>0.34100000000000003</v>
       </c>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
+      <c r="X25" s="31">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="Y25" s="31">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="Z25" s="31">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AA25" s="31">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AB25" s="31">
+        <v>0.34100000000000003</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" t="str">
-        <f t="shared" ref="B26:C26" si="33">B6</f>
+        <f t="shared" ref="B26:C26" si="14">B6</f>
         <v>skopt.gbrt_min</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>[]</v>
       </c>
       <c r="D26" s="9">
@@ -7703,205 +12011,133 @@
       <c r="W26" s="33">
         <v>0.1125</v>
       </c>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
+      <c r="X26" s="31">
+        <v>0.1125</v>
+      </c>
+      <c r="Y26" s="31">
+        <v>0.1125</v>
+      </c>
+      <c r="Z26" s="31">
+        <v>0.1125</v>
+      </c>
+      <c r="AA26" s="31">
+        <v>0.1125</v>
+      </c>
+      <c r="AB26" s="31">
+        <v>0.1125</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="D32">
-        <v>201</v>
-      </c>
-      <c r="E32">
-        <v>101</v>
-      </c>
-      <c r="F32">
-        <f>10^-2</f>
-        <v>0.01</v>
-      </c>
-      <c r="G32">
-        <f>10^0</f>
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <f>10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I32">
-        <f>10^-1</f>
-        <v>0.1</v>
-      </c>
-      <c r="J32">
-        <f>10^0</f>
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <f>10^2</f>
-        <v>100</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N32">
-        <f>10^0</f>
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <f>10^2</f>
-        <v>100</v>
-      </c>
-      <c r="P32">
-        <v>2</v>
-      </c>
-      <c r="Q32">
-        <v>32</v>
-      </c>
-      <c r="R32">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="S32">
-        <v>7.8104293049744797E-2</v>
-      </c>
-      <c r="T32">
-        <v>1.58915619152023E-3</v>
-      </c>
-      <c r="U32">
-        <v>21.383886468139199</v>
-      </c>
-      <c r="V32">
-        <v>7</v>
-      </c>
-      <c r="W32">
-        <v>10.283602902208001</v>
-      </c>
-      <c r="X32">
-        <v>30</v>
+      <c r="V32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>1</v>
+      <c r="A33" s="7">
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -7940,7 +12176,7 @@
         <v>100</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M33">
         <v>32</v>
@@ -7954,39 +12190,39 @@
         <v>100</v>
       </c>
       <c r="P33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q33">
         <v>32</v>
       </c>
       <c r="R33">
-        <v>8.9999999999999998E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="S33">
-        <v>0.20652340258472601</v>
+        <v>7.8104293049744797E-2</v>
       </c>
       <c r="T33">
-        <v>1.17437068936225E-2</v>
+        <v>1.58915619152023E-3</v>
       </c>
       <c r="U33">
-        <v>21.53360747208</v>
+        <v>21.383886468139199</v>
       </c>
       <c r="V33">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="W33">
-        <v>16.968321863245102</v>
+        <v>10.283602902208001</v>
       </c>
       <c r="X33">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
-        <v>2</v>
+      <c r="A34" s="6">
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -7998,74 +12234,74 @@
         <v>101</v>
       </c>
       <c r="F34">
-        <f>10^-4</f>
-        <v>1E-4</v>
+        <f>10^-2</f>
+        <v>0.01</v>
       </c>
       <c r="G34">
         <f>10^0</f>
         <v>1</v>
       </c>
       <c r="H34">
-        <f>10^-5</f>
-        <v>1.0000000000000001E-5</v>
+        <f>10^-3</f>
+        <v>1E-3</v>
       </c>
       <c r="I34">
         <f>10^-1</f>
         <v>0.1</v>
       </c>
       <c r="J34">
-        <f>10^-1</f>
-        <v>0.1</v>
+        <f>10^0</f>
+        <v>1</v>
       </c>
       <c r="K34">
-        <f>10^3</f>
-        <v>1000</v>
+        <f>10^2</f>
+        <v>100</v>
       </c>
       <c r="L34">
         <v>10</v>
       </c>
       <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f>10^2</f>
         <v>100</v>
-      </c>
-      <c r="N34">
-        <f>10^-1</f>
-        <v>0.1</v>
-      </c>
-      <c r="O34">
-        <f>10^3</f>
-        <v>1000</v>
       </c>
       <c r="P34">
         <v>10</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="R34">
-        <v>8.5400000000000004E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="S34">
-        <v>3.6488256520773101E-4</v>
-      </c>
-      <c r="T34" s="5">
-        <v>1.1395576042057601E-5</v>
+        <v>0.20652340258472601</v>
+      </c>
+      <c r="T34">
+        <v>1.17437068936225E-2</v>
       </c>
       <c r="U34">
-        <v>534.41186237189197</v>
+        <v>21.53360747208</v>
       </c>
       <c r="V34">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="W34">
-        <v>5.3377586213430801</v>
+        <v>16.968321863245102</v>
       </c>
       <c r="X34">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>3</v>
+      <c r="A35" s="24">
+        <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
@@ -8074,10 +12310,10 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>1001</v>
+        <v>201</v>
       </c>
       <c r="E35">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="F35">
         <f>10^-4</f>
@@ -8107,7 +12343,7 @@
         <v>10</v>
       </c>
       <c r="M35">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N35">
         <f>10^-1</f>
@@ -8121,36 +12357,2676 @@
         <v>10</v>
       </c>
       <c r="Q35">
+        <v>100</v>
+      </c>
+      <c r="R35">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="S35">
+        <v>3.6488256520773101E-4</v>
+      </c>
+      <c r="T35" s="5">
+        <v>1.1395576042057601E-5</v>
+      </c>
+      <c r="U35">
+        <v>534.41186237189197</v>
+      </c>
+      <c r="V35">
+        <v>16</v>
+      </c>
+      <c r="W35">
+        <v>5.3377586213430801</v>
+      </c>
+      <c r="X35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="51">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>1001</v>
+      </c>
+      <c r="E36">
+        <v>251</v>
+      </c>
+      <c r="F36">
+        <f>10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="G36">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f>10^-5</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I36">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="J36">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
         <v>200</v>
       </c>
-      <c r="R35">
+      <c r="N36">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="O36">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="P36">
+        <v>10</v>
+      </c>
+      <c r="Q36">
+        <v>200</v>
+      </c>
+      <c r="R36">
         <v>0.1125</v>
       </c>
-      <c r="S35">
+      <c r="S36">
         <v>1.03347623075461E-4</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T36" s="5">
         <v>1.5415805242432599E-5</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <v>14.519110660781701</v>
       </c>
-      <c r="V35">
+      <c r="V36">
         <v>93</v>
       </c>
-      <c r="W35">
+      <c r="W36">
         <v>6.1054043480560001</v>
       </c>
-      <c r="X35">
+      <c r="X36">
         <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B37" s="19"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A73" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73">
+        <f>AVERAGE(LOG10(D7),LOG10(D11),LOG10(D15),LOG10(D19),LOG10(D23))</f>
+        <v>-1.9201131004463989</v>
+      </c>
+      <c r="E73">
+        <f>AVERAGE(LOG10(E7),LOG10(E11),LOG10(E15),LOG10(E19),LOG10(E23))</f>
+        <v>-2.6190646036644063</v>
+      </c>
+      <c r="F73">
+        <f>AVERAGE(LOG10(F7),LOG10(F11),LOG10(F15),LOG10(F19),LOG10(F23))</f>
+        <v>-2.7144888546083386</v>
+      </c>
+      <c r="G73">
+        <f>AVERAGE(LOG10(G7),LOG10(G11),LOG10(G15),LOG10(G19),LOG10(G23))</f>
+        <v>-2.7328429292794678</v>
+      </c>
+      <c r="H73">
+        <f>AVERAGE(LOG10(H7),LOG10(H11),LOG10(H15),LOG10(H19),LOG10(H23))</f>
+        <v>-2.7511970039505966</v>
+      </c>
+      <c r="I73">
+        <f>AVERAGE(LOG10(I7),LOG10(I11),LOG10(I15),LOG10(I19),LOG10(I23))</f>
+        <v>-1.659667707442734</v>
+      </c>
+      <c r="J73">
+        <f>AVERAGE(LOG10(J7),LOG10(J11),LOG10(J15),LOG10(J19),LOG10(J23))</f>
+        <v>-2.1240131853187885</v>
+      </c>
+      <c r="K73">
+        <f>AVERAGE(LOG10(K7),LOG10(K11),LOG10(K15),LOG10(K19),LOG10(K23))</f>
+        <v>-2.3962915662723887</v>
+      </c>
+      <c r="L73">
+        <f>AVERAGE(LOG10(L7),LOG10(L11),LOG10(L15),LOG10(L19),LOG10(L23))</f>
+        <v>-2.6840209059641102</v>
+      </c>
+      <c r="M73">
+        <f>AVERAGE(LOG10(M7),LOG10(M11),LOG10(M15),LOG10(M19),LOG10(M23))</f>
+        <v>-2.7561440430937552</v>
+      </c>
+      <c r="N73">
+        <f>AVERAGE(LOG10(N7),LOG10(N11),LOG10(N15),LOG10(N19),LOG10(N23))</f>
+        <v>-0.23330709394982091</v>
+      </c>
+      <c r="O73">
+        <f>AVERAGE(LOG10(O7),LOG10(O11),LOG10(O15),LOG10(O19),LOG10(O23))</f>
+        <v>-0.47274542374502476</v>
+      </c>
+      <c r="P73">
+        <f>AVERAGE(LOG10(P7),LOG10(P11),LOG10(P15),LOG10(P19),LOG10(P23))</f>
+        <v>-0.52697591755505191</v>
+      </c>
+      <c r="Q73">
+        <f>AVERAGE(LOG10(Q7),LOG10(Q11),LOG10(Q15),LOG10(Q19),LOG10(Q23))</f>
+        <v>-0.52981007690654081</v>
+      </c>
+      <c r="R73">
+        <f>AVERAGE(LOG10(R7),LOG10(R11),LOG10(R15),LOG10(R19),LOG10(R23))</f>
+        <v>-0.52981007690654081</v>
+      </c>
+      <c r="S73">
+        <f>AVERAGE(LOG10(S7),LOG10(S11),LOG10(S15),LOG10(S19),LOG10(S23))</f>
+        <v>-0.36744724309121074</v>
+      </c>
+      <c r="T73">
+        <f>AVERAGE(LOG10(T7),LOG10(T11),LOG10(T15),LOG10(T19),LOG10(T23))</f>
+        <v>-0.46467088135189549</v>
+      </c>
+      <c r="U73">
+        <f>AVERAGE(LOG10(U7),LOG10(U11),LOG10(U15),LOG10(U19),LOG10(U23))</f>
+        <v>-0.47271310296586411</v>
+      </c>
+      <c r="V73">
+        <f>AVERAGE(LOG10(V7),LOG10(V11),LOG10(V15),LOG10(V19),LOG10(V23))</f>
+        <v>-0.48000826563375465</v>
+      </c>
+      <c r="W73">
+        <f>AVERAGE(LOG10(W7),LOG10(W11),LOG10(W15),LOG10(W19),LOG10(W23))</f>
+        <v>-0.48000826563375465</v>
+      </c>
+      <c r="X73">
+        <f>AVERAGE(LOG10(X7),LOG10(X11),LOG10(X15),LOG10(X19),LOG10(X23))</f>
+        <v>-0.48313245177942771</v>
+      </c>
+      <c r="Y73">
+        <f>AVERAGE(LOG10(Y7),LOG10(Y11),LOG10(Y15),LOG10(Y19),LOG10(Y23))</f>
+        <v>-0.49424538008746594</v>
+      </c>
+      <c r="Z73">
+        <f>AVERAGE(LOG10(Z7),LOG10(Z11),LOG10(Z15),LOG10(Z19),LOG10(Z23))</f>
+        <v>-0.49670613662692453</v>
+      </c>
+      <c r="AA73">
+        <f>AVERAGE(LOG10(AA7),LOG10(AA11),LOG10(AA15),LOG10(AA19),LOG10(AA23))</f>
+        <v>-0.50748660203180962</v>
+      </c>
+      <c r="AB73">
+        <f>AVERAGE(LOG10(AB7),LOG10(AB11),LOG10(AB15),LOG10(AB19),LOG10(AB23))</f>
+        <v>-0.51486675975165608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A74" s="52"/>
+      <c r="B74" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <f>AVERAGE(LOG10(D8),LOG10(D12),LOG10(D16),LOG10(D20),LOG10(D24))</f>
+        <v>-1.2710225142445299</v>
+      </c>
+      <c r="E74">
+        <f>AVERAGE(LOG10(E8),LOG10(E12),LOG10(E16),LOG10(E20),LOG10(E24))</f>
+        <v>-1.6226019619567555</v>
+      </c>
+      <c r="F74">
+        <f>AVERAGE(LOG10(F8),LOG10(F12),LOG10(F16),LOG10(F20),LOG10(F24))</f>
+        <v>-2.2314941850141752</v>
+      </c>
+      <c r="G74">
+        <f>AVERAGE(LOG10(G8),LOG10(G12),LOG10(G16),LOG10(G20),LOG10(G24))</f>
+        <v>-2.2314941850141752</v>
+      </c>
+      <c r="H74">
+        <f>AVERAGE(LOG10(H8),LOG10(H12),LOG10(H16),LOG10(H20),LOG10(H24))</f>
+        <v>-2.4733461094758424</v>
+      </c>
+      <c r="I74">
+        <f>AVERAGE(LOG10(I8),LOG10(I12),LOG10(I16),LOG10(I20),LOG10(I24))</f>
+        <v>-2.2089260620171691</v>
+      </c>
+      <c r="J74">
+        <f>AVERAGE(LOG10(J8),LOG10(J12),LOG10(J16),LOG10(J20),LOG10(J24))</f>
+        <v>-2.4920189327482829</v>
+      </c>
+      <c r="K74">
+        <f>AVERAGE(LOG10(K8),LOG10(K12),LOG10(K16),LOG10(K20),LOG10(K24))</f>
+        <v>-2.6491214027542855</v>
+      </c>
+      <c r="L74">
+        <f>AVERAGE(LOG10(L8),LOG10(L12),LOG10(L16),LOG10(L20),LOG10(L24))</f>
+        <v>-2.6491214027542855</v>
+      </c>
+      <c r="M74">
+        <f>AVERAGE(LOG10(M8),LOG10(M12),LOG10(M16),LOG10(M20),LOG10(M24))</f>
+        <v>-2.6491214027542855</v>
+      </c>
+      <c r="N74">
+        <f>AVERAGE(LOG10(N8),LOG10(N12),LOG10(N16),LOG10(N20),LOG10(N24))</f>
+        <v>-0.49980352180575743</v>
+      </c>
+      <c r="O74">
+        <f>AVERAGE(LOG10(O8),LOG10(O12),LOG10(O16),LOG10(O20),LOG10(O24))</f>
+        <v>-0.52805555287852834</v>
+      </c>
+      <c r="P74">
+        <f>AVERAGE(LOG10(P8),LOG10(P12),LOG10(P16),LOG10(P20),LOG10(P24))</f>
+        <v>-0.58165968154654057</v>
+      </c>
+      <c r="Q74">
+        <f>AVERAGE(LOG10(Q8),LOG10(Q12),LOG10(Q16),LOG10(Q20),LOG10(Q24))</f>
+        <v>-0.58165968154654057</v>
+      </c>
+      <c r="R74">
+        <f>AVERAGE(LOG10(R8),LOG10(R12),LOG10(R16),LOG10(R20),LOG10(R24))</f>
+        <v>-0.58165968154654057</v>
+      </c>
+      <c r="S74">
+        <f>AVERAGE(LOG10(S8),LOG10(S12),LOG10(S16),LOG10(S20),LOG10(S24))</f>
+        <v>-0.42807523972669193</v>
+      </c>
+      <c r="T74">
+        <f>AVERAGE(LOG10(T8),LOG10(T12),LOG10(T16),LOG10(T20),LOG10(T24))</f>
+        <v>-0.462561386616402</v>
+      </c>
+      <c r="U74">
+        <f>AVERAGE(LOG10(U8),LOG10(U12),LOG10(U16),LOG10(U20),LOG10(U24))</f>
+        <v>-0.46632894983550577</v>
+      </c>
+      <c r="V74">
+        <f>AVERAGE(LOG10(V8),LOG10(V12),LOG10(V16),LOG10(V20),LOG10(V24))</f>
+        <v>-0.47241669707961415</v>
+      </c>
+      <c r="W74">
+        <f>AVERAGE(LOG10(W8),LOG10(W12),LOG10(W16),LOG10(W20),LOG10(W24))</f>
+        <v>-0.47241669707961415</v>
+      </c>
+      <c r="X74">
+        <f>AVERAGE(LOG10(X8),LOG10(X12),LOG10(X16),LOG10(X20),LOG10(X24))</f>
+        <v>-0.47758813580285053</v>
+      </c>
+      <c r="Y74">
+        <f>AVERAGE(LOG10(Y8),LOG10(Y12),LOG10(Y16),LOG10(Y20),LOG10(Y24))</f>
+        <v>-0.4827509708828111</v>
+      </c>
+      <c r="Z74">
+        <f>AVERAGE(LOG10(Z8),LOG10(Z12),LOG10(Z16),LOG10(Z20),LOG10(Z24))</f>
+        <v>-0.4827509708828111</v>
+      </c>
+      <c r="AA74">
+        <f>AVERAGE(LOG10(AA8),LOG10(AA12),LOG10(AA16),LOG10(AA20),LOG10(AA24))</f>
+        <v>-0.48859825929673795</v>
+      </c>
+      <c r="AB74">
+        <f>AVERAGE(LOG10(AB8),LOG10(AB12),LOG10(AB16),LOG10(AB20),LOG10(AB24))</f>
+        <v>-0.49432436407805624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A75" s="52"/>
+      <c r="B75" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <f>AVERAGE(LOG10(D9),LOG10(D13),LOG10(D17),LOG10(D21),LOG10(D25))</f>
+        <v>-1.2710225142445299</v>
+      </c>
+      <c r="E75">
+        <f>AVERAGE(LOG10(E9),LOG10(E13),LOG10(E17),LOG10(E21),LOG10(E25))</f>
+        <v>-2.2998037199850039</v>
+      </c>
+      <c r="F75">
+        <f>AVERAGE(LOG10(F9),LOG10(F13),LOG10(F17),LOG10(F21),LOG10(F25))</f>
+        <v>-2.3438191161019644</v>
+      </c>
+      <c r="G75">
+        <f>AVERAGE(LOG10(G9),LOG10(G13),LOG10(G17),LOG10(G21),LOG10(G25))</f>
+        <v>-2.7192391577752462</v>
+      </c>
+      <c r="H75">
+        <f>AVERAGE(LOG10(H9),LOG10(H13),LOG10(H17),LOG10(H21),LOG10(H25))</f>
+        <v>-2.7377899684226259</v>
+      </c>
+      <c r="I75">
+        <f>AVERAGE(LOG10(I9),LOG10(I13),LOG10(I17),LOG10(I21),LOG10(I25))</f>
+        <v>-2.2089260620171691</v>
+      </c>
+      <c r="J75">
+        <f>AVERAGE(LOG10(J9),LOG10(J13),LOG10(J17),LOG10(J21),LOG10(J25))</f>
+        <v>-2.4377197493349989</v>
+      </c>
+      <c r="K75">
+        <f>AVERAGE(LOG10(K9),LOG10(K13),LOG10(K17),LOG10(K21),LOG10(K25))</f>
+        <v>-2.6961347799372097</v>
+      </c>
+      <c r="L75">
+        <f>AVERAGE(LOG10(L9),LOG10(L13),LOG10(L17),LOG10(L21),LOG10(L25))</f>
+        <v>-2.6961347799372097</v>
+      </c>
+      <c r="M75">
+        <f>AVERAGE(LOG10(M9),LOG10(M13),LOG10(M17),LOG10(M21),LOG10(M25))</f>
+        <v>-2.7144888546083386</v>
+      </c>
+      <c r="N75">
+        <f>AVERAGE(LOG10(N9),LOG10(N13),LOG10(N17),LOG10(N21),LOG10(N25))</f>
+        <v>-0.49995029607717389</v>
+      </c>
+      <c r="O75">
+        <f>AVERAGE(LOG10(O9),LOG10(O13),LOG10(O17),LOG10(O21),LOG10(O25))</f>
+        <v>-0.54632403472650204</v>
+      </c>
+      <c r="P75">
+        <f>AVERAGE(LOG10(P9),LOG10(P13),LOG10(P17),LOG10(P21),LOG10(P25))</f>
+        <v>-0.59255043033245047</v>
+      </c>
+      <c r="Q75">
+        <f>AVERAGE(LOG10(Q9),LOG10(Q13),LOG10(Q17),LOG10(Q21),LOG10(Q25))</f>
+        <v>-0.62068362217938988</v>
+      </c>
+      <c r="R75">
+        <f>AVERAGE(LOG10(R9),LOG10(R13),LOG10(R17),LOG10(R21),LOG10(R25))</f>
+        <v>-0.63602497632835708</v>
+      </c>
+      <c r="S75">
+        <f>AVERAGE(LOG10(S9),LOG10(S13),LOG10(S17),LOG10(S21),LOG10(S25))</f>
+        <v>-0.42807523972669193</v>
+      </c>
+      <c r="T75">
+        <f>AVERAGE(LOG10(T9),LOG10(T13),LOG10(T17),LOG10(T21),LOG10(T25))</f>
+        <v>-0.47589036139732244</v>
+      </c>
+      <c r="U75">
+        <f>AVERAGE(LOG10(U9),LOG10(U13),LOG10(U17),LOG10(U21),LOG10(U25))</f>
+        <v>-0.48927971932344505</v>
+      </c>
+      <c r="V75">
+        <f>AVERAGE(LOG10(V9),LOG10(V13),LOG10(V17),LOG10(V21),LOG10(V25))</f>
+        <v>-0.49955385210636222</v>
+      </c>
+      <c r="W75">
+        <f>AVERAGE(LOG10(W9),LOG10(W13),LOG10(W17),LOG10(W21),LOG10(W25))</f>
+        <v>-0.50838315470357198</v>
+      </c>
+      <c r="X75">
+        <f>AVERAGE(LOG10(X9),LOG10(X13),LOG10(X17),LOG10(X21),LOG10(X25))</f>
+        <v>-0.50838315470357198</v>
+      </c>
+      <c r="Y75">
+        <f>AVERAGE(LOG10(Y9),LOG10(Y13),LOG10(Y17),LOG10(Y21),LOG10(Y25))</f>
+        <v>-0.51142601393388154</v>
+      </c>
+      <c r="Z75">
+        <f>AVERAGE(LOG10(Z9),LOG10(Z13),LOG10(Z17),LOG10(Z21),LOG10(Z25))</f>
+        <v>-0.51142601393388154</v>
+      </c>
+      <c r="AA75">
+        <f>AVERAGE(LOG10(AA9),LOG10(AA13),LOG10(AA17),LOG10(AA21),LOG10(AA25))</f>
+        <v>-0.51142601393388154</v>
+      </c>
+      <c r="AB75">
+        <f>AVERAGE(LOG10(AB9),LOG10(AB13),LOG10(AB17),LOG10(AB21),LOG10(AB25))</f>
+        <v>-0.51142601393388154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A76" s="52"/>
+      <c r="B76" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <f>AVERAGE(LOG10(D10),LOG10(D14),LOG10(D18),LOG10(D22),LOG10(D26))</f>
+        <v>-1.804201588789714</v>
+      </c>
+      <c r="E76">
+        <f>AVERAGE(LOG10(E10),LOG10(E14),LOG10(E18),LOG10(E22),LOG10(E26))</f>
+        <v>-2.3346345239577571</v>
+      </c>
+      <c r="F76">
+        <f>AVERAGE(LOG10(F10),LOG10(F14),LOG10(F18),LOG10(F22),LOG10(F26))</f>
+        <v>-2.5630538968875634</v>
+      </c>
+      <c r="G76">
+        <f>AVERAGE(LOG10(G10),LOG10(G14),LOG10(G18),LOG10(G22),LOG10(G26))</f>
+        <v>-2.5630538968875634</v>
+      </c>
+      <c r="H76">
+        <f>AVERAGE(LOG10(H10),LOG10(H14),LOG10(H18),LOG10(H22),LOG10(H26))</f>
+        <v>-2.5913622949048913</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(LOG10(I10),LOG10(I14),LOG10(I18),LOG10(I22),LOG10(I26))</f>
+        <v>-1.9319589293521946</v>
+      </c>
+      <c r="J76">
+        <f>AVERAGE(LOG10(J10),LOG10(J14),LOG10(J18),LOG10(J22),LOG10(J26))</f>
+        <v>-2.7142921186320881</v>
+      </c>
+      <c r="K76">
+        <f>AVERAGE(LOG10(K10),LOG10(K14),LOG10(K18),LOG10(K22),LOG10(K26))</f>
+        <v>-2.7511970039505966</v>
+      </c>
+      <c r="L76">
+        <f>AVERAGE(LOG10(L10),LOG10(L14),LOG10(L18),LOG10(L22),LOG10(L26))</f>
+        <v>-2.7511970039505966</v>
+      </c>
+      <c r="M76">
+        <f>AVERAGE(LOG10(M10),LOG10(M14),LOG10(M18),LOG10(M22),LOG10(M26))</f>
+        <v>-2.7511970039505966</v>
+      </c>
+      <c r="N76">
+        <f>AVERAGE(LOG10(N10),LOG10(N14),LOG10(N18),LOG10(N22),LOG10(N26))</f>
+        <v>-0.23188493025555013</v>
+      </c>
+      <c r="O76">
+        <f>AVERAGE(LOG10(O10),LOG10(O14),LOG10(O18),LOG10(O22),LOG10(O26))</f>
+        <v>-0.35634480714580419</v>
+      </c>
+      <c r="P76">
+        <f>AVERAGE(LOG10(P10),LOG10(P14),LOG10(P18),LOG10(P22),LOG10(P26))</f>
+        <v>-0.41145693338258643</v>
+      </c>
+      <c r="Q76">
+        <f>AVERAGE(LOG10(Q10),LOG10(Q14),LOG10(Q18),LOG10(Q22),LOG10(Q26))</f>
+        <v>-0.42889129158511619</v>
+      </c>
+      <c r="R76">
+        <f>AVERAGE(LOG10(R10),LOG10(R14),LOG10(R18),LOG10(R22),LOG10(R26))</f>
+        <v>-0.43034059927114637</v>
+      </c>
+      <c r="S76">
+        <f>AVERAGE(LOG10(S10),LOG10(S14),LOG10(S18),LOG10(S22),LOG10(S26))</f>
+        <v>-0.48687862422733852</v>
+      </c>
+      <c r="T76">
+        <f>AVERAGE(LOG10(T10),LOG10(T14),LOG10(T18),LOG10(T22),LOG10(T26))</f>
+        <v>-0.52812731554145109</v>
+      </c>
+      <c r="U76">
+        <f>AVERAGE(LOG10(U10),LOG10(U14),LOG10(U18),LOG10(U22),LOG10(U26))</f>
+        <v>-0.54232454873933045</v>
+      </c>
+      <c r="V76">
+        <f>AVERAGE(LOG10(V10),LOG10(V14),LOG10(V18),LOG10(V22),LOG10(V26))</f>
+        <v>-0.59944769243643148</v>
+      </c>
+      <c r="W76">
+        <f>AVERAGE(LOG10(W10),LOG10(W14),LOG10(W18),LOG10(W22),LOG10(W26))</f>
+        <v>-0.64506078497543329</v>
+      </c>
+      <c r="X76">
+        <f>AVERAGE(LOG10(X10),LOG10(X14),LOG10(X18),LOG10(X22),LOG10(X26))</f>
+        <v>-0.64506078497543329</v>
+      </c>
+      <c r="Y76">
+        <f>AVERAGE(LOG10(Y10),LOG10(Y14),LOG10(Y18),LOG10(Y22),LOG10(Y26))</f>
+        <v>-0.64506078497543329</v>
+      </c>
+      <c r="Z76">
+        <f>AVERAGE(LOG10(Z10),LOG10(Z14),LOG10(Z18),LOG10(Z22),LOG10(Z26))</f>
+        <v>-0.64506078497543329</v>
+      </c>
+      <c r="AA76">
+        <f>AVERAGE(LOG10(AA10),LOG10(AA14),LOG10(AA18),LOG10(AA22),LOG10(AA26))</f>
+        <v>-0.64506078497543329</v>
+      </c>
+      <c r="AB76">
+        <f>AVERAGE(LOG10(AB10),LOG10(AB14),LOG10(AB18),LOG10(AB22),LOG10(AB26))</f>
+        <v>-0.64506078497543329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A78" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78">
+        <f>AVEDEV(LOG10(D7),LOG10(D11),LOG10(D15),LOG10(D19),LOG10(D23))</f>
+        <v>0.78527955779502345</v>
+      </c>
+      <c r="E78">
+        <f>AVEDEV(LOG10(E7),LOG10(E11),LOG10(E15),LOG10(E19),LOG10(E23))</f>
+        <v>0.13065391190493719</v>
+      </c>
+      <c r="F78">
+        <f>AVEDEV(LOG10(F7),LOG10(F11),LOG10(F15),LOG10(F19),LOG10(F23))</f>
+        <v>4.4049779210709517E-2</v>
+      </c>
+      <c r="G78">
+        <f>AVEDEV(LOG10(G7),LOG10(G11),LOG10(G15),LOG10(G19),LOG10(G23))</f>
+        <v>4.4049779210709607E-2</v>
+      </c>
+      <c r="H78">
+        <f>AVEDEV(LOG10(H7),LOG10(H11),LOG10(H15),LOG10(H19),LOG10(H23))</f>
+        <v>2.936651947380655E-2</v>
+      </c>
+      <c r="I78">
+        <f>AVEDEV(LOG10(I7),LOG10(I11),LOG10(I15),LOG10(I19),LOG10(I23))</f>
+        <v>0.64708270041200866</v>
+      </c>
+      <c r="J78">
+        <f>AVEDEV(LOG10(J7),LOG10(J11),LOG10(J15),LOG10(J19),LOG10(J23))</f>
+        <v>0.44068983296550063</v>
+      </c>
+      <c r="K78">
+        <f>AVEDEV(LOG10(K7),LOG10(K11),LOG10(K15),LOG10(K19),LOG10(K23))</f>
+        <v>0.35477977235236491</v>
+      </c>
+      <c r="L78">
+        <f>AVEDEV(LOG10(L7),LOG10(L11),LOG10(L15),LOG10(L19),LOG10(L23))</f>
+        <v>0.11502636575466729</v>
+      </c>
+      <c r="M78">
+        <f>AVEDEV(LOG10(M7),LOG10(M11),LOG10(M15),LOG10(M19),LOG10(M23))</f>
+        <v>6.2690670262139564E-2</v>
+      </c>
+      <c r="N78">
+        <f>AVEDEV(LOG10(N7),LOG10(N11),LOG10(N15),LOG10(N19),LOG10(N23))</f>
+        <v>4.0018205905560891E-2</v>
+      </c>
+      <c r="O78">
+        <f>AVEDEV(LOG10(O7),LOG10(O11),LOG10(O15),LOG10(O19),LOG10(O23))</f>
+        <v>0.21458875378073489</v>
+      </c>
+      <c r="P78">
+        <f>AVEDEV(LOG10(P7),LOG10(P11),LOG10(P15),LOG10(P19),LOG10(P23))</f>
+        <v>0.19289655625672414</v>
+      </c>
+      <c r="Q78">
+        <f>AVEDEV(LOG10(Q7),LOG10(Q11),LOG10(Q15),LOG10(Q19),LOG10(Q23))</f>
+        <v>0.1942650438998666</v>
+      </c>
+      <c r="R78">
+        <f>AVEDEV(LOG10(R7),LOG10(R11),LOG10(R15),LOG10(R19),LOG10(R23))</f>
+        <v>0.1942650438998666</v>
+      </c>
+      <c r="S78">
+        <f>AVEDEV(LOG10(S7),LOG10(S11),LOG10(S15),LOG10(S19),LOG10(S23))</f>
+        <v>8.013389759902502E-2</v>
+      </c>
+      <c r="T78">
+        <f>AVEDEV(LOG10(T7),LOG10(T11),LOG10(T15),LOG10(T19),LOG10(T23))</f>
+        <v>2.6777942911945952E-2</v>
+      </c>
+      <c r="U78">
+        <f>AVEDEV(LOG10(U7),LOG10(U11),LOG10(U15),LOG10(U19),LOG10(U23))</f>
+        <v>3.3211720203120798E-2</v>
+      </c>
+      <c r="V78">
+        <f>AVEDEV(LOG10(V7),LOG10(V11),LOG10(V15),LOG10(V19),LOG10(V23))</f>
+        <v>2.6603185508140358E-2</v>
+      </c>
+      <c r="W78">
+        <f>AVEDEV(LOG10(W7),LOG10(W11),LOG10(W15),LOG10(W19),LOG10(W23))</f>
+        <v>2.6603185508140358E-2</v>
+      </c>
+      <c r="X78">
+        <f>AVEDEV(LOG10(X7),LOG10(X11),LOG10(X15),LOG10(X19),LOG10(X23))</f>
+        <v>2.6956873918190571E-2</v>
+      </c>
+      <c r="Y78">
+        <f>AVEDEV(LOG10(Y7),LOG10(Y11),LOG10(Y15),LOG10(Y19),LOG10(Y23))</f>
+        <v>1.6799348353375421E-2</v>
+      </c>
+      <c r="Z78">
+        <f>AVEDEV(LOG10(Z7),LOG10(Z11),LOG10(Z15),LOG10(Z19),LOG10(Z23))</f>
+        <v>1.781958711667634E-2</v>
+      </c>
+      <c r="AA78">
+        <f>AVEDEV(LOG10(AA7),LOG10(AA11),LOG10(AA15),LOG10(AA19),LOG10(AA23))</f>
+        <v>2.7767301607670526E-2</v>
+      </c>
+      <c r="AB78">
+        <f>AVEDEV(LOG10(AB7),LOG10(AB11),LOG10(AB15),LOG10(AB19),LOG10(AB23))</f>
+        <v>2.6771953707766961E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A79" s="52"/>
+      <c r="B79" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79">
+        <f>AVEDEV(LOG10(D8),LOG10(D12),LOG10(D16),LOG10(D20),LOG10(D24))</f>
+        <v>0.34957979320616911</v>
+      </c>
+      <c r="E79">
+        <f>AVEDEV(LOG10(E8),LOG10(E12),LOG10(E16),LOG10(E20),LOG10(E24))</f>
+        <v>0.43798196846695719</v>
+      </c>
+      <c r="F79">
+        <f>AVEDEV(LOG10(F8),LOG10(F12),LOG10(F16),LOG10(F20),LOG10(F24))</f>
+        <v>0.53554382430228675</v>
+      </c>
+      <c r="G79">
+        <f>AVEDEV(LOG10(G8),LOG10(G12),LOG10(G16),LOG10(G20),LOG10(G24))</f>
+        <v>0.53554382430228675</v>
+      </c>
+      <c r="H79">
+        <f>AVEDEV(LOG10(H8),LOG10(H12),LOG10(H16),LOG10(H20),LOG10(H24))</f>
+        <v>0.32709535326438144</v>
+      </c>
+      <c r="I79">
+        <f>AVEDEV(LOG10(I8),LOG10(I12),LOG10(I16),LOG10(I20),LOG10(I24))</f>
+        <v>0.47892172297535984</v>
+      </c>
+      <c r="J79">
+        <f>AVEDEV(LOG10(J8),LOG10(J12),LOG10(J16),LOG10(J20),LOG10(J24))</f>
+        <v>0.14860941801423816</v>
+      </c>
+      <c r="K79">
+        <f>AVEDEV(LOG10(K8),LOG10(K12),LOG10(K16),LOG10(K20),LOG10(K24))</f>
+        <v>0.26489225410282496</v>
+      </c>
+      <c r="L79">
+        <f>AVEDEV(LOG10(L8),LOG10(L12),LOG10(L16),LOG10(L20),LOG10(L24))</f>
+        <v>0.26489225410282496</v>
+      </c>
+      <c r="M79">
+        <f>AVEDEV(LOG10(M8),LOG10(M12),LOG10(M16),LOG10(M20),LOG10(M24))</f>
+        <v>0.26489225410282496</v>
+      </c>
+      <c r="N79">
+        <f>AVEDEV(LOG10(N8),LOG10(N12),LOG10(N16),LOG10(N20),LOG10(N24))</f>
+        <v>0.24661093774658965</v>
+      </c>
+      <c r="O79">
+        <f>AVEDEV(LOG10(O8),LOG10(O12),LOG10(O16),LOG10(O20),LOG10(O24))</f>
+        <v>0.22400931288837289</v>
+      </c>
+      <c r="P79">
+        <f>AVEDEV(LOG10(P8),LOG10(P12),LOG10(P16),LOG10(P20),LOG10(P24))</f>
+        <v>0.18831602799537125</v>
+      </c>
+      <c r="Q79">
+        <f>AVEDEV(LOG10(Q8),LOG10(Q12),LOG10(Q16),LOG10(Q20),LOG10(Q24))</f>
+        <v>0.18831602799537125</v>
+      </c>
+      <c r="R79">
+        <f>AVEDEV(LOG10(R8),LOG10(R12),LOG10(R16),LOG10(R20),LOG10(R24))</f>
+        <v>0.18831602799537125</v>
+      </c>
+      <c r="S79">
+        <f>AVEDEV(LOG10(S8),LOG10(S12),LOG10(S16),LOG10(S20),LOG10(S24))</f>
+        <v>4.5437118370297125E-2</v>
+      </c>
+      <c r="T79">
+        <f>AVEDEV(LOG10(T8),LOG10(T12),LOG10(T16),LOG10(T20),LOG10(T24))</f>
+        <v>4.9080721517453588E-2</v>
+      </c>
+      <c r="U79">
+        <f>AVEDEV(LOG10(U8),LOG10(U12),LOG10(U16),LOG10(U20),LOG10(U24))</f>
+        <v>4.6066670942170596E-2</v>
+      </c>
+      <c r="V79">
+        <f>AVEDEV(LOG10(V8),LOG10(V12),LOG10(V16),LOG10(V20),LOG10(V24))</f>
+        <v>4.2367509371927362E-2</v>
+      </c>
+      <c r="W79">
+        <f>AVEDEV(LOG10(W8),LOG10(W12),LOG10(W16),LOG10(W20),LOG10(W24))</f>
+        <v>4.2367509371927362E-2</v>
+      </c>
+      <c r="X79">
+        <f>AVEDEV(LOG10(X8),LOG10(X12),LOG10(X16),LOG10(X20),LOG10(X24))</f>
+        <v>3.7059322168294814E-2</v>
+      </c>
+      <c r="Y79">
+        <f>AVEDEV(LOG10(Y8),LOG10(Y12),LOG10(Y16),LOG10(Y20),LOG10(Y24))</f>
+        <v>3.2929054104326339E-2</v>
+      </c>
+      <c r="Z79">
+        <f>AVEDEV(LOG10(Z8),LOG10(Z12),LOG10(Z16),LOG10(Z20),LOG10(Z24))</f>
+        <v>3.2929054104326339E-2</v>
+      </c>
+      <c r="AA79">
+        <f>AVEDEV(LOG10(AA8),LOG10(AA12),LOG10(AA16),LOG10(AA20),LOG10(AA24))</f>
+        <v>2.8251223373184853E-2</v>
+      </c>
+      <c r="AB79">
+        <f>AVEDEV(LOG10(AB8),LOG10(AB12),LOG10(AB16),LOG10(AB20),LOG10(AB24))</f>
+        <v>2.3670339548130293E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A80" s="52"/>
+      <c r="B80" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80">
+        <f>AVEDEV(LOG10(D9),LOG10(D13),LOG10(D17),LOG10(D21),LOG10(D25))</f>
+        <v>0.34957979320616911</v>
+      </c>
+      <c r="E80">
+        <f>AVEDEV(LOG10(E9),LOG10(E13),LOG10(E17),LOG10(E21),LOG10(E25))</f>
+        <v>0.60436970449722149</v>
+      </c>
+      <c r="F80">
+        <f>AVEDEV(LOG10(F9),LOG10(F13),LOG10(F17),LOG10(F21),LOG10(F25))</f>
+        <v>0.58054729833866003</v>
+      </c>
+      <c r="G80">
+        <f>AVEDEV(LOG10(G9),LOG10(G13),LOG10(G17),LOG10(G21),LOG10(G25))</f>
+        <v>8.6851764305758208E-2</v>
+      </c>
+      <c r="H80">
+        <f>AVEDEV(LOG10(H9),LOG10(H13),LOG10(H17),LOG10(H21),LOG10(H25))</f>
+        <v>7.2011115787854421E-2</v>
+      </c>
+      <c r="I80">
+        <f>AVEDEV(LOG10(I9),LOG10(I13),LOG10(I17),LOG10(I21),LOG10(I25))</f>
+        <v>0.47892172297535984</v>
+      </c>
+      <c r="J80">
+        <f>AVEDEV(LOG10(J9),LOG10(J13),LOG10(J17),LOG10(J21),LOG10(J25))</f>
+        <v>0.22611236312300101</v>
+      </c>
+      <c r="K80">
+        <f>AVEDEV(LOG10(K9),LOG10(K13),LOG10(K17),LOG10(K21),LOG10(K25))</f>
+        <v>2.9366519473806287E-2</v>
+      </c>
+      <c r="L80">
+        <f>AVEDEV(LOG10(L9),LOG10(L13),LOG10(L17),LOG10(L21),LOG10(L25))</f>
+        <v>2.9366519473806287E-2</v>
+      </c>
+      <c r="M80">
+        <f>AVEDEV(LOG10(M9),LOG10(M13),LOG10(M17),LOG10(M21),LOG10(M25))</f>
+        <v>4.4049779210709517E-2</v>
+      </c>
+      <c r="N80">
+        <f>AVEDEV(LOG10(N9),LOG10(N13),LOG10(N17),LOG10(N21),LOG10(N25))</f>
+        <v>0.24649351832945648</v>
+      </c>
+      <c r="O80">
+        <f>AVEDEV(LOG10(O9),LOG10(O13),LOG10(O17),LOG10(O21),LOG10(O25))</f>
+        <v>0.23960910451427703</v>
+      </c>
+      <c r="P80">
+        <f>AVEDEV(LOG10(P9),LOG10(P13),LOG10(P17),LOG10(P21),LOG10(P25))</f>
+        <v>0.24105434921437477</v>
+      </c>
+      <c r="Q80">
+        <f>AVEDEV(LOG10(Q9),LOG10(Q13),LOG10(Q17),LOG10(Q21),LOG10(Q25))</f>
+        <v>0.26301518263673229</v>
+      </c>
+      <c r="R80">
+        <f>AVEDEV(LOG10(R9),LOG10(R13),LOG10(R17),LOG10(R21),LOG10(R25))</f>
+        <v>0.27693865044010907</v>
+      </c>
+      <c r="S80">
+        <f>AVEDEV(LOG10(S9),LOG10(S13),LOG10(S17),LOG10(S21),LOG10(S25))</f>
+        <v>4.5437118370297125E-2</v>
+      </c>
+      <c r="T80">
+        <f>AVEDEV(LOG10(T9),LOG10(T13),LOG10(T17),LOG10(T21),LOG10(T25))</f>
+        <v>2.3224015596736015E-2</v>
+      </c>
+      <c r="U80">
+        <f>AVEDEV(LOG10(U9),LOG10(U13),LOG10(U17),LOG10(U21),LOG10(U25))</f>
+        <v>2.3536957639668021E-2</v>
+      </c>
+      <c r="V80">
+        <f>AVEDEV(LOG10(V9),LOG10(V13),LOG10(V17),LOG10(V21),LOG10(V25))</f>
+        <v>3.1756263866001666E-2</v>
+      </c>
+      <c r="W80">
+        <f>AVEDEV(LOG10(W9),LOG10(W13),LOG10(W17),LOG10(W21),LOG10(W25))</f>
+        <v>2.1161100749349813E-2</v>
+      </c>
+      <c r="X80">
+        <f>AVEDEV(LOG10(X9),LOG10(X13),LOG10(X17),LOG10(X21),LOG10(X25))</f>
+        <v>2.1161100749349813E-2</v>
+      </c>
+      <c r="Y80">
+        <f>AVEDEV(LOG10(Y9),LOG10(Y13),LOG10(Y17),LOG10(Y21),LOG10(Y25))</f>
+        <v>2.3595388133597441E-2</v>
+      </c>
+      <c r="Z80">
+        <f>AVEDEV(LOG10(Z9),LOG10(Z13),LOG10(Z17),LOG10(Z21),LOG10(Z25))</f>
+        <v>2.3595388133597441E-2</v>
+      </c>
+      <c r="AA80">
+        <f>AVEDEV(LOG10(AA9),LOG10(AA13),LOG10(AA17),LOG10(AA21),LOG10(AA25))</f>
+        <v>2.3595388133597441E-2</v>
+      </c>
+      <c r="AB80">
+        <f>AVEDEV(LOG10(AB9),LOG10(AB13),LOG10(AB17),LOG10(AB21),LOG10(AB25))</f>
+        <v>2.3595388133597441E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A81" s="52"/>
+      <c r="B81" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81">
+        <f>AVEDEV(LOG10(D10),LOG10(D14),LOG10(D18),LOG10(D22),LOG10(D26))</f>
+        <v>0.59562001724263192</v>
+      </c>
+      <c r="E81">
+        <f>AVEDEV(LOG10(E10),LOG10(E14),LOG10(E18),LOG10(E22),LOG10(E26))</f>
+        <v>0.48271631868241982</v>
+      </c>
+      <c r="F81">
+        <f>AVEDEV(LOG10(F10),LOG10(F14),LOG10(F18),LOG10(F22),LOG10(F26))</f>
+        <v>0.30358141971871888</v>
+      </c>
+      <c r="G81">
+        <f>AVEDEV(LOG10(G10),LOG10(G14),LOG10(G18),LOG10(G22),LOG10(G26))</f>
+        <v>0.30358141971871888</v>
+      </c>
+      <c r="H81">
+        <f>AVEDEV(LOG10(H10),LOG10(H14),LOG10(H18),LOG10(H22),LOG10(H26))</f>
+        <v>0.29499613223325194</v>
+      </c>
+      <c r="I81">
+        <f>AVEDEV(LOG10(I10),LOG10(I14),LOG10(I18),LOG10(I22),LOG10(I26))</f>
+        <v>0.85788450980190389</v>
+      </c>
+      <c r="J81">
+        <f>AVEDEV(LOG10(J10),LOG10(J14),LOG10(J18),LOG10(J22),LOG10(J26))</f>
+        <v>6.6310751987565281E-2</v>
+      </c>
+      <c r="K81">
+        <f>AVEDEV(LOG10(K10),LOG10(K14),LOG10(K18),LOG10(K22),LOG10(K26))</f>
+        <v>2.936651947380655E-2</v>
+      </c>
+      <c r="L81">
+        <f>AVEDEV(LOG10(L10),LOG10(L14),LOG10(L18),LOG10(L22),LOG10(L26))</f>
+        <v>2.936651947380655E-2</v>
+      </c>
+      <c r="M81">
+        <f>AVEDEV(LOG10(M10),LOG10(M14),LOG10(M18),LOG10(M22),LOG10(M26))</f>
+        <v>2.936651947380655E-2</v>
+      </c>
+      <c r="N81">
+        <f>AVEDEV(LOG10(N10),LOG10(N14),LOG10(N18),LOG10(N22),LOG10(N26))</f>
+        <v>0.11520203768311692</v>
+      </c>
+      <c r="O81">
+        <f>AVEDEV(LOG10(O10),LOG10(O14),LOG10(O18),LOG10(O22),LOG10(O26))</f>
+        <v>7.663419712421482E-2</v>
+      </c>
+      <c r="P81">
+        <f>AVEDEV(LOG10(P10),LOG10(P14),LOG10(P18),LOG10(P22),LOG10(P26))</f>
+        <v>0.1084162448046859</v>
+      </c>
+      <c r="Q81">
+        <f>AVEDEV(LOG10(Q10),LOG10(Q14),LOG10(Q18),LOG10(Q22),LOG10(Q26))</f>
+        <v>9.0878629442837089E-2</v>
+      </c>
+      <c r="R81">
+        <f>AVEDEV(LOG10(R10),LOG10(R14),LOG10(R18),LOG10(R22),LOG10(R26))</f>
+        <v>8.8559737145188749E-2</v>
+      </c>
+      <c r="S81">
+        <f>AVEDEV(LOG10(S10),LOG10(S14),LOG10(S18),LOG10(S22),LOG10(S26))</f>
+        <v>0.11642434517059644</v>
+      </c>
+      <c r="T81">
+        <f>AVEDEV(LOG10(T10),LOG10(T14),LOG10(T18),LOG10(T22),LOG10(T26))</f>
+        <v>8.6736608445198995E-2</v>
+      </c>
+      <c r="U81">
+        <f>AVEDEV(LOG10(U10),LOG10(U14),LOG10(U18),LOG10(U22),LOG10(U26))</f>
+        <v>8.1057715166047276E-2</v>
+      </c>
+      <c r="V81">
+        <f>AVEDEV(LOG10(V10),LOG10(V14),LOG10(V18),LOG10(V22),LOG10(V26))</f>
+        <v>0.13975991404647492</v>
+      </c>
+      <c r="W81">
+        <f>AVEDEV(LOG10(W10),LOG10(W14),LOG10(W18),LOG10(W22),LOG10(W26))</f>
+        <v>0.12151467703087408</v>
+      </c>
+      <c r="X81">
+        <f>AVEDEV(LOG10(X10),LOG10(X14),LOG10(X18),LOG10(X22),LOG10(X26))</f>
+        <v>0.12151467703087408</v>
+      </c>
+      <c r="Y81">
+        <f>AVEDEV(LOG10(Y10),LOG10(Y14),LOG10(Y18),LOG10(Y22),LOG10(Y26))</f>
+        <v>0.12151467703087408</v>
+      </c>
+      <c r="Z81">
+        <f>AVEDEV(LOG10(Z10),LOG10(Z14),LOG10(Z18),LOG10(Z22),LOG10(Z26))</f>
+        <v>0.12151467703087408</v>
+      </c>
+      <c r="AA81">
+        <f>AVEDEV(LOG10(AA10),LOG10(AA14),LOG10(AA18),LOG10(AA22),LOG10(AA26))</f>
+        <v>0.12151467703087408</v>
+      </c>
+      <c r="AB81">
+        <f>AVEDEV(LOG10(AB10),LOG10(AB14),LOG10(AB18),LOG10(AB22),LOG10(AB26))</f>
+        <v>0.12151467703087408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B82" s="19"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A83" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ref="D83:G83" si="15">POWER(10, D73-D78)</f>
+        <v>1.9706402174274155E-3</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="15"/>
+        <v>1.7794323609500772E-3</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="15"/>
+        <v>1.7436582388169583E-3</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="15"/>
+        <v>1.6715035046223098E-3</v>
+      </c>
+      <c r="H83">
+        <f>POWER(10, H73-H78)</f>
+        <v>1.6574348892824419E-3</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ref="I83:AB83" si="16">POWER(10, I73-I78)</f>
+        <v>4.9345731592811606E-3</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="16"/>
+        <v>2.7245637978647562E-3</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="16"/>
+        <v>1.773898070687626E-3</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="16"/>
+        <v>1.588373849213618E-3</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="16"/>
+        <v>1.517627846327642E-3</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="16"/>
+        <v>0.53293556090763006</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="16"/>
+        <v>0.2054309253823868</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="16"/>
+        <v>0.19060203194145037</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="16"/>
+        <v>0.18876648076062211</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="16"/>
+        <v>0.18876648076062211</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="16"/>
+        <v>0.35679508183764297</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="16"/>
+        <v>0.32251593383729804</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="16"/>
+        <v>0.31194295138869893</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="16"/>
+        <v>0.31145015321555231</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="16"/>
+        <v>0.31145015321555231</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="16"/>
+        <v>0.30896598858498414</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="16"/>
+        <v>0.30828704258637707</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="16"/>
+        <v>0.30582590970692053</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="16"/>
+        <v>0.29157218833188892</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="16"/>
+        <v>0.28731697579345444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A84" s="52"/>
+      <c r="B84" s="53"/>
+      <c r="D84">
+        <f t="shared" ref="D84:G84" si="17">POWER(10, D73+D78)</f>
+        <v>7.3310546557995085E-2</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="17"/>
+        <v>3.2478002300771846E-3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="17"/>
+        <v>2.1358016840094351E-3</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="17"/>
+        <v>2.0474195691136034E-3</v>
+      </c>
+      <c r="H84">
+        <f>POWER(10, H73+H78)</f>
+        <v>1.8974463953982724E-3</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ref="I84:AB84" si="18">POWER(10, I73+I78)</f>
+        <v>9.7143778769596623E-2</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="18"/>
+        <v>2.073369223225727E-2</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="18"/>
+        <v>9.0884161776903644E-3</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="18"/>
+        <v>2.6977733476464174E-3</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="18"/>
+        <v>2.0255670661544251E-3</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="18"/>
+        <v>0.64078319266176442</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="18"/>
+        <v>0.55187831551334543</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="18"/>
+        <v>0.4633622389712802</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="18"/>
+        <v>0.4618011041800727</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="18"/>
+        <v>0.4618011041800727</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="18"/>
+        <v>0.51604390683836943</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="18"/>
+        <v>0.36484387655176026</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="18"/>
+        <v>0.36349514720154197</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="18"/>
+        <v>0.35204235687749863</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="18"/>
+        <v>0.35204235687749863</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="18"/>
+        <v>0.34980371875280392</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="18"/>
+        <v>0.33308415094691213</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="18"/>
+        <v>0.33198116947013423</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="18"/>
+        <v>0.33134521218274138</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="18"/>
+        <v>0.32501633890426773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A85" s="52"/>
+      <c r="B85" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ref="D85:G85" si="19">POWER(10, D74-D79)</f>
+        <v>2.3955083695067082E-2</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="19"/>
+        <v>8.697933232233496E-3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="19"/>
+        <v>1.7098656616366522E-3</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="19"/>
+        <v>1.7098656616366522E-3</v>
+      </c>
+      <c r="H85">
+        <f>POWER(10, H74-H79)</f>
+        <v>1.5832829583194369E-3</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ref="I85:AB85" si="20">POWER(10, I74-I79)</f>
+        <v>2.051881212568918E-3</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="20"/>
+        <v>2.2875555508079957E-3</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="20"/>
+        <v>1.2189512670884779E-3</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="20"/>
+        <v>1.2189512670884779E-3</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="20"/>
+        <v>1.2189512670884779E-3</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="20"/>
+        <v>0.17930216785958741</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="20"/>
+        <v>0.17698445964486129</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="20"/>
+        <v>0.16983386393234451</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="20"/>
+        <v>0.16983386393234451</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="20"/>
+        <v>0.16983386393234451</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="20"/>
+        <v>0.3361148045726553</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="20"/>
+        <v>0.30786327985420703</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="20"/>
+        <v>0.30732959187259196</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="20"/>
+        <v>0.30564394287883417</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="20"/>
+        <v>0.30564394287883417</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="20"/>
+        <v>0.30574019767247285</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="20"/>
+        <v>0.30501414137360988</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="20"/>
+        <v>0.30501414137360988</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="20"/>
+        <v>0.30419391150994524</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="20"/>
+        <v>0.30339281837889509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A86" s="52"/>
+      <c r="B86" s="53"/>
+      <c r="D86">
+        <f t="shared" ref="D86:G86" si="21">POWER(10, D74+D79)</f>
+        <v>0.11982771531626747</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="21"/>
+        <v>6.5370229023227769E-2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="21"/>
+        <v>2.0139544290501011E-2</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="21"/>
+        <v>2.0139544290501011E-2</v>
+      </c>
+      <c r="H86">
+        <f>POWER(10, H74+H79)</f>
+        <v>7.1408390389285838E-3</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86:AB86" si="22">POWER(10, I74+I79)</f>
+        <v>1.8620685326190364E-2</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="22"/>
+        <v>4.5351377754291478E-3</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="22"/>
+        <v>4.1282962145908634E-3</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="22"/>
+        <v>4.1282962145908634E-3</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="22"/>
+        <v>4.1282962145908634E-3</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="22"/>
+        <v>0.55822260095326381</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="22"/>
+        <v>0.4965394513296385</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="22"/>
+        <v>0.40425588084304437</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="22"/>
+        <v>0.40425588084304437</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="22"/>
+        <v>0.40425588084304437</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="22"/>
+        <v>0.41434478644931438</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="22"/>
+        <v>0.38593959334134381</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="22"/>
+        <v>0.37995986185897695</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="22"/>
+        <v>0.37149315181518167</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="22"/>
+        <v>0.37149315181518167</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="22"/>
+        <v>0.36263622603975876</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="22"/>
+        <v>0.35495891092594151</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="22"/>
+        <v>0.35495891092594151</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="22"/>
+        <v>0.34645989072991967</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" si="22"/>
+        <v>0.33833425878930207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A87" s="52"/>
+      <c r="B87" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ref="D87:G87" si="23">POWER(10, D75-D80)</f>
+        <v>2.3955083695067082E-2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="23"/>
+        <v>1.246885502726476E-3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="23"/>
+        <v>1.1902373804962823E-3</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="23"/>
+        <v>1.5628204228252862E-3</v>
+      </c>
+      <c r="H87">
+        <f>POWER(10, H75-H80)</f>
+        <v>1.5495261712061507E-3</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I87:AB87" si="24">POWER(10, I75-I80)</f>
+        <v>2.051881212568918E-3</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="24"/>
+        <v>2.1685422477882494E-3</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="24"/>
+        <v>1.8814760768251703E-3</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="24"/>
+        <v>1.8814760768251703E-3</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="24"/>
+        <v>1.7436582388169583E-3</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="24"/>
+        <v>0.17929004886809224</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="24"/>
+        <v>0.16370685329649418</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="24"/>
+        <v>0.14668821386199865</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="24"/>
+        <v>0.13070770678092922</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="24"/>
+        <v>0.12219019931781708</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="24"/>
+        <v>0.3361148045726553</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="24"/>
+        <v>0.31687328269145237</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="24"/>
+        <v>0.30703177478759303</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="24"/>
+        <v>0.29423198658018107</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="24"/>
+        <v>0.29543078234232156</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="24"/>
+        <v>0.29543078234232156</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="24"/>
+        <v>0.29172832465025067</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="24"/>
+        <v>0.29172832465025067</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="24"/>
+        <v>0.29172832465025067</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="24"/>
+        <v>0.29172832465025067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A88" s="52"/>
+      <c r="B88" s="53"/>
+      <c r="D88">
+        <f t="shared" ref="D88:G88" si="25">POWER(10, D75+D80)</f>
+        <v>0.11982771531626747</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="25"/>
+        <v>2.0163503014833023E-2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="25"/>
+        <v>1.724758056439403E-2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="25"/>
+        <v>2.3313775307517571E-3</v>
+      </c>
+      <c r="H88">
+        <f>POWER(10, H75+H80)</f>
+        <v>2.1588434353292979E-3</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ref="I88:AB88" si="26">POWER(10, I75+I80)</f>
+        <v>1.8620685326190364E-2</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="26"/>
+        <v>6.1431711325608124E-3</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="26"/>
+        <v>2.1539307655974141E-3</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="26"/>
+        <v>2.1539307655974141E-3</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="26"/>
+        <v>2.1358016840094351E-3</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="26"/>
+        <v>0.55788312153223918</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="26"/>
+        <v>0.49349762824628957</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="26"/>
+        <v>0.44514747971658131</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="26"/>
+        <v>0.43886562018644387</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>0.43743514634940905</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="26"/>
+        <v>0.41434478644931438</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="26"/>
+        <v>0.35264169003728835</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="26"/>
+        <v>0.34218206142263496</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="26"/>
+        <v>0.34056688082596842</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="26"/>
+        <v>0.3256701438915825</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="26"/>
+        <v>0.3256701438915825</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="26"/>
+        <v>0.32521410567210451</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="26"/>
+        <v>0.32521410567210451</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="26"/>
+        <v>0.32521410567210451</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="26"/>
+        <v>0.32521410567210451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A89" s="52"/>
+      <c r="B89" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ref="D89:G89" si="27">POWER(10, D76-D81)</f>
+        <v>3.9827073354817832E-3</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="27"/>
+        <v>1.5228220525245982E-3</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="27"/>
+        <v>1.359454521167743E-3</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="27"/>
+        <v>1.359454521167743E-3</v>
+      </c>
+      <c r="H89">
+        <f>POWER(10, H76-H81)</f>
+        <v>1.299096979071901E-3</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ref="I89:AB89" si="28">POWER(10, I76-I81)</f>
+        <v>1.6223948566496196E-3</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="28"/>
+        <v>1.65728473204411E-3</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="28"/>
+        <v>1.6574348892824419E-3</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="28"/>
+        <v>1.6574348892824419E-3</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="28"/>
+        <v>1.6574348892824419E-3</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="28"/>
+        <v>0.44968979500956408</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="28"/>
+        <v>0.36899543702220433</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="28"/>
+        <v>0.30208337294851756</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="28"/>
+        <v>0.30215520434558601</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="28"/>
+        <v>0.30276081356544932</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="28"/>
+        <v>0.24928550725555881</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="28"/>
+        <v>0.24273705356995925</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="28"/>
+        <v>0.23802234858407004</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="28"/>
+        <v>0.18230240309118842</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="28"/>
+        <v>0.17116877319542578</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="28"/>
+        <v>0.17116877319542578</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="28"/>
+        <v>0.17116877319542578</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="28"/>
+        <v>0.17116877319542578</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="28"/>
+        <v>0.17116877319542578</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="28"/>
+        <v>0.17116877319542578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A90" s="52"/>
+      <c r="B90" s="53"/>
+      <c r="D90">
+        <f t="shared" ref="D90:G90" si="29">POWER(10, D76+D81)</f>
+        <v>6.1861212555328234E-2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="29"/>
+        <v>1.4063123630946407E-2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="29"/>
+        <v>5.5020878815093197E-3</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="29"/>
+        <v>5.5020878815093197E-3</v>
+      </c>
+      <c r="H90">
+        <f>POWER(10, H76+H81)</f>
+        <v>5.053983704881449E-3</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ref="I90:AB90" si="30">POWER(10, I76+I81)</f>
+        <v>8.431902585383004E-2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="30"/>
+        <v>2.2491511033385903E-3</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="30"/>
+        <v>1.8974463953982724E-3</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="30"/>
+        <v>1.8974463953982724E-3</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="30"/>
+        <v>1.8974463953982724E-3</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="30"/>
+        <v>0.7643937148013481</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="30"/>
+        <v>0.52515727964056291</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="30"/>
+        <v>0.49769045471692319</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="30"/>
+        <v>0.45918462481087668</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="30"/>
+        <v>0.45521769759511499</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="30"/>
+        <v>0.42613354301072592</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="30"/>
+        <v>0.36191725799894936</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="30"/>
+        <v>0.34572689552997993</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="30"/>
+        <v>0.34698621503362459</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="30"/>
+        <v>0.29953935622024591</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>0.29953935622024591</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="30"/>
+        <v>0.29953935622024591</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="30"/>
+        <v>0.29953935622024591</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="30"/>
+        <v>0.29953935622024591</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="30"/>
+        <v>0.29953935622024591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A92" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ref="D92:G92" si="31">D83</f>
+        <v>1.9706402174274155E-3</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="31"/>
+        <v>1.7794323609500772E-3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="31"/>
+        <v>1.7436582388169583E-3</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="31"/>
+        <v>1.6715035046223098E-3</v>
+      </c>
+      <c r="H92">
+        <f>H83</f>
+        <v>1.6574348892824419E-3</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ref="I92:AB92" si="32">I83</f>
+        <v>4.9345731592811606E-3</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="32"/>
+        <v>2.7245637978647562E-3</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="32"/>
+        <v>1.773898070687626E-3</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="32"/>
+        <v>1.588373849213618E-3</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="32"/>
+        <v>1.517627846327642E-3</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="32"/>
+        <v>0.53293556090763006</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="32"/>
+        <v>0.2054309253823868</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="32"/>
+        <v>0.19060203194145037</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="32"/>
+        <v>0.18876648076062211</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="32"/>
+        <v>0.18876648076062211</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="32"/>
+        <v>0.35679508183764297</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="32"/>
+        <v>0.32251593383729804</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="32"/>
+        <v>0.31194295138869893</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="32"/>
+        <v>0.31145015321555231</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="32"/>
+        <v>0.31145015321555231</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="32"/>
+        <v>0.30896598858498414</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="32"/>
+        <v>0.30828704258637707</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="32"/>
+        <v>0.30582590970692053</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="32"/>
+        <v>0.29157218833188892</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="32"/>
+        <v>0.28731697579345444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A93" s="52"/>
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ref="D93:G93" si="33">D84-D83</f>
+        <v>7.1339906340567666E-2</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="33"/>
+        <v>1.4683678691271075E-3</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="33"/>
+        <v>3.9214344519247681E-4</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="33"/>
+        <v>3.7591606449129361E-4</v>
+      </c>
+      <c r="H93">
+        <f>H84-H83</f>
+        <v>2.400115061158305E-4</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93:AB93" si="34">I84-I83</f>
+        <v>9.2209205610315467E-2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="34"/>
+        <v>1.8009128434392514E-2</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="34"/>
+        <v>7.3145181070027382E-3</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="34"/>
+        <v>1.1093994984327994E-3</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="34"/>
+        <v>5.0793921982678308E-4</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="34"/>
+        <v>0.10784763175413437</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="34"/>
+        <v>0.3464473901309586</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="34"/>
+        <v>0.27276020702982984</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="34"/>
+        <v>0.27303462341945062</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="34"/>
+        <v>0.27303462341945062</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="34"/>
+        <v>0.15924882500072646</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="34"/>
+        <v>4.2327942714462219E-2</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="34"/>
+        <v>5.1552195812843038E-2</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="34"/>
+        <v>4.0592203661946324E-2</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="34"/>
+        <v>4.0592203661946324E-2</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="34"/>
+        <v>4.0837730167819775E-2</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="34"/>
+        <v>2.4797108360535058E-2</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="34"/>
+        <v>2.6155259763213701E-2</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="34"/>
+        <v>3.9773023850852463E-2</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="34"/>
+        <v>3.7699363110813289E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A94" s="52"/>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ref="D94:G99" si="35">D85-D84</f>
+        <v>-4.9355462862928003E-2</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="35"/>
+        <v>5.450133002156311E-3</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="35"/>
+        <v>-4.259360223727829E-4</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="35"/>
+        <v>-3.3755390747695121E-4</v>
+      </c>
+      <c r="H94">
+        <f>H85-H84</f>
+        <v>-3.1416343707883548E-4</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ref="I94:AB99" si="36">I85-I84</f>
+        <v>-9.509189755702771E-2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="36"/>
+        <v>-1.8446136681449274E-2</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="36"/>
+        <v>-7.8694649106018869E-3</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="36"/>
+        <v>-1.4788220805579395E-3</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="36"/>
+        <v>-8.066157990659472E-4</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="36"/>
+        <v>-0.46148102480217701</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="36"/>
+        <v>-0.37489385586848412</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="36"/>
+        <v>-0.2935283750389357</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="36"/>
+        <v>-0.29196724024772819</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="36"/>
+        <v>-0.29196724024772819</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="36"/>
+        <v>-0.17992910226571412</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="36"/>
+        <v>-5.6980596697553232E-2</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="36"/>
+        <v>-5.6165555328950012E-2</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="36"/>
+        <v>-4.6398413998664456E-2</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="36"/>
+        <v>-4.6398413998664456E-2</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="36"/>
+        <v>-4.406352108033107E-2</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="36"/>
+        <v>-2.8070009573302246E-2</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="36"/>
+        <v>-2.6967028096524348E-2</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="36"/>
+        <v>-2.7151300672796141E-2</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="36"/>
+        <v>-2.1623520525372641E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="35"/>
+        <v>9.5872631621200383E-2</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="35"/>
+        <v>5.6672295790994275E-2</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="35"/>
+        <v>1.8429678628864358E-2</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="35"/>
+        <v>1.8429678628864358E-2</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ref="H95:W99" si="37">H86-H85</f>
+        <v>5.5575560806091469E-3</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="37"/>
+        <v>1.6568804113621445E-2</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="37"/>
+        <v>2.2475822246211521E-3</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="37"/>
+        <v>2.9093449475023855E-3</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="37"/>
+        <v>2.9093449475023855E-3</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="37"/>
+        <v>2.9093449475023855E-3</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="37"/>
+        <v>0.3789204330936764</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="37"/>
+        <v>0.31955499168477719</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="37"/>
+        <v>0.23442201691069986</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="37"/>
+        <v>0.23442201691069986</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="37"/>
+        <v>0.23442201691069986</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="37"/>
+        <v>7.8229981876659083E-2</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="37"/>
+        <v>7.8076313487136784E-2</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="37"/>
+        <v>7.2630269986384999E-2</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="37"/>
+        <v>6.5849208936347492E-2</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="37"/>
+        <v>6.5849208936347492E-2</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="36"/>
+        <v>5.6896028367285911E-2</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="36"/>
+        <v>4.9944769552331625E-2</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="36"/>
+        <v>4.9944769552331625E-2</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="36"/>
+        <v>4.2265979219974437E-2</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="36"/>
+        <v>3.4941440410406976E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A96" s="52"/>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="35"/>
+        <v>-9.5872631621200383E-2</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="35"/>
+        <v>-6.4123343520501294E-2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="35"/>
+        <v>-1.894930691000473E-2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="35"/>
+        <v>-1.8576723867675726E-2</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="37"/>
+        <v>-5.5913128677224332E-3</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="36"/>
+        <v>-1.6568804113621445E-2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="36"/>
+        <v>-2.3665955276408984E-3</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="36"/>
+        <v>-2.246820137765693E-3</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="36"/>
+        <v>-2.246820137765693E-3</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="36"/>
+        <v>-2.384637975773905E-3</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="36"/>
+        <v>-0.37893255208517157</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="36"/>
+        <v>-0.33283259803314436</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="36"/>
+        <v>-0.25756766698104572</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="36"/>
+        <v>-0.27354817406211518</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="36"/>
+        <v>-0.28206568152522726</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="36"/>
+        <v>-7.8229981876659083E-2</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="36"/>
+        <v>-6.9066310649891438E-2</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="36"/>
+        <v>-7.2928087071383929E-2</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="36"/>
+        <v>-7.7261165235000595E-2</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="36"/>
+        <v>-7.6062369472860103E-2</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="36"/>
+        <v>-6.7205443697437195E-2</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="36"/>
+        <v>-6.3230586275690837E-2</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="36"/>
+        <v>-6.3230586275690837E-2</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="36"/>
+        <v>-5.4731566079669003E-2</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="36"/>
+        <v>-4.6605934139051397E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A97" s="52"/>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="35"/>
+        <v>9.5872631621200383E-2</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="35"/>
+        <v>1.8916617512106548E-2</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="35"/>
+        <v>1.6057343183897746E-2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="35"/>
+        <v>7.6855710792647094E-4</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="37"/>
+        <v>6.0931726412314724E-4</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="36"/>
+        <v>1.6568804113621445E-2</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="36"/>
+        <v>3.9746288847725634E-3</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="36"/>
+        <v>2.7245468877224377E-4</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="36"/>
+        <v>2.7245468877224377E-4</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="36"/>
+        <v>3.9214344519247681E-4</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="36"/>
+        <v>0.37859307266414693</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="36"/>
+        <v>0.32979077494979536</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="36"/>
+        <v>0.29845926585458266</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="36"/>
+        <v>0.30815791340551468</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="36"/>
+        <v>0.315244947031592</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="36"/>
+        <v>7.8229981876659083E-2</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="36"/>
+        <v>3.5768407345835973E-2</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="36"/>
+        <v>3.5150286635041939E-2</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="36"/>
+        <v>4.633489424578735E-2</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="36"/>
+        <v>3.0239361549260935E-2</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="36"/>
+        <v>3.0239361549260935E-2</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="36"/>
+        <v>3.3485781021853844E-2</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="36"/>
+        <v>3.3485781021853844E-2</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="36"/>
+        <v>3.3485781021853844E-2</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="36"/>
+        <v>3.3485781021853844E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98" s="52"/>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="35"/>
+        <v>-0.11584500798078569</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="35"/>
+        <v>-1.8640680962308424E-2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="35"/>
+        <v>-1.5888126043226286E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="35"/>
+        <v>-9.7192300958401411E-4</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="37"/>
+        <v>-8.5974645625739687E-4</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="36"/>
+        <v>-1.6998290469540746E-2</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="36"/>
+        <v>-4.4858864005167028E-3</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="36"/>
+        <v>-4.964958763149722E-4</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="36"/>
+        <v>-4.964958763149722E-4</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="36"/>
+        <v>-4.7836679472699323E-4</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="36"/>
+        <v>-0.1081933265226751</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="36"/>
+        <v>-0.12450219122408523</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="36"/>
+        <v>-0.14306410676806375</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="36"/>
+        <v>-0.13671041584085786</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="36"/>
+        <v>-0.13467433278395974</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="36"/>
+        <v>-0.16505927919375557</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="36"/>
+        <v>-0.10990463646732909</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="36"/>
+        <v>-0.10415971283856493</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="36"/>
+        <v>-0.15826447773478</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="36"/>
+        <v>-0.15450137069615671</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="36"/>
+        <v>-0.15450137069615671</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="36"/>
+        <v>-0.15404533247667873</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="36"/>
+        <v>-0.15404533247667873</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="36"/>
+        <v>-0.15404533247667873</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="36"/>
+        <v>-0.15404533247667873</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A99" s="52"/>
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="35"/>
+        <v>5.787850521984645E-2</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="35"/>
+        <v>1.2540301578421809E-2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="35"/>
+        <v>4.1426333603415766E-3</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="35"/>
+        <v>4.1426333603415766E-3</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="37"/>
+        <v>3.7548867258095477E-3</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="36"/>
+        <v>8.2696630997180415E-2</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="36"/>
+        <v>5.9186637129448032E-4</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="36"/>
+        <v>2.400115061158305E-4</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="36"/>
+        <v>2.400115061158305E-4</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="36"/>
+        <v>2.400115061158305E-4</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="36"/>
+        <v>0.31470391979178403</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="36"/>
+        <v>0.15616184261835858</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="36"/>
+        <v>0.19560708176840563</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="36"/>
+        <v>0.15702942046529067</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="36"/>
+        <v>0.15245688402966567</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="36"/>
+        <v>0.17684803575516711</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="36"/>
+        <v>0.11918020442899011</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="36"/>
+        <v>0.10770454694590989</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="36"/>
+        <v>0.16468381194243617</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="36"/>
+        <v>0.12837058302482013</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="36"/>
+        <v>0.12837058302482013</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="36"/>
+        <v>0.12837058302482013</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="36"/>
+        <v>0.12837058302482013</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="36"/>
+        <v>0.12837058302482013</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="36"/>
+        <v>0.12837058302482013</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B30:E30"/>
+  <mergeCells count="22">
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="R30:X30"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="R31:X31"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="I1:M1"/>
@@ -8283,10 +15159,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H26">
-    <cfRule type="top10" dxfId="21" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M26">
-    <cfRule type="top10" dxfId="20" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
     <cfRule type="colorScale" priority="17">
@@ -8349,7 +15225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R26">
-    <cfRule type="top10" dxfId="19" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
     <cfRule type="colorScale" priority="11">
@@ -8412,7 +15288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AB26">
-    <cfRule type="top10" dxfId="18" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
     <cfRule type="colorScale" priority="6">

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E5867-B53E-4012-8FF8-C0468CC7712F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE5C2BC-75E7-42FC-997E-2795EB993891}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
   <si>
     <t>Algorithm</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Re-evaluate full</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -12655,8 +12658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AU10" sqref="AU10"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AX24" sqref="AX24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13082,45 +13085,45 @@
         <f t="shared" si="2"/>
         <v>0.24215775187580363</v>
       </c>
-      <c r="AQ3" s="27" t="e">
+      <c r="AQ3" s="27">
         <f t="shared" ref="AQ3:AR26" si="3">POWER(10, AQ74)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR3" s="28" t="e">
+        <v>4.8716789601400932E-2</v>
+      </c>
+      <c r="AR3" s="28">
         <f t="shared" ref="AR3:AS26" si="4">POWER(10, AR74)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS3" s="28" t="e">
+        <v>5.2331217564564611E-3</v>
+      </c>
+      <c r="AS3" s="28">
         <f t="shared" ref="AS3:AT26" si="5">POWER(10, AS74)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT3" s="28" t="e">
+        <v>3.2034651587995234E-3</v>
+      </c>
+      <c r="AT3" s="28">
         <f t="shared" ref="AT3:AU26" si="6">POWER(10, AT74)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU3" s="28" t="e">
+        <v>3.1407572056065267E-3</v>
+      </c>
+      <c r="AU3" s="28">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV3" s="27" t="e">
+        <v>3.1407572056065267E-3</v>
+      </c>
+      <c r="AV3" s="27">
         <f t="shared" ref="AV3:AW26" si="7">POWER(10, AV74)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW3" s="28" t="e">
+        <v>0.20020264390346501</v>
+      </c>
+      <c r="AW3" s="28">
         <f t="shared" ref="AW3:AX26" si="8">POWER(10, AW74)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX3" s="28" t="e">
+        <v>0.14427522259092926</v>
+      </c>
+      <c r="AX3" s="28">
         <f t="shared" ref="AX3:AY26" si="9">POWER(10, AX74)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY3" s="28" t="e">
+        <v>0.11406826898847046</v>
+      </c>
+      <c r="AY3" s="28">
         <f t="shared" ref="AY3:AZ26" si="10">POWER(10, AY74)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ3" s="28" t="e">
+        <v>0.1005881018669829</v>
+      </c>
+      <c r="AZ3" s="28">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>9.3322900639618123E-2</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
@@ -13287,45 +13290,45 @@
         <f t="shared" si="13"/>
         <v>0.33347372541649717</v>
       </c>
-      <c r="AQ4" s="27" t="e">
+      <c r="AQ4" s="27">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR4" s="28" t="e">
+        <v>3.7831793637707847E-2</v>
+      </c>
+      <c r="AR4" s="28">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS4" s="28" t="e">
+        <v>2.0646091315510567E-2</v>
+      </c>
+      <c r="AS4" s="28">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT4" s="28" t="e">
+        <v>1.9559130642586166E-2</v>
+      </c>
+      <c r="AT4" s="28">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU4" s="28" t="e">
+        <v>1.4060613333359543E-2</v>
+      </c>
+      <c r="AU4" s="28">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV4" s="27" t="e">
+        <v>8.6817035633681358E-3</v>
+      </c>
+      <c r="AV4" s="27">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW4" s="28" t="e">
+        <v>0.20651922434405215</v>
+      </c>
+      <c r="AW4" s="28">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX4" s="28" t="e">
+        <v>0.17366628359507985</v>
+      </c>
+      <c r="AX4" s="28">
         <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY4" s="28" t="e">
+        <v>0.14182098232069129</v>
+      </c>
+      <c r="AY4" s="28">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ4" s="28" t="e">
+        <v>0.14182098232069129</v>
+      </c>
+      <c r="AZ4" s="28">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>0.14182098232069129</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
@@ -13492,45 +13495,45 @@
         <f t="shared" si="16"/>
         <v>0.26117747708853584</v>
       </c>
-      <c r="AQ5" s="27" t="e">
+      <c r="AQ5" s="27">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR5" s="28" t="e">
+        <v>3.7831793637707847E-2</v>
+      </c>
+      <c r="AR5" s="28">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS5" s="28" t="e">
+        <v>3.1374002341904718E-2</v>
+      </c>
+      <c r="AS5" s="28">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT5" s="28" t="e">
+        <v>2.2185390928700085E-2</v>
+      </c>
+      <c r="AT5" s="28">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU5" s="28" t="e">
+        <v>1.6692414969479149E-2</v>
+      </c>
+      <c r="AU5" s="28">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV5" s="27" t="e">
+        <v>1.2438345411662766E-2</v>
+      </c>
+      <c r="AV5" s="27">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW5" s="28" t="e">
+        <v>0.20651922434405215</v>
+      </c>
+      <c r="AW5" s="28">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX5" s="28" t="e">
+        <v>0.12193281679541852</v>
+      </c>
+      <c r="AX5" s="28">
         <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY5" s="28" t="e">
+        <v>0.10762467049530408</v>
+      </c>
+      <c r="AY5" s="28">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ5" s="28" t="e">
+        <v>8.7777441938440726E-2</v>
+      </c>
+      <c r="AZ5" s="28">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>8.4205635920398106E-2</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
@@ -13697,45 +13700,45 @@
         <f t="shared" si="19"/>
         <v>0.24366408708332957</v>
       </c>
-      <c r="AQ6" s="29" t="e">
+      <c r="AQ6" s="29">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR6" s="30" t="e">
+        <v>3.7666763161927595E-2</v>
+      </c>
+      <c r="AR6" s="30">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS6" s="30" t="e">
+        <v>8.2369168228105579E-3</v>
+      </c>
+      <c r="AS6" s="30">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT6" s="30" t="e">
+        <v>4.2761619749425292E-3</v>
+      </c>
+      <c r="AT6" s="30">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU6" s="30" t="e">
+        <v>4.2370143133186279E-3</v>
+      </c>
+      <c r="AU6" s="30">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV6" s="29" t="e">
+        <v>3.4403323319567177E-3</v>
+      </c>
+      <c r="AV6" s="29">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW6" s="30" t="e">
+        <v>0.20664375148862243</v>
+      </c>
+      <c r="AW6" s="30">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX6" s="30" t="e">
+        <v>0.15335306555536773</v>
+      </c>
+      <c r="AX6" s="30">
         <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY6" s="30" t="e">
+        <v>0.1310963413339164</v>
+      </c>
+      <c r="AY6" s="30">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ6" s="30" t="e">
+        <v>0.11328362908862963</v>
+      </c>
+      <c r="AZ6" s="30">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>0.11328362908862963</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
@@ -13882,11 +13885,21 @@
       <c r="AU7" s="28">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
+      <c r="AV7" s="27">
+        <v>0.2319</v>
+      </c>
+      <c r="AW7" s="28">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="AX7" s="28">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="AY7" s="28">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="AZ7" s="28">
+        <v>0.14580000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
@@ -14030,11 +14043,21 @@
       <c r="AU8" s="28">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="28"/>
-      <c r="AZ8" s="28"/>
+      <c r="AV8" s="27">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="AW8" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AX8" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AY8" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AZ8" s="28">
+        <v>0.1472</v>
+      </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
@@ -14178,11 +14201,21 @@
       <c r="AU9" s="28">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
+      <c r="AV9" s="27">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="AW9" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AX9" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AY9" s="28">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AZ9" s="28">
+        <v>8.6800000000000002E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
@@ -14326,11 +14359,21 @@
       <c r="AU10" s="30">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
+      <c r="AV10" s="29">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="AW10" s="30">
+        <v>0.1472</v>
+      </c>
+      <c r="AX10" s="30">
+        <v>0.1222</v>
+      </c>
+      <c r="AY10" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AZ10" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
@@ -14461,16 +14504,36 @@
       <c r="AP11" s="31">
         <v>0.31319999999999998</v>
       </c>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
+      <c r="AQ11" s="27">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="AR11" s="28">
+        <v>3.49E-2</v>
+      </c>
+      <c r="AS11" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AT11" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AU11" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AV11" s="27">
+        <v>0.1222</v>
+      </c>
+      <c r="AW11" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AX11" s="28">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="AY11" s="28">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AZ11" s="28">
+        <v>8.3299999999999999E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
@@ -14599,16 +14662,36 @@
       <c r="AP12" s="31">
         <v>0.3347</v>
       </c>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="28"/>
+      <c r="AQ12" s="27">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AR12" s="28">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AS12" s="28">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AT12" s="28">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AU12" s="28">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AV12" s="27">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="AW12" s="28">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="AX12" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AY12" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AZ12" s="28">
+        <v>0.1472</v>
+      </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
@@ -14737,16 +14820,36 @@
       <c r="AP13" s="31">
         <v>0.31740000000000002</v>
       </c>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
+      <c r="AQ13" s="27">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AR13" s="28">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AS13" s="28">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AT13" s="28">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AU13" s="28">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="AV13" s="27">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="AW13" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AX13" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AY13" s="28">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AZ13" s="28">
+        <v>9.5799999999999996E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
@@ -14875,16 +14978,36 @@
       <c r="AP14" s="30">
         <v>0.3125</v>
       </c>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="30"/>
+      <c r="AQ14" s="29">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="AR14" s="30">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="AS14" s="30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AT14" s="30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AU14" s="30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AV14" s="29">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="AW14" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AX14" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AY14" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AZ14" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -15015,16 +15138,36 @@
       <c r="AP15" s="31">
         <v>0.31940000000000002</v>
       </c>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
+      <c r="AQ15" s="27">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AR15" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AS15" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AT15" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AU15" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AV15" s="27">
+        <v>0.2215</v>
+      </c>
+      <c r="AW15" s="28">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="AX15" s="28">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="AY15" s="28">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="AZ15" s="28">
+        <v>8.2600000000000007E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
@@ -15153,16 +15296,36 @@
       <c r="AP16" s="31">
         <v>0.35489999999999999</v>
       </c>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
+      <c r="AQ16" s="27">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AR16" s="28">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AS16" s="28">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AT16" s="28">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AU16" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AV16" s="27">
+        <v>0.2215</v>
+      </c>
+      <c r="AW16" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AX16" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AY16" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AZ16" s="28">
+        <v>0.1222</v>
+      </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" s="52"/>
@@ -15291,16 +15454,36 @@
       <c r="AP17" s="31">
         <v>0.34649999999999997</v>
       </c>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
+      <c r="AQ17" s="27">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AR17" s="28">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AS17" s="28">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AT17" s="28">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AU17" s="28">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AV17" s="27">
+        <v>0.2215</v>
+      </c>
+      <c r="AW17" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AX17" s="28">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AY17" s="28">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AZ17" s="28">
+        <v>9.5799999999999996E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
@@ -15429,16 +15612,36 @@
       <c r="AP18" s="30">
         <v>0.316</v>
       </c>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
-      <c r="AU18" s="30"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
-      <c r="AZ18" s="30"/>
+      <c r="AQ18" s="29">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="AR18" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AS18" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AT18" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AU18" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AV18" s="29">
+        <v>0.2215</v>
+      </c>
+      <c r="AW18" s="30">
+        <v>0.2215</v>
+      </c>
+      <c r="AX18" s="30">
+        <v>0.1222</v>
+      </c>
+      <c r="AY18" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AZ18" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
@@ -15569,16 +15772,36 @@
       <c r="AP19" s="31">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="AQ19" s="27"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="27"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
+      <c r="AQ19" s="27">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="AR19" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AS19" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AT19" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AU19" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AV19" s="27">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AW19" s="28">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AX19" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AY19" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AZ19" s="28">
+        <v>8.4000000000000005E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="52"/>
@@ -15707,16 +15930,36 @@
       <c r="AP20" s="31">
         <v>0.34100000000000003</v>
       </c>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
+      <c r="AQ20" s="27">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="AR20" s="28">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="AS20" s="28">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="AT20" s="28">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="AU20" s="28">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="AV20" s="27">
+        <v>0.1472</v>
+      </c>
+      <c r="AW20" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AX20" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AY20" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AZ20" s="28">
+        <v>0.1472</v>
+      </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" s="52"/>
@@ -15845,16 +16088,36 @@
       <c r="AP21" s="31">
         <v>0.29370000000000002</v>
       </c>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="28"/>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="28"/>
-      <c r="AZ21" s="28"/>
+      <c r="AQ21" s="27">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="AR21" s="28">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="AS21" s="28">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="AT21" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AU21" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AV21" s="27">
+        <v>0.1472</v>
+      </c>
+      <c r="AW21" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AX21" s="28">
+        <v>0.1222</v>
+      </c>
+      <c r="AY21" s="28">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="AZ21" s="28">
+        <v>7.2900000000000006E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
@@ -15983,16 +16246,36 @@
       <c r="AP22" s="30">
         <v>0.26529999999999998</v>
       </c>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
+      <c r="AQ22" s="29">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="AR22" s="30">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="AS22" s="30">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="AT22" s="30">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="AU22" s="30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AV22" s="29">
+        <v>0.1472</v>
+      </c>
+      <c r="AW22" s="30">
+        <v>0.1222</v>
+      </c>
+      <c r="AX22" s="30">
+        <v>0.1222</v>
+      </c>
+      <c r="AY22" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="AZ22" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
@@ -16123,16 +16406,36 @@
       <c r="AP23" s="31">
         <v>0.29859999999999998</v>
       </c>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
+      <c r="AQ23" s="27">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="AR23" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AS23" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AT23" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AU23" s="28">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AV23" s="27">
+        <v>0.2306</v>
+      </c>
+      <c r="AW23" s="28">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="AX23" s="28">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="AY23" s="28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AZ23" s="28">
+        <v>8.4000000000000005E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
@@ -16261,16 +16564,36 @@
       <c r="AP24" s="31">
         <v>0.32290000000000002</v>
       </c>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="27"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
+      <c r="AQ24" s="27">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="AR24" s="28">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="AS24" s="28">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="AT24" s="28">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="AU24" s="28">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="AV24" s="27">
+        <v>0.2319</v>
+      </c>
+      <c r="AW24" s="28">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AX24" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AY24" s="28">
+        <v>0.1472</v>
+      </c>
+      <c r="AZ24" s="28">
+        <v>0.1472</v>
+      </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="52"/>
@@ -16399,16 +16722,36 @@
       <c r="AP25" s="31">
         <v>0.1188</v>
       </c>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="27"/>
-      <c r="AW25" s="28"/>
-      <c r="AX25" s="28"/>
-      <c r="AY25" s="28"/>
-      <c r="AZ25" s="28"/>
+      <c r="AQ25" s="27">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="AR25" s="28">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="AS25" s="28">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="AT25" s="28">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="AU25" s="28">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="AV25" s="27">
+        <v>0.2319</v>
+      </c>
+      <c r="AW25" s="28">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AX25" s="28">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="AY25" s="28">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="AZ25" s="28">
+        <v>7.2900000000000006E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
@@ -16537,16 +16880,36 @@
       <c r="AP26" s="28">
         <v>0.1111</v>
       </c>
-      <c r="AQ26" s="27"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="27"/>
-      <c r="AW26" s="28"/>
-      <c r="AX26" s="28"/>
-      <c r="AY26" s="28"/>
-      <c r="AZ26" s="28"/>
+      <c r="AQ26" s="27">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="AR26" s="28">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="AS26" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AT26" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AU26" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AV26" s="27">
+        <v>0.2326</v>
+      </c>
+      <c r="AW26" s="28">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AX26" s="28">
+        <v>0.2215</v>
+      </c>
+      <c r="AY26" s="28">
+        <v>0.2215</v>
+      </c>
+      <c r="AZ26" s="28">
+        <v>0.2215</v>
+      </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AC27" s="19"/>
@@ -17299,6 +17662,24 @@
       <c r="D39">
         <v>10</v>
       </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" t="s">
+        <v>133</v>
+      </c>
       <c r="K39">
         <f>10^-1</f>
         <v>0.1</v>
@@ -17311,6 +17692,27 @@
         <v>10</v>
       </c>
       <c r="N39">
+        <v>200</v>
+      </c>
+      <c r="O39" t="s">
+        <v>133</v>
+      </c>
+      <c r="P39" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>133</v>
+      </c>
+      <c r="R39" t="s">
+        <v>133</v>
+      </c>
+      <c r="S39">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="V39">
+        <v>10.7984432942895</v>
+      </c>
+      <c r="W39">
         <v>200</v>
       </c>
     </row>
@@ -17327,6 +17729,24 @@
       <c r="D40">
         <v>10</v>
       </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" t="s">
+        <v>133</v>
+      </c>
       <c r="K40">
         <f>10^-1</f>
         <v>0.1</v>
@@ -17340,6 +17760,18 @@
       </c>
       <c r="N40">
         <v>200</v>
+      </c>
+      <c r="O40" t="s">
+        <v>133</v>
+      </c>
+      <c r="P40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>133</v>
+      </c>
+      <c r="R40" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.3">
@@ -17505,45 +17937,45 @@
         <f t="shared" si="36"/>
         <v>-0.61590162390011727</v>
       </c>
-      <c r="AQ74" t="e">
+      <c r="AQ74">
         <f t="shared" ref="AQ74:AZ74" si="37">AVERAGE(LOG10(AQ7),LOG10(AQ11),LOG10(AQ15),LOG10(AQ19),LOG10(AQ23))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR74" t="e">
+        <v>-1.31232133910128</v>
+      </c>
+      <c r="AR74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS74" t="e">
+        <v>-2.2812391606278051</v>
+      </c>
+      <c r="AS74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT74" t="e">
+        <v>-2.4943799950757084</v>
+      </c>
+      <c r="AT74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU74" t="e">
+        <v>-2.5029656351840708</v>
+      </c>
+      <c r="AU74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV74" t="e">
+        <v>-2.5029656351840708</v>
+      </c>
+      <c r="AV74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW74" t="e">
+        <v>-0.69853019146657203</v>
+      </c>
+      <c r="AW74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX74" t="e">
+        <v>-0.84080824697987677</v>
+      </c>
+      <c r="AX74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY74" t="e">
+        <v>-0.94283514891875908</v>
+      </c>
+      <c r="AY74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ74" t="e">
+        <v>-0.99745338706449149</v>
+      </c>
+      <c r="AZ74">
         <f t="shared" si="37"/>
-        <v>#NUM!</v>
+        <v>-1.030011771033422</v>
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.3">
@@ -17707,45 +18139,45 @@
         <f t="shared" si="39"/>
         <v>-0.47693837870741318</v>
       </c>
-      <c r="AQ75" t="e">
+      <c r="AQ75">
         <f t="shared" ref="AQ75:AZ75" si="40">AVERAGE(LOG10(AQ8),LOG10(AQ12),LOG10(AQ16),LOG10(AQ20),LOG10(AQ24))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR75" t="e">
+        <v>-1.42214306794614</v>
+      </c>
+      <c r="AR75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS75" t="e">
+        <v>-1.6851621561519383</v>
+      </c>
+      <c r="AS75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT75" t="e">
+        <v>-1.708650452489024</v>
+      </c>
+      <c r="AT75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU75" t="e">
+        <v>-1.851995734687178</v>
+      </c>
+      <c r="AU75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV75" t="e">
+        <v>-2.0613950472224229</v>
+      </c>
+      <c r="AV75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW75" t="e">
+        <v>-0.68503951476819369</v>
+      </c>
+      <c r="AW75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX75" t="e">
+        <v>-0.76028448938209459</v>
+      </c>
+      <c r="AX75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY75" t="e">
+        <v>-0.84825951081750883</v>
+      </c>
+      <c r="AY75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ75" t="e">
+        <v>-0.84825951081750883</v>
+      </c>
+      <c r="AZ75">
         <f t="shared" si="40"/>
-        <v>#NUM!</v>
+        <v>-0.84825951081750883</v>
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.3">
@@ -17909,45 +18341,45 @@
         <f t="shared" si="42"/>
         <v>-0.58306427761869162</v>
       </c>
-      <c r="AQ76" t="e">
+      <c r="AQ76">
         <f t="shared" ref="AQ76:AZ76" si="43">AVERAGE(LOG10(AQ9),LOG10(AQ13),LOG10(AQ17),LOG10(AQ21),LOG10(AQ25))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR76" t="e">
+        <v>-1.42214306794614</v>
+      </c>
+      <c r="AR76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS76" t="e">
+        <v>-1.5034300753688943</v>
+      </c>
+      <c r="AS76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT76" t="e">
+        <v>-1.6539329141783738</v>
+      </c>
+      <c r="AT76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU76" t="e">
+        <v>-1.7774808273682585</v>
+      </c>
+      <c r="AU76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV76" t="e">
+        <v>-1.9052373870387989</v>
+      </c>
+      <c r="AV76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW76" t="e">
+        <v>-0.68503951476819369</v>
+      </c>
+      <c r="AW76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX76" t="e">
+        <v>-0.91387939335543644</v>
+      </c>
+      <c r="AX76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY76" t="e">
+        <v>-0.96808816517629348</v>
+      </c>
+      <c r="AY76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ76" t="e">
+        <v>-1.0566170797704646</v>
+      </c>
+      <c r="AZ76">
         <f t="shared" si="43"/>
-        <v>#NUM!</v>
+        <v>-1.0746588400060939</v>
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.3">
@@ -18111,45 +18543,45 @@
         <f t="shared" si="46"/>
         <v>-0.61320847545566914</v>
       </c>
-      <c r="AQ77" t="e">
+      <c r="AQ77">
         <f t="shared" ref="AQ77:AZ77" si="47">AVERAGE(LOG10(AQ10),LOG10(AQ14),LOG10(AQ18),LOG10(AQ22),LOG10(AQ26))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR77" t="e">
+        <v>-1.4240416986529061</v>
+      </c>
+      <c r="AR77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS77" t="e">
+        <v>-2.0842353195422088</v>
+      </c>
+      <c r="AS77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT77" t="e">
+        <v>-2.3689458526935097</v>
+      </c>
+      <c r="AT77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU77" t="e">
+        <v>-2.3729400688796338</v>
+      </c>
+      <c r="AU77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV77" t="e">
+        <v>-2.4633996030785599</v>
+      </c>
+      <c r="AV77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW77" t="e">
+        <v>-0.68477772241730528</v>
+      </c>
+      <c r="AW77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX77" t="e">
+        <v>-0.81430753796990063</v>
+      </c>
+      <c r="AX77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY77" t="e">
+        <v>-0.8824094285285522</v>
+      </c>
+      <c r="AY77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ77" t="e">
+        <v>-0.94583284662534672</v>
+      </c>
+      <c r="AZ77">
         <f t="shared" si="47"/>
-        <v>#NUM!</v>
+        <v>-0.94583284662534672</v>
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.3">
@@ -18315,45 +18747,45 @@
         <f t="shared" si="49"/>
         <v>0.15857284446944322</v>
       </c>
-      <c r="AQ79" t="e">
+      <c r="AQ79">
         <f t="shared" ref="AQ79:AZ79" si="50">AVEDEV(LOG10(AQ7),LOG10(AQ11),LOG10(AQ15),LOG10(AQ19),LOG10(AQ23))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR79" t="e">
+        <v>0.12976095203546284</v>
+      </c>
+      <c r="AR79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS79" t="e">
+        <v>0.41388906957163341</v>
+      </c>
+      <c r="AS79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT79" t="e">
+        <v>0.16951956831600085</v>
+      </c>
+      <c r="AT79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU79" t="e">
+        <v>0.15578254414262122</v>
+      </c>
+      <c r="AU79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV79" t="e">
+        <v>0.15578254414262122</v>
+      </c>
+      <c r="AV79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW79" t="e">
+        <v>8.5759441050757085E-2</v>
+      </c>
+      <c r="AW79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX79" t="e">
+        <v>7.8673537403356322E-2</v>
+      </c>
+      <c r="AX79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY79" t="e">
+        <v>8.6934252728381817E-2</v>
+      </c>
+      <c r="AY79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ79" t="e">
+        <v>9.8294201606989692E-2</v>
+      </c>
+      <c r="AZ79">
         <f t="shared" si="50"/>
-        <v>#NUM!</v>
+        <v>7.7507718006151388E-2</v>
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.3">
@@ -18517,45 +18949,45 @@
         <f t="shared" si="52"/>
         <v>1.5332490728042913E-2</v>
       </c>
-      <c r="AQ80" t="e">
+      <c r="AQ80">
         <f t="shared" ref="AQ80:AZ80" si="53">AVEDEV(LOG10(AQ8),LOG10(AQ12),LOG10(AQ16),LOG10(AQ20),LOG10(AQ24))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR80" t="e">
+        <v>0.1013311150901047</v>
+      </c>
+      <c r="AR80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS80" t="e">
+        <v>0.31334357072232233</v>
+      </c>
+      <c r="AS80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT80" t="e">
+        <v>0.30394825218748817</v>
+      </c>
+      <c r="AT80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU80" t="e">
+        <v>0.3165607039934758</v>
+      </c>
+      <c r="AU80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV80" t="e">
+        <v>0.40940467751159187</v>
+      </c>
+      <c r="AV80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW80" t="e">
+        <v>5.8821070092130445E-2</v>
+      </c>
+      <c r="AW80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX80" t="e">
+        <v>8.616924073971037E-2</v>
+      </c>
+      <c r="AX80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY80" t="e">
+        <v>2.5867713310382245E-2</v>
+      </c>
+      <c r="AY80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ80" t="e">
+        <v>2.5867713310382245E-2</v>
+      </c>
+      <c r="AZ80">
         <f t="shared" si="53"/>
-        <v>#NUM!</v>
+        <v>2.5867713310382245E-2</v>
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.3">
@@ -18719,45 +19151,45 @@
         <f t="shared" si="55"/>
         <v>0.13684771269445345</v>
       </c>
-      <c r="AQ81" t="e">
+      <c r="AQ81">
         <f t="shared" ref="AQ81:AZ81" si="56">AVEDEV(LOG10(AQ9),LOG10(AQ13),LOG10(AQ17),LOG10(AQ21),LOG10(AQ25))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR81" t="e">
+        <v>0.1013311150901047</v>
+      </c>
+      <c r="AR81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS81" t="e">
+        <v>0.16576359092377507</v>
+      </c>
+      <c r="AS81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT81" t="e">
+        <v>0.32583526751174841</v>
+      </c>
+      <c r="AT81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU81" t="e">
+        <v>0.41539926593181109</v>
+      </c>
+      <c r="AU81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV81" t="e">
+        <v>0.37933149309414205</v>
+      </c>
+      <c r="AV81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW81" t="e">
+        <v>5.8821070092130445E-2</v>
+      </c>
+      <c r="AW81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX81" t="e">
+        <v>6.6190242095110527E-2</v>
+      </c>
+      <c r="AX81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY81" t="e">
+        <v>6.6191245299394602E-2</v>
+      </c>
+      <c r="AY81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ81" t="e">
+        <v>4.5579106618811017E-2</v>
+      </c>
+      <c r="AZ81">
         <f t="shared" si="56"/>
-        <v>#NUM!</v>
+        <v>5.0090905340745048E-2</v>
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.3">
@@ -18921,45 +19353,45 @@
         <f t="shared" si="59"/>
         <v>0.13643098624138522</v>
       </c>
-      <c r="AQ82" t="e">
+      <c r="AQ82">
         <f t="shared" ref="AQ82:AZ82" si="60">AVEDEV(LOG10(AQ10),LOG10(AQ14),LOG10(AQ18),LOG10(AQ22),LOG10(AQ26))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR82" t="e">
+        <v>0.10285001965551732</v>
+      </c>
+      <c r="AR82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS82" t="e">
+        <v>0.2374181542895486</v>
+      </c>
+      <c r="AS82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT82" t="e">
+        <v>0.24668025509849034</v>
+      </c>
+      <c r="AT82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU82" t="e">
+        <v>0.24188719567514153</v>
+      </c>
+      <c r="AU82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV82" t="e">
+        <v>0.15712741151714127</v>
+      </c>
+      <c r="AV82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW82" t="e">
+        <v>5.8925787032485855E-2</v>
+      </c>
+      <c r="AW82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX82" t="e">
+        <v>0.12829314444149534</v>
+      </c>
+      <c r="AX82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY82" t="e">
+        <v>9.111326363505623E-2</v>
+      </c>
+      <c r="AY82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ82" t="e">
+        <v>0.11648263087377406</v>
+      </c>
+      <c r="AZ82">
         <f t="shared" si="60"/>
-        <v>#NUM!</v>
+        <v>0.11648263087377406</v>
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.3">
@@ -19128,45 +19560,45 @@
         <f t="shared" si="64"/>
         <v>0.16808367370977101</v>
       </c>
-      <c r="AQ84" t="e">
+      <c r="AQ84">
         <f t="shared" ref="AQ84:AZ84" si="65">POWER(10, AQ74-AQ79)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR84" t="e">
+        <v>3.6134138833896504E-2</v>
+      </c>
+      <c r="AR84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS84" t="e">
+        <v>2.0177705068912016E-3</v>
+      </c>
+      <c r="AS84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT84" t="e">
+        <v>2.1682054743606322E-3</v>
+      </c>
+      <c r="AT84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU84" t="e">
+        <v>2.1940767768330897E-3</v>
+      </c>
+      <c r="AU84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV84" t="e">
+        <v>2.1940767768330897E-3</v>
+      </c>
+      <c r="AV84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW84" t="e">
+        <v>0.16432754515240677</v>
+      </c>
+      <c r="AW84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX84" t="e">
+        <v>0.12036998755255042</v>
+      </c>
+      <c r="AX84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY84" t="e">
+        <v>9.3374996458757964E-2</v>
+      </c>
+      <c r="AY84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ84" t="e">
+        <v>8.0214413295194839E-2</v>
+      </c>
+      <c r="AZ84">
         <f t="shared" si="65"/>
-        <v>#NUM!</v>
+        <v>7.8069340560096762E-2</v>
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.3">
@@ -19328,45 +19760,45 @@
         <f t="shared" si="69"/>
         <v>0.34887610140409731</v>
       </c>
-      <c r="AQ85" t="e">
+      <c r="AQ85">
         <f t="shared" ref="AQ85:AZ85" si="70">POWER(10, AQ74+AQ79)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR85" t="e">
+        <v>6.5680978311867533E-2</v>
+      </c>
+      <c r="AR85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS85" t="e">
+        <v>1.3572189317055269E-2</v>
+      </c>
+      <c r="AS85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT85" t="e">
+        <v>4.7330334440136984E-3</v>
+      </c>
+      <c r="AT85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU85" t="e">
+        <v>4.4959027545095516E-3</v>
+      </c>
+      <c r="AU85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV85" t="e">
+        <v>4.4959027545095516E-3</v>
+      </c>
+      <c r="AV85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW85" t="e">
+        <v>0.24390979971595206</v>
+      </c>
+      <c r="AW85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX85" t="e">
+        <v>0.17292798875280055</v>
+      </c>
+      <c r="AX85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY85" t="e">
+        <v>0.13934747505744785</v>
+      </c>
+      <c r="AY85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ85" t="e">
+        <v>0.12613651115252425</v>
+      </c>
+      <c r="AZ85">
         <f t="shared" si="70"/>
-        <v>#NUM!</v>
+        <v>0.11155677403330742</v>
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.3">
@@ -19530,45 +19962,45 @@
         <f t="shared" si="74"/>
         <v>0.32190604372925946</v>
       </c>
-      <c r="AQ86" t="e">
+      <c r="AQ86">
         <f t="shared" ref="AQ86:AZ86" si="75">POWER(10, AQ75-AQ80)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR86" t="e">
+        <v>2.9958896800612599E-2</v>
+      </c>
+      <c r="AR86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS86" t="e">
+        <v>1.0034466169960812E-2</v>
+      </c>
+      <c r="AS86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT86" t="e">
+        <v>9.7140714903617541E-3</v>
+      </c>
+      <c r="AT86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU86" t="e">
+        <v>6.7833396197179187E-3</v>
+      </c>
+      <c r="AU86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV86" t="e">
+        <v>3.3822077104180928E-3</v>
+      </c>
+      <c r="AV86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW86" t="e">
+        <v>0.1803596629911689</v>
+      </c>
+      <c r="AW86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX86" t="e">
+        <v>0.14241189646710545</v>
+      </c>
+      <c r="AX86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY86" t="e">
+        <v>0.13362040257463817</v>
+      </c>
+      <c r="AY86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ86" t="e">
+        <v>0.13362040257463817</v>
+      </c>
+      <c r="AZ86">
         <f t="shared" si="75"/>
-        <v>#NUM!</v>
+        <v>0.13362040257463817</v>
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.3">
@@ -19730,45 +20162,45 @@
         <f t="shared" si="79"/>
         <v>0.34545709131415564</v>
       </c>
-      <c r="AQ87" t="e">
+      <c r="AQ87">
         <f t="shared" ref="AQ87:AZ87" si="80">POWER(10, AQ75+AQ80)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR87" t="e">
+        <v>4.7773608600195382E-2</v>
+      </c>
+      <c r="AR87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS87" t="e">
+        <v>4.2479697413745472E-2</v>
+      </c>
+      <c r="AS87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT87" t="e">
+        <v>3.9382002888626706E-2</v>
+      </c>
+      <c r="AT87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU87" t="e">
+        <v>2.9145061045678496E-2</v>
+      </c>
+      <c r="AU87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV87" t="e">
+        <v>2.228484564387731E-2</v>
+      </c>
+      <c r="AV87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW87" t="e">
+        <v>0.23647299687933696</v>
+      </c>
+      <c r="AW87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX87" t="e">
+        <v>0.2117799060747225</v>
+      </c>
+      <c r="AX87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY87" t="e">
+        <v>0.15052484978984351</v>
+      </c>
+      <c r="AY87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ87" t="e">
+        <v>0.15052484978984351</v>
+      </c>
+      <c r="AZ87">
         <f t="shared" si="80"/>
-        <v>#NUM!</v>
+        <v>0.15052484978984351</v>
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.3">
@@ -19932,45 +20364,45 @@
         <f t="shared" si="84"/>
         <v>0.19058468983116578</v>
       </c>
-      <c r="AQ88" t="e">
+      <c r="AQ88">
         <f t="shared" ref="AQ88:AZ88" si="85">POWER(10, AQ76-AQ81)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR88" t="e">
+        <v>2.9958896800612599E-2</v>
+      </c>
+      <c r="AR88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS88" t="e">
+        <v>2.1419352282636916E-2</v>
+      </c>
+      <c r="AS88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT88" t="e">
+        <v>1.0476876349789622E-2</v>
+      </c>
+      <c r="AT88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU88" t="e">
+        <v>6.4138663602826872E-3</v>
+      </c>
+      <c r="AU88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV88" t="e">
+        <v>5.193153023387161E-3</v>
+      </c>
+      <c r="AV88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW88" t="e">
+        <v>0.1803596629911689</v>
+      </c>
+      <c r="AW88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX88" t="e">
+        <v>0.10469606632958753</v>
+      </c>
+      <c r="AX88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY88" t="e">
+        <v>9.2410344554118007E-2</v>
+      </c>
+      <c r="AY88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ88" t="e">
+        <v>7.9032153077634587E-2</v>
+      </c>
+      <c r="AZ88">
         <f t="shared" si="85"/>
-        <v>#NUM!</v>
+        <v>7.5032644737065793E-2</v>
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.3">
@@ -20132,45 +20564,45 @@
         <f t="shared" si="89"/>
         <v>0.35791791354678842</v>
       </c>
-      <c r="AQ89" t="e">
+      <c r="AQ89">
         <f t="shared" ref="AQ89:AZ89" si="90">POWER(10, AQ76+AQ81)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR89" t="e">
+        <v>4.7773608600195382E-2</v>
+      </c>
+      <c r="AR89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS89" t="e">
+        <v>4.5955078844646668E-2</v>
+      </c>
+      <c r="AS89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT89" t="e">
+        <v>4.6978846960347237E-2</v>
+      </c>
+      <c r="AT89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU89" t="e">
+        <v>4.3442862988029407E-2</v>
+      </c>
+      <c r="AU89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV89" t="e">
+        <v>2.9791619057457149E-2</v>
+      </c>
+      <c r="AV89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW89" t="e">
+        <v>0.23647299687933696</v>
+      </c>
+      <c r="AW89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX89" t="e">
+        <v>0.14200735837448983</v>
+      </c>
+      <c r="AX89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY89" t="e">
+        <v>0.12534386442460901</v>
+      </c>
+      <c r="AY89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ89" t="e">
+        <v>9.7490439184766978E-2</v>
+      </c>
+      <c r="AZ89">
         <f t="shared" si="90"/>
-        <v>#NUM!</v>
+        <v>9.4500055883754833E-2</v>
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.3">
@@ -20334,45 +20766,45 @@
         <f t="shared" si="94"/>
         <v>0.17797562974224468</v>
       </c>
-      <c r="AQ90" t="e">
+      <c r="AQ90">
         <f t="shared" ref="AQ90:AZ90" si="95">POWER(10, AQ77-AQ82)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR90" t="e">
+        <v>2.9724070430919368E-2</v>
+      </c>
+      <c r="AR90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS90" t="e">
+        <v>4.7681128564447282E-3</v>
+      </c>
+      <c r="AS90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT90" t="e">
+        <v>2.4231142532007825E-3</v>
+      </c>
+      <c r="AT90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU90" t="e">
+        <v>2.4275754422418629E-3</v>
+      </c>
+      <c r="AU90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV90" t="e">
+        <v>2.395923710496474E-3</v>
+      </c>
+      <c r="AV90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW90" t="e">
+        <v>0.18042490718170956</v>
+      </c>
+      <c r="AW90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX90" t="e">
+        <v>0.11412986868781926</v>
+      </c>
+      <c r="AX90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY90" t="e">
+        <v>0.1062863046552867</v>
+      </c>
+      <c r="AY90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ90" t="e">
+        <v>8.6633233138170562E-2</v>
+      </c>
+      <c r="AZ90">
         <f t="shared" si="95"/>
-        <v>#NUM!</v>
+        <v>8.6633233138170562E-2</v>
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.3">
@@ -20534,45 +20966,45 @@
         <f t="shared" si="99"/>
         <v>0.33359728756200446</v>
       </c>
-      <c r="AQ91" t="e">
+      <c r="AQ91">
         <f t="shared" ref="AQ91:AZ91" si="100">POWER(10, AQ77+AQ82)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR91" t="e">
+        <v>4.7731855917718044E-2</v>
+      </c>
+      <c r="AR91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS91" t="e">
+        <v>1.4229277030260678E-2</v>
+      </c>
+      <c r="AS91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT91" t="e">
+        <v>7.5463058383608301E-3</v>
+      </c>
+      <c r="AT91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU91" t="e">
+        <v>7.3951523725614907E-3</v>
+      </c>
+      <c r="AU91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV91" t="e">
+        <v>4.9400097767946715E-3</v>
+      </c>
+      <c r="AV91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW91" t="e">
+        <v>0.23667264512590744</v>
+      </c>
+      <c r="AW91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX91" t="e">
+        <v>0.20605616203375901</v>
+      </c>
+      <c r="AX91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY91" t="e">
+        <v>0.16169769724216174</v>
+      </c>
+      <c r="AY91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ91" t="e">
+        <v>0.14813230621351386</v>
+      </c>
+      <c r="AZ91">
         <f t="shared" si="100"/>
-        <v>#NUM!</v>
+        <v>0.14813230621351386</v>
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.3">
@@ -20738,45 +21170,45 @@
         <f t="shared" si="104"/>
         <v>0.16808367370977101</v>
       </c>
-      <c r="AQ93" t="e">
+      <c r="AQ93">
         <f t="shared" ref="AQ93:AZ93" si="105">AQ84</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR93" t="e">
+        <v>3.6134138833896504E-2</v>
+      </c>
+      <c r="AR93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS93" t="e">
+        <v>2.0177705068912016E-3</v>
+      </c>
+      <c r="AS93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT93" t="e">
+        <v>2.1682054743606322E-3</v>
+      </c>
+      <c r="AT93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU93" t="e">
+        <v>2.1940767768330897E-3</v>
+      </c>
+      <c r="AU93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV93" t="e">
+        <v>2.1940767768330897E-3</v>
+      </c>
+      <c r="AV93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW93" t="e">
+        <v>0.16432754515240677</v>
+      </c>
+      <c r="AW93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX93" t="e">
+        <v>0.12036998755255042</v>
+      </c>
+      <c r="AX93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY93" t="e">
+        <v>9.3374996458757964E-2</v>
+      </c>
+      <c r="AY93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ93" t="e">
+        <v>8.0214413295194839E-2</v>
+      </c>
+      <c r="AZ93">
         <f t="shared" si="105"/>
-        <v>#NUM!</v>
+        <v>7.8069340560096762E-2</v>
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.3">
@@ -20940,45 +21372,45 @@
         <f t="shared" si="109"/>
         <v>0.1807924276943263</v>
       </c>
-      <c r="AQ94" t="e">
+      <c r="AQ94">
         <f t="shared" ref="AQ94:AZ94" si="110">AQ85-AQ84</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR94" t="e">
+        <v>2.9546839477971029E-2</v>
+      </c>
+      <c r="AR94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS94" t="e">
+        <v>1.1554418810164068E-2</v>
+      </c>
+      <c r="AS94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT94" t="e">
+        <v>2.5648279696530662E-3</v>
+      </c>
+      <c r="AT94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU94" t="e">
+        <v>2.3018259776764619E-3</v>
+      </c>
+      <c r="AU94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV94" t="e">
+        <v>2.3018259776764619E-3</v>
+      </c>
+      <c r="AV94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW94" t="e">
+        <v>7.9582254563545285E-2</v>
+      </c>
+      <c r="AW94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX94" t="e">
+        <v>5.2558001200250129E-2</v>
+      </c>
+      <c r="AX94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY94" t="e">
+        <v>4.5972478598689887E-2</v>
+      </c>
+      <c r="AY94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ94" t="e">
+        <v>4.5922097857329411E-2</v>
+      </c>
+      <c r="AZ94">
         <f t="shared" si="110"/>
-        <v>#NUM!</v>
+        <v>3.3487433473210662E-2</v>
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.3">
@@ -21142,45 +21574,45 @@
         <f t="shared" si="114"/>
         <v>-2.6970057674837844E-2</v>
       </c>
-      <c r="AQ95" t="e">
+      <c r="AQ95">
         <f t="shared" ref="AQ95:AZ95" si="115">AQ86-AQ85</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR95" t="e">
+        <v>-3.572208151125493E-2</v>
+      </c>
+      <c r="AR95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS95" t="e">
+        <v>-3.5377231470944577E-3</v>
+      </c>
+      <c r="AS95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT95" t="e">
+        <v>4.9810380463480557E-3</v>
+      </c>
+      <c r="AT95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU95" t="e">
+        <v>2.2874368652083671E-3</v>
+      </c>
+      <c r="AU95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV95" t="e">
+        <v>-1.1136950440914588E-3</v>
+      </c>
+      <c r="AV95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW95" t="e">
+        <v>-6.3550136724783157E-2</v>
+      </c>
+      <c r="AW95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX95" t="e">
+        <v>-3.0516092285695101E-2</v>
+      </c>
+      <c r="AX95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY95" t="e">
+        <v>-5.7270724828096808E-3</v>
+      </c>
+      <c r="AY95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ95" t="e">
+        <v>7.4838914221139197E-3</v>
+      </c>
+      <c r="AZ95">
         <f t="shared" si="115"/>
-        <v>#NUM!</v>
+        <v>2.2063628541330746E-2</v>
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.3">
@@ -21344,45 +21776,45 @@
         <f t="shared" si="118"/>
         <v>2.3551047584896179E-2</v>
       </c>
-      <c r="AQ96" t="e">
+      <c r="AQ96">
         <f t="shared" ref="AQ96:AZ96" si="119">AQ87-AQ86</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR96" t="e">
+        <v>1.7814711799582782E-2</v>
+      </c>
+      <c r="AR96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS96" t="e">
+        <v>3.2445231243784664E-2</v>
+      </c>
+      <c r="AS96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT96" t="e">
+        <v>2.966793139826495E-2</v>
+      </c>
+      <c r="AT96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU96" t="e">
+        <v>2.2361721425960577E-2</v>
+      </c>
+      <c r="AU96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV96" t="e">
+        <v>1.8902637933459216E-2</v>
+      </c>
+      <c r="AV96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW96" t="e">
+        <v>5.6113333888168054E-2</v>
+      </c>
+      <c r="AW96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX96" t="e">
+        <v>6.9368009607617048E-2</v>
+      </c>
+      <c r="AX96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY96" t="e">
+        <v>1.6904447215205343E-2</v>
+      </c>
+      <c r="AY96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ96" t="e">
+        <v>1.6904447215205343E-2</v>
+      </c>
+      <c r="AZ96">
         <f t="shared" si="119"/>
-        <v>#NUM!</v>
+        <v>1.6904447215205343E-2</v>
       </c>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
@@ -21546,45 +21978,45 @@
         <f t="shared" si="121"/>
         <v>-0.15487240148298986</v>
       </c>
-      <c r="AQ97" t="e">
+      <c r="AQ97">
         <f t="shared" ref="AQ97:AZ97" si="122">AQ88-AQ87</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR97" t="e">
+        <v>-1.7814711799582782E-2</v>
+      </c>
+      <c r="AR97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS97" t="e">
+        <v>-2.1060345131108556E-2</v>
+      </c>
+      <c r="AS97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT97" t="e">
+        <v>-2.8905126538837082E-2</v>
+      </c>
+      <c r="AT97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU97" t="e">
+        <v>-2.2731194685395809E-2</v>
+      </c>
+      <c r="AU97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV97" t="e">
+        <v>-1.7091692620490151E-2</v>
+      </c>
+      <c r="AV97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW97" t="e">
+        <v>-5.6113333888168054E-2</v>
+      </c>
+      <c r="AW97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX97" t="e">
+        <v>-0.10708383974513497</v>
+      </c>
+      <c r="AX97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY97" t="e">
+        <v>-5.8114505235725505E-2</v>
+      </c>
+      <c r="AY97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ97" t="e">
+        <v>-7.1492696712208925E-2</v>
+      </c>
+      <c r="AZ97">
         <f t="shared" si="122"/>
-        <v>#NUM!</v>
+        <v>-7.5492205052777719E-2</v>
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
@@ -21748,45 +22180,45 @@
         <f t="shared" si="124"/>
         <v>0.16733322371562265</v>
       </c>
-      <c r="AQ98" t="e">
+      <c r="AQ98">
         <f t="shared" ref="AQ98:AZ98" si="125">AQ89-AQ88</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR98" t="e">
+        <v>1.7814711799582782E-2</v>
+      </c>
+      <c r="AR98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS98" t="e">
+        <v>2.4535726562009752E-2</v>
+      </c>
+      <c r="AS98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT98" t="e">
+        <v>3.6501970610557613E-2</v>
+      </c>
+      <c r="AT98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU98" t="e">
+        <v>3.7028996627746717E-2</v>
+      </c>
+      <c r="AU98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV98" t="e">
+        <v>2.4598466034069989E-2</v>
+      </c>
+      <c r="AV98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW98" t="e">
+        <v>5.6113333888168054E-2</v>
+      </c>
+      <c r="AW98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX98" t="e">
+        <v>3.73112920449023E-2</v>
+      </c>
+      <c r="AX98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY98" t="e">
+        <v>3.2933519870491007E-2</v>
+      </c>
+      <c r="AY98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ98" t="e">
+        <v>1.8458286107132391E-2</v>
+      </c>
+      <c r="AZ98">
         <f t="shared" si="125"/>
-        <v>#NUM!</v>
+        <v>1.946741114668904E-2</v>
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
@@ -21950,45 +22382,45 @@
         <f t="shared" si="127"/>
         <v>-0.17994228380454375</v>
       </c>
-      <c r="AQ99" t="e">
+      <c r="AQ99">
         <f t="shared" ref="AQ99:AZ99" si="128">AQ90-AQ89</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR99" t="e">
+        <v>-1.8049538169276014E-2</v>
+      </c>
+      <c r="AR99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS99" t="e">
+        <v>-4.1186965988201943E-2</v>
+      </c>
+      <c r="AS99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT99" t="e">
+        <v>-4.4555732707146453E-2</v>
+      </c>
+      <c r="AT99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU99" t="e">
+        <v>-4.1015287545787545E-2</v>
+      </c>
+      <c r="AU99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV99" t="e">
+        <v>-2.7395695346960673E-2</v>
+      </c>
+      <c r="AV99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW99" t="e">
+        <v>-5.6048089697627396E-2</v>
+      </c>
+      <c r="AW99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX99" t="e">
+        <v>-2.7877489686670573E-2</v>
+      </c>
+      <c r="AX99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY99" t="e">
+        <v>-1.9057559769322316E-2</v>
+      </c>
+      <c r="AY99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ99" t="e">
+        <v>-1.0857206046596415E-2</v>
+      </c>
+      <c r="AZ99">
         <f t="shared" si="128"/>
-        <v>#NUM!</v>
+        <v>-7.8668227455842704E-3</v>
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
@@ -22152,45 +22584,45 @@
         <f t="shared" si="130"/>
         <v>0.15562165781975978</v>
       </c>
-      <c r="AQ100" t="e">
+      <c r="AQ100">
         <f t="shared" ref="AQ100:AZ100" si="131">AQ91-AQ90</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AR100" t="e">
+        <v>1.8007785486798676E-2</v>
+      </c>
+      <c r="AR100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AS100" t="e">
+        <v>9.4611641738159488E-3</v>
+      </c>
+      <c r="AS100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT100" t="e">
+        <v>5.1231915851600481E-3</v>
+      </c>
+      <c r="AT100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AU100" t="e">
+        <v>4.9675769303196282E-3</v>
+      </c>
+      <c r="AU100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AV100" t="e">
+        <v>2.5440860662981975E-3</v>
+      </c>
+      <c r="AV100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AW100" t="e">
+        <v>5.6247737944197879E-2</v>
+      </c>
+      <c r="AW100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AX100" t="e">
+        <v>9.1926293345939755E-2</v>
+      </c>
+      <c r="AX100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AY100" t="e">
+        <v>5.5411392586875038E-2</v>
+      </c>
+      <c r="AY100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ100" t="e">
+        <v>6.1499073075343302E-2</v>
+      </c>
+      <c r="AZ100">
         <f t="shared" si="131"/>
-        <v>#NUM!</v>
+        <v>6.1499073075343302E-2</v>
       </c>
     </row>
   </sheetData>

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB20D3-BF74-42E0-903D-03C59219A43E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278209D-CF16-4B25-A0D7-F3BDD7AC5615}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="161">
   <si>
     <t>Algorithm</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Optimum</t>
-  </si>
-  <si>
-    <t>YaleB</t>
   </si>
   <si>
     <t>Scenario 0</t>
@@ -294,9 +291,6 @@
     <t>i2_min</t>
   </si>
   <si>
-    <t>i2_max2</t>
-  </si>
-  <si>
     <t>Python3.5 (local)</t>
   </si>
   <si>
@@ -493,6 +487,18 @@
   </si>
   <si>
     <t>o_factor</t>
+  </si>
+  <si>
+    <t>^ In case of dummy, 2nd best was used</t>
+  </si>
+  <si>
+    <t>yaleB</t>
+  </si>
+  <si>
+    <t>i1_max</t>
+  </si>
+  <si>
+    <t>&lt; All re-evals done with Pyhon3.5</t>
   </si>
 </sst>
 </file>
@@ -21256,7 +21262,7 @@
       <calculatedColumnFormula>10^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{6BD9BC66-B461-43FE-8FCF-EE6DCBC72A96}" name="i1_min"/>
-    <tableColumn id="12" xr3:uid="{84476E16-3370-4B85-B766-6A6FE5147F97}" name="i2_max"/>
+    <tableColumn id="12" xr3:uid="{84476E16-3370-4B85-B766-6A6FE5147F97}" name="i1_max"/>
     <tableColumn id="13" xr3:uid="{CABEDB27-35F9-458B-9D7A-0337E2148594}" name="a2_min">
       <calculatedColumnFormula>10^0</calculatedColumnFormula>
     </tableColumn>
@@ -21264,7 +21270,7 @@
       <calculatedColumnFormula>10^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{E8C65F8C-DCEC-45AB-9C33-C0EE0EEC6D16}" name="i2_min"/>
-    <tableColumn id="16" xr3:uid="{654EB017-AFCF-423B-A3DF-971634304CF4}" name="i2_max2" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{654EB017-AFCF-423B-A3DF-971634304CF4}" name="i2_max" dataDxfId="16"/>
     <tableColumn id="17" xr3:uid="{F1B5EE51-2F0E-4154-B129-5AC962EE57AC}" name="m_error" dataDxfId="15"/>
     <tableColumn id="18" xr3:uid="{0F9C365A-A5F6-4966-93F2-3D347586FF8E}" name="m_lr_prtr"/>
     <tableColumn id="19" xr3:uid="{4067613D-3729-4F8C-84A8-334F13889526}" name="m_lr"/>
@@ -21277,7 +21283,7 @@
     <tableColumn id="28" xr3:uid="{4B38D253-C2CD-4576-9063-A543C71D8605}" name="m_102"/>
     <tableColumn id="29" xr3:uid="{6D0A127F-B800-48AF-9B8E-B9345289C8CF}" name="m_103"/>
     <tableColumn id="30" xr3:uid="{6CDF9D63-D2F3-41D6-AD0B-05A360DEF902}" name="m_104"/>
-    <tableColumn id="31" xr3:uid="{CA369538-3236-43E6-964E-146A1B0485DD}" name="m_avg" dataDxfId="1">
+    <tableColumn id="31" xr3:uid="{CA369538-3236-43E6-964E-146A1B0485DD}" name="m_avg" dataDxfId="2">
       <calculatedColumnFormula>POWER(Table2[[#This Row],[m_100]]*Table2[[#This Row],[m_101]]*Table2[[#This Row],[m_102]]*Table2[[#This Row],[m_103]]*Table2[[#This Row],[m_104]], 0.2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="32" xr3:uid="{A3D2E1A3-B0A5-43A1-9059-ABDF52E991E1}" name="m_factor" dataDxfId="12">
@@ -21295,11 +21301,11 @@
     <tableColumn id="42" xr3:uid="{008D91E5-2435-4988-94E5-8ED001682B6E}" name="o_102"/>
     <tableColumn id="43" xr3:uid="{83388950-CA3A-4221-A19A-812286D2CDC2}" name="o_103"/>
     <tableColumn id="44" xr3:uid="{77EFE11E-00CC-46C0-BD0A-77FFCF8B643A}" name="o_104"/>
-    <tableColumn id="45" xr3:uid="{5E4725B5-3BE3-49F5-B376-1E7691EDCAE4}" name="o_avg" dataDxfId="0">
+    <tableColumn id="45" xr3:uid="{5E4725B5-3BE3-49F5-B376-1E7691EDCAE4}" name="o_avg" dataDxfId="1">
       <calculatedColumnFormula>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{6AE610D8-3283-44D5-BEA3-CE564B0C3B9E}" name="o_factor" dataDxfId="2">
-      <calculatedColumnFormula>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</calculatedColumnFormula>
+    <tableColumn id="46" xr3:uid="{6AE610D8-3283-44D5-BEA3-CE564B0C3B9E}" name="o_factor" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -21571,8 +21577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z32" workbookViewId="0">
-      <selection activeCell="AR37" sqref="AR37"/>
+    <sheetView tabSelected="1" topLeftCell="X31" workbookViewId="0">
+      <selection activeCell="AR36" sqref="AR36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21613,28 +21619,28 @@
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="78"/>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
       <c r="H1" s="79"/>
       <c r="I1" s="86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
       <c r="L1" s="87"/>
       <c r="M1" s="87"/>
       <c r="N1" s="88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="89"/>
       <c r="P1" s="89"/>
       <c r="Q1" s="89"/>
       <c r="R1" s="89"/>
       <c r="S1" s="84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T1" s="85"/>
       <c r="U1" s="85"/>
@@ -21646,7 +21652,7 @@
       <c r="AA1" s="85"/>
       <c r="AB1" s="85"/>
       <c r="AC1" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="63"/>
       <c r="AE1" s="63"/>
@@ -21662,28 +21668,28 @@
       <c r="AO1" s="63"/>
       <c r="AP1" s="63"/>
       <c r="AQ1" s="64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AR1" s="65"/>
       <c r="AS1" s="65"/>
       <c r="AT1" s="65"/>
       <c r="AU1" s="65"/>
       <c r="AV1" s="66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AW1" s="67"/>
       <c r="AX1" s="67"/>
       <c r="AY1" s="67"/>
       <c r="AZ1" s="67"/>
       <c r="BA1" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BB1" s="58"/>
       <c r="BC1" s="58"/>
       <c r="BD1" s="58"/>
       <c r="BE1" s="58"/>
       <c r="BF1" s="59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BG1" s="60"/>
       <c r="BH1" s="60"/>
@@ -21699,186 +21705,186 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="S2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="X2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="AC2" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AE2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="AF2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AH2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="28" t="s">
+      <c r="AI2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="28" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="28" t="s">
+      <c r="AK2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="28" t="s">
+      <c r="AL2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="28" t="s">
-        <v>74</v>
-      </c>
       <c r="AM2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="28" t="s">
+      <c r="AO2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AP2" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="28" t="s">
-        <v>79</v>
-      </c>
       <c r="AQ2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AR2" s="32" t="s">
+      <c r="AT2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AS2" s="32" t="s">
+      <c r="AU2" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AT2" s="32" t="s">
+      <c r="AV2" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AU2" s="32" t="s">
+      <c r="AW2" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AX2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AW2" s="34" t="s">
+      <c r="AY2" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="AX2" s="34" t="s">
+      <c r="AZ2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AY2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ2" s="34" t="s">
-        <v>106</v>
-      </c>
       <c r="BA2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="BB2" s="35" t="s">
+      <c r="BD2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="BC2" s="35" t="s">
+      <c r="BE2" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="BD2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="BE2" s="35" t="s">
-        <v>114</v>
-      </c>
       <c r="BF2" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG2" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH2" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="BG2" s="38" t="s">
+      <c r="BI2" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="BH2" s="38" t="s">
+      <c r="BJ2" s="38" t="s">
         <v>124</v>
-      </c>
-      <c r="BI2" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ2" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -22860,7 +22866,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="str">
         <f>B3</f>
@@ -23614,7 +23620,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="str">
         <f>B3</f>
@@ -24368,7 +24374,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="str">
         <f>B3</f>
@@ -25122,7 +25128,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" s="73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="str">
         <f>B3</f>
@@ -25876,7 +25882,7 @@
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="str">
         <f>B3</f>
@@ -26646,10 +26652,10 @@
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AC28" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
@@ -26667,10 +26673,10 @@
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
@@ -26688,10 +26694,10 @@
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
@@ -26749,7 +26755,7 @@
       <c r="Q32" s="75"/>
       <c r="R32" s="91"/>
       <c r="S32" s="76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
@@ -26758,7 +26764,7 @@
       <c r="X32" s="76"/>
       <c r="Y32" s="76"/>
       <c r="Z32" s="68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AA32" s="69"/>
       <c r="AB32" s="69"/>
@@ -26776,7 +26782,7 @@
       <c r="AL32" s="95"/>
       <c r="AM32" s="95"/>
       <c r="AN32" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AO32" s="60"/>
       <c r="AP32" s="60"/>
@@ -26785,18 +26791,18 @@
       <c r="AS32" s="60"/>
       <c r="AT32" s="60"/>
     </row>
-    <row r="33" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>13</v>
@@ -26805,135 +26811,135 @@
         <v>14</v>
       </c>
       <c r="G33" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="I33" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="J33" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="J33" s="54" t="s">
+      <c r="K33" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="54" t="s">
+      <c r="L33" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="L33" s="54" t="s">
+      <c r="M33" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="54" t="s">
+      <c r="N33" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="O33" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="N33" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="O33" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="P33" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q33" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="R33" s="90" t="s">
-        <v>92</v>
-      </c>
       <c r="S33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U33" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="V33" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="W33" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="X33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="Y33" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="X33" s="5" t="s">
+      <c r="Z33" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="Y33" s="5" t="s">
+      <c r="AA33" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="Z33" s="55" t="s">
+      <c r="AB33" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="AA33" s="56" t="s">
+      <c r="AC33" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="AB33" s="56" t="s">
+      <c r="AD33" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="AC33" s="56" t="s">
+      <c r="AE33" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AD33" s="56" t="s">
+      <c r="AF33" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="AE33" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF33" s="92" t="s">
+      <c r="AG33" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="AG33" s="96" t="s">
+      <c r="AH33" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI33" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="AH33" s="96" t="s">
+      <c r="AJ33" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="AI33" s="96" t="s">
+      <c r="AK33" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="AJ33" s="96" t="s">
+      <c r="AL33" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="AK33" s="96" t="s">
+      <c r="AM33" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="AL33" s="96" t="s">
+      <c r="AN33" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="AM33" s="96" t="s">
+      <c r="AO33" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="AN33" s="38" t="s">
+      <c r="AP33" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="AO33" s="38" t="s">
+      <c r="AQ33" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="AP33" s="38" t="s">
+      <c r="AR33" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="AQ33" s="38" t="s">
+      <c r="AS33" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="AR33" s="38" t="s">
+      <c r="AT33" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AS33" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT33" s="38" t="s">
-        <v>158</v>
-      </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D34" s="12">
         <v>10</v>
@@ -27032,36 +27038,63 @@
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>5.8873707449335972</v>
       </c>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
+      <c r="AG34" s="12">
+        <v>0.48961178200430799</v>
+      </c>
+      <c r="AH34" s="12">
+        <v>0.159632018774199</v>
+      </c>
+      <c r="AI34" s="12">
+        <v>2.9836235259774399E-2</v>
+      </c>
+      <c r="AJ34" s="12">
+        <v>43.375743071130401</v>
+      </c>
+      <c r="AK34" s="12">
+        <v>30</v>
+      </c>
+      <c r="AL34" s="12">
+        <v>1.0730399939453901</v>
+      </c>
+      <c r="AM34" s="12">
+        <v>32</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>2.8936170212765899E-2</v>
+      </c>
+      <c r="AO34" s="12">
+        <v>1.4893617021276499E-2</v>
+      </c>
+      <c r="AP34" s="12">
+        <v>8.5106382978723492E-3</v>
+      </c>
+      <c r="AQ34" s="12">
+        <v>0.36297872340425502</v>
+      </c>
+      <c r="AR34" s="12">
+        <v>8.9361702127659301E-3</v>
+      </c>
       <c r="AS34" s="12">
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
-        <v>0</v>
-      </c>
-      <c r="AT34" s="12" t="e">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>#DIV/0!</v>
+        <v>2.6006816505040192E-2</v>
+      </c>
+      <c r="AT34" s="12">
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>20.005243465415532</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35" s="43">
         <v>1</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D35" s="12">
         <v>10</v>
@@ -27160,36 +27193,60 @@
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>3.2092112825858363</v>
       </c>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="12"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
+      <c r="AG35" s="12">
+        <v>0.27524933167794602</v>
+      </c>
+      <c r="AH35" s="12">
+        <v>0.16051911333587601</v>
+      </c>
+      <c r="AI35" s="12">
+        <v>5.9985500810106097E-3</v>
+      </c>
+      <c r="AJ35" s="12">
+        <v>70.242690360927099</v>
+      </c>
+      <c r="AK35" s="12">
+        <v>14</v>
+      </c>
+      <c r="AL35" s="12">
+        <v>8.9910318728818908</v>
+      </c>
+      <c r="AM35" s="12">
+        <v>32</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>1.7021276595744401E-3</v>
+      </c>
+      <c r="AO35" s="12">
+        <v>3.8297872340425899E-3</v>
+      </c>
+      <c r="AP35" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AQ35" s="12">
+        <v>2.1276595744680301E-3</v>
+      </c>
+      <c r="AR35" s="12">
+        <v>1.91489361702127E-2</v>
+      </c>
       <c r="AS35" s="12">
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
-        <v>0</v>
-      </c>
-      <c r="AT35" s="12" t="e">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>#DIV/0!</v>
+        <v>6.3863793533167892E-3</v>
+      </c>
+      <c r="AT35" s="12">
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>7.0959770592408775</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="44">
         <v>2</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="12">
         <v>10</v>
@@ -27288,36 +27345,58 @@
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>8.0772925851646082</v>
       </c>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="12"/>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
-      <c r="AM36" s="12"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="12"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="12"/>
+      <c r="AG36" s="12">
+        <v>0.72566976394215799</v>
+      </c>
+      <c r="AH36" s="12">
+        <v>5.7233463773438799E-3</v>
+      </c>
+      <c r="AI36" s="20">
+        <v>6.9605407954603598E-4</v>
+      </c>
+      <c r="AJ36" s="12">
+        <v>1.0686885283416501</v>
+      </c>
+      <c r="AK36" s="12">
+        <v>85</v>
+      </c>
+      <c r="AL36" s="12">
+        <v>2.5275463546375301</v>
+      </c>
+      <c r="AM36" s="12">
+        <v>100</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>0.94930555555555496</v>
+      </c>
+      <c r="AO36" s="12">
+        <v>0.94930555555555496</v>
+      </c>
+      <c r="AP36" s="12">
+        <v>0.94930555555555496</v>
+      </c>
+      <c r="AQ36" s="12">
+        <v>0.94930555555555496</v>
+      </c>
       <c r="AR36" s="12"/>
       <c r="AS36" s="12">
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AT36" s="12" t="e">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>#DIV/0!</v>
+      <c r="AT36" s="12">
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37" s="45">
         <v>3</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="12">
         <v>10</v>
@@ -27449,25 +27528,27 @@
       <c r="AQ37" s="12">
         <v>0.78472222222222199</v>
       </c>
-      <c r="AR37" s="12"/>
+      <c r="AR37" s="12">
+        <v>0.85694444444444395</v>
+      </c>
       <c r="AS37" s="12">
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
-        <v>0</v>
+        <v>0.64018216102567316</v>
       </c>
       <c r="AT37" s="12">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>0</v>
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>5.6905080980059832</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="46">
         <v>4</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="12">
         <v>50</v>
@@ -27572,41 +27653,41 @@
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AT38" s="12" t="e">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>#DIV/0!</v>
+      <c r="AT38" s="12">
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>5</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D39" s="12">
         <v>10</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K39" s="12">
         <f>10^-1</f>
@@ -27623,25 +27704,25 @@
         <v>200</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S39" s="12">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V39" s="12">
         <v>10.7984432942895</v>
@@ -27650,10 +27731,10 @@
         <v>200</v>
       </c>
       <c r="X39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y39" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="12"/>
@@ -27684,41 +27765,41 @@
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AT39" s="12" t="e">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>#DIV/0!</v>
+      <c r="AT39" s="12">
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="48">
         <v>6</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="12">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K40" s="12">
         <f>10^-1</f>
@@ -27735,33 +27816,33 @@
         <v>200</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S40" s="12">
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="12"/>
@@ -27792,20 +27873,20 @@
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AT40" s="12" t="e">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>#DIV/0!</v>
+      <c r="AT40" s="12">
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="49">
         <v>7</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D41" s="12">
         <v>10</v>
@@ -27833,16 +27914,16 @@
         <v>0.1</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O41" s="12">
         <f>10^0</f>
@@ -27868,10 +27949,10 @@
         <v>1.65021934868993E-2</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W41" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X41" s="12">
         <v>19.077326469266001</v>
@@ -27908,20 +27989,20 @@
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AT41" s="20" t="e">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>#DIV/0!</v>
+      <c r="AT41" s="20">
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42" s="50">
         <v>8</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
@@ -27949,16 +28030,16 @@
         <v>0.1</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O42" s="12">
         <f>10^-1</f>
@@ -27984,10 +28065,10 @@
         <v>9.4600703514308097E-5</v>
       </c>
       <c r="V42" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X42" s="12">
         <v>6.9041883127713701</v>
@@ -28024,17 +28105,22 @@
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AT42" s="20" t="e">
-        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[o_error]]</f>
-        <v>#DIV/0!</v>
+      <c r="AT42" s="20">
+        <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AN44" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A76" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:Y76" si="47">AVERAGE(LOG10(D7),LOG10(D11),LOG10(D15),LOG10(D19),LOG10(D23))</f>
@@ -28276,7 +28362,7 @@
     <row r="77" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A77" s="82"/>
       <c r="B77" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77">
         <f t="shared" ref="D77:Y77" si="53">AVERAGE(LOG10(D8),LOG10(D12),LOG10(D16),LOG10(D20),LOG10(D24))</f>
@@ -28518,7 +28604,7 @@
     <row r="78" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A78" s="82"/>
       <c r="B78" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D78">
         <f t="shared" ref="D78:Y78" si="59">AVERAGE(LOG10(D9),LOG10(D13),LOG10(D17),LOG10(D21),LOG10(D25))</f>
@@ -28760,7 +28846,7 @@
     <row r="79" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A79" s="82"/>
       <c r="B79" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D79">
         <f t="shared" ref="D79:Y79" si="64">AVERAGE(LOG10(D10),LOG10(D14),LOG10(D18),LOG10(D22),LOG10(D26))</f>
@@ -29001,10 +29087,10 @@
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A81" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:Y81" si="71">AVEDEV(LOG10(D7),LOG10(D11),LOG10(D15),LOG10(D19),LOG10(D23))</f>
@@ -29246,7 +29332,7 @@
     <row r="82" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A82" s="82"/>
       <c r="B82" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82">
         <f t="shared" ref="D82:Y82" si="77">AVEDEV(LOG10(D8),LOG10(D12),LOG10(D16),LOG10(D20),LOG10(D24))</f>
@@ -29488,7 +29574,7 @@
     <row r="83" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A83" s="82"/>
       <c r="B83" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D83">
         <f t="shared" ref="D83:Y83" si="83">AVEDEV(LOG10(D9),LOG10(D13),LOG10(D17),LOG10(D21),LOG10(D25))</f>
@@ -29730,7 +29816,7 @@
     <row r="84" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A84" s="82"/>
       <c r="B84" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84">
         <f t="shared" ref="D84:Y84" si="88">AVEDEV(LOG10(D10),LOG10(D14),LOG10(D18),LOG10(D22),LOG10(D26))</f>
@@ -29974,10 +30060,10 @@
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A86" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D86">
         <f t="shared" ref="D86:G86" si="95">POWER(10, D76-D81)</f>
@@ -30459,7 +30545,7 @@
     <row r="88" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A88" s="82"/>
       <c r="B88" s="83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:G88" si="109">POWER(10, D77-D82)</f>
@@ -30941,7 +31027,7 @@
     <row r="90" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A90" s="82"/>
       <c r="B90" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D90">
         <f t="shared" ref="D90:G90" si="123">POWER(10, D78-D83)</f>
@@ -31423,7 +31509,7 @@
     <row r="92" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A92" s="82"/>
       <c r="B92" s="83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92">
         <f t="shared" ref="D92:G92" si="137">POWER(10, D79-D84)</f>
@@ -31904,10 +31990,10 @@
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A95" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:G95" si="151">D86</f>
@@ -32149,7 +32235,7 @@
     <row r="96" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A96" s="82"/>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D96">
         <f t="shared" ref="D96:G96" si="158">D87-D86</f>
@@ -32391,7 +32477,7 @@
     <row r="97" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A97" s="82"/>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D97">
         <f t="shared" ref="D97:G102" si="165">D88-D87</f>
@@ -32633,7 +32719,7 @@
     <row r="98" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A98" s="82"/>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D98">
         <f t="shared" si="165"/>
@@ -32875,7 +32961,7 @@
     <row r="99" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A99" s="82"/>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D99">
         <f t="shared" si="165"/>
@@ -33117,7 +33203,7 @@
     <row r="100" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A100" s="82"/>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D100">
         <f t="shared" si="165"/>
@@ -33359,7 +33445,7 @@
     <row r="101" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A101" s="82"/>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101">
         <f t="shared" si="165"/>
@@ -33601,7 +33687,7 @@
     <row r="102" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A102" s="82"/>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D102">
         <f t="shared" si="165"/>
@@ -34630,10 +34716,10 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
       </c>
       <c r="F1" s="2">
         <v>-1</v>
@@ -34761,10 +34847,10 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3">
@@ -34934,7 +35020,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -35069,7 +35155,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>1.05</v>

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278209D-CF16-4B25-A0D7-F3BDD7AC5615}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9C919-E86D-4F36-A688-684CA7C9EFF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,16 +944,68 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,33 +1029,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1012,18 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,19 +1056,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,61 +1068,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1134,16 +1089,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1499,6 +1445,60 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -21122,128 +21122,128 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:BJ26" totalsRowShown="0" headerRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84E8075-E88E-4D35-95AC-BF472FDE9436}" name="Table1" displayName="Table1" ref="B2:BJ26" totalsRowShown="0" headerRowBorderDxfId="64">
   <autoFilter ref="B2:BJ26" xr:uid="{65291EA1-73A1-4CEB-96E8-6BA55D103CDB}"/>
   <tableColumns count="61">
     <tableColumn id="2" xr3:uid="{C5D03F94-B59B-4111-B686-B3565B731BE0}" name="Function"/>
     <tableColumn id="13" xr3:uid="{E5FFF603-2140-4CBD-A5E2-FB1006364FE6}" name="Parameters"/>
-    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="72">
+    <tableColumn id="9" xr3:uid="{C4861B6F-B568-407D-B892-2061A010F86C}" name="0_10" dataDxfId="63">
       <calculatedColumnFormula>AVERAGE(D7,D11,D15,D19,D23)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{F88D4F9B-E105-4A58-BFBF-4B1365F156B2}" name="0_20"/>
     <tableColumn id="11" xr3:uid="{EC850DC3-872A-4EB6-A640-58622D992ECE}" name="0_30"/>
     <tableColumn id="12" xr3:uid="{3BCAE892-48B5-4026-87EF-DD0B1C67CEA9}" name="0_40"/>
     <tableColumn id="14" xr3:uid="{7979ACA1-BADA-4348-8B51-C28AD9AC9DC4}" name="0_50"/>
-    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="71"/>
+    <tableColumn id="15" xr3:uid="{E297CFB1-7B7F-4157-8755-6AB30F299D08}" name="1_10" dataDxfId="62"/>
     <tableColumn id="16" xr3:uid="{2963D26E-B527-4009-82A3-456B51C513FA}" name="1_20"/>
     <tableColumn id="17" xr3:uid="{5F12FDBB-B6D3-41D5-A3E8-4C7491D3E3A4}" name="1_30"/>
     <tableColumn id="18" xr3:uid="{E1D4DE2A-337D-413B-9569-8907A74F5FB9}" name="1_40"/>
     <tableColumn id="19" xr3:uid="{0CB7B969-7FCA-450C-BFF4-B282D45DB3F0}" name="1_50"/>
-    <tableColumn id="20" xr3:uid="{25C161C7-3A5F-46F9-A58E-E50C40E695E9}" name="2_10" dataDxfId="70">
+    <tableColumn id="20" xr3:uid="{25C161C7-3A5F-46F9-A58E-E50C40E695E9}" name="2_10" dataDxfId="61">
       <calculatedColumnFormula>AVERAGE(N7,N11,N15,N19,N23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{92C77FFB-822C-4C4C-872C-434257092BAB}" name="2_20" dataDxfId="69">
+    <tableColumn id="21" xr3:uid="{92C77FFB-822C-4C4C-872C-434257092BAB}" name="2_20" dataDxfId="60">
       <calculatedColumnFormula>AVERAGE(O7,O11,O15,O19,O23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F58CD74E-3C9C-455A-A6C0-47979DA875CC}" name="2_30" dataDxfId="68">
+    <tableColumn id="22" xr3:uid="{F58CD74E-3C9C-455A-A6C0-47979DA875CC}" name="2_30" dataDxfId="59">
       <calculatedColumnFormula>AVERAGE(P7,P11,P15,P19,P23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{218B8C4F-D760-41D0-B96D-65C6EAF8CF93}" name="2_40" dataDxfId="67">
+    <tableColumn id="23" xr3:uid="{218B8C4F-D760-41D0-B96D-65C6EAF8CF93}" name="2_40" dataDxfId="58">
       <calculatedColumnFormula>AVERAGE(Q7,Q11,Q15,Q19,Q23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{E571C054-FEDA-48EE-B9CA-C0D2C945CC62}" name="2_50" dataDxfId="66">
+    <tableColumn id="24" xr3:uid="{E571C054-FEDA-48EE-B9CA-C0D2C945CC62}" name="2_50" dataDxfId="57">
       <calculatedColumnFormula>AVERAGE(R7,R11,R15,R19,R23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{65AC0F3E-819B-434F-A1FB-22A82A16F3B5}" name="3_10" dataDxfId="65"/>
-    <tableColumn id="26" xr3:uid="{261E4D8B-13D7-468B-B2D5-9E4351F4C087}" name="3_20" dataDxfId="64"/>
-    <tableColumn id="27" xr3:uid="{C52A27CE-0F57-4E93-8037-A96CCF29B592}" name="3_30" dataDxfId="63"/>
-    <tableColumn id="28" xr3:uid="{D92C4A5A-4403-46AF-9D8E-47D0CAADFA40}" name="3_40" dataDxfId="62"/>
-    <tableColumn id="29" xr3:uid="{50105550-BCDB-4867-B880-55D0C021143E}" name="3_50" dataDxfId="61"/>
-    <tableColumn id="1" xr3:uid="{C0737663-FA87-49B0-90F7-45D5039674EF}" name="3_60" dataDxfId="60">
+    <tableColumn id="25" xr3:uid="{65AC0F3E-819B-434F-A1FB-22A82A16F3B5}" name="3_10" dataDxfId="56"/>
+    <tableColumn id="26" xr3:uid="{261E4D8B-13D7-468B-B2D5-9E4351F4C087}" name="3_20" dataDxfId="55"/>
+    <tableColumn id="27" xr3:uid="{C52A27CE-0F57-4E93-8037-A96CCF29B592}" name="3_30" dataDxfId="54"/>
+    <tableColumn id="28" xr3:uid="{D92C4A5A-4403-46AF-9D8E-47D0CAADFA40}" name="3_40" dataDxfId="53"/>
+    <tableColumn id="29" xr3:uid="{50105550-BCDB-4867-B880-55D0C021143E}" name="3_50" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{C0737663-FA87-49B0-90F7-45D5039674EF}" name="3_60" dataDxfId="51">
       <calculatedColumnFormula>AVERAGE(X7,X11,X15,X19,X23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{63A8CBCD-AC26-4DA7-A250-1577CB9D4075}" name="3_70" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{63A8CBCD-AC26-4DA7-A250-1577CB9D4075}" name="3_70" dataDxfId="50">
       <calculatedColumnFormula>AVERAGE(Y7,Y11,Y15,Y19,Y23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CDE6D331-A76C-4BA8-829A-44E5A0EC4005}" name="3_80" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{CDE6D331-A76C-4BA8-829A-44E5A0EC4005}" name="3_80" dataDxfId="49">
       <calculatedColumnFormula>AVERAGE(Z7,Z11,Z15,Z19,Z23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B419A679-1103-4029-B1ED-20343920C68E}" name="3_90" dataDxfId="57">
+    <tableColumn id="5" xr3:uid="{B419A679-1103-4029-B1ED-20343920C68E}" name="3_90" dataDxfId="48">
       <calculatedColumnFormula>AVERAGE(AA7,AA11,AA15,AA19,AA23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CD4E167-BE63-4E5A-B882-4C3E124FFD45}" name="3_100" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{9CD4E167-BE63-4E5A-B882-4C3E124FFD45}" name="3_100" dataDxfId="47">
       <calculatedColumnFormula>AVERAGE(AB7,AB11,AB15,AB19,AB23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E194A973-2510-430A-A655-4B3365673F8D}" name="4_10" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{A0BCD9F9-4D4C-45E7-94CF-2C4FF3B79ECA}" name="4_20" dataDxfId="54"/>
-    <tableColumn id="30" xr3:uid="{0A52E618-54A6-4DDD-AEAB-040A88521FFA}" name="4_30" dataDxfId="53"/>
-    <tableColumn id="31" xr3:uid="{BE1012C1-626A-46C3-877B-782FF0860218}" name="4_40" dataDxfId="52"/>
-    <tableColumn id="32" xr3:uid="{50128583-E939-4B27-AD92-5CEB0B7FF96A}" name="4_50" dataDxfId="51"/>
-    <tableColumn id="33" xr3:uid="{6195493A-456C-4C44-B9DF-98C9E8089751}" name="4_60" dataDxfId="50"/>
-    <tableColumn id="34" xr3:uid="{F1866EC0-083A-4F3B-AAF0-1803F6C2B42D}" name="4_70" dataDxfId="49"/>
-    <tableColumn id="35" xr3:uid="{390B86C6-69D4-4564-A935-E4BBC7D4F8A8}" name="4_80" dataDxfId="48"/>
-    <tableColumn id="36" xr3:uid="{ED9FE248-14EB-42CF-8AFF-391EA4286262}" name="4_90" dataDxfId="47"/>
-    <tableColumn id="37" xr3:uid="{BFC40A70-E504-48C8-A79E-E22CE33976C8}" name="4_100" dataDxfId="46"/>
-    <tableColumn id="38" xr3:uid="{D1D0FFC6-7CF1-4652-AF82-51A34D2E3AC6}" name="4_110" dataDxfId="45"/>
-    <tableColumn id="39" xr3:uid="{2CC579AC-3DD3-4001-B56D-1DC2C1A263FD}" name="4_120" dataDxfId="44"/>
-    <tableColumn id="40" xr3:uid="{315AC0DD-39C8-43D0-86E0-4D2C4623DE0D}" name="4_130" dataDxfId="43"/>
-    <tableColumn id="41" xr3:uid="{2425FD79-EBB2-46B1-B304-D934B2D7D102}" name="4_140" dataDxfId="42"/>
-    <tableColumn id="42" xr3:uid="{C609FC1A-078F-49A3-9596-48806045D458}" name="5_10" dataDxfId="41">
+    <tableColumn id="7" xr3:uid="{E194A973-2510-430A-A655-4B3365673F8D}" name="4_10" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{A0BCD9F9-4D4C-45E7-94CF-2C4FF3B79ECA}" name="4_20" dataDxfId="45"/>
+    <tableColumn id="30" xr3:uid="{0A52E618-54A6-4DDD-AEAB-040A88521FFA}" name="4_30" dataDxfId="44"/>
+    <tableColumn id="31" xr3:uid="{BE1012C1-626A-46C3-877B-782FF0860218}" name="4_40" dataDxfId="43"/>
+    <tableColumn id="32" xr3:uid="{50128583-E939-4B27-AD92-5CEB0B7FF96A}" name="4_50" dataDxfId="42"/>
+    <tableColumn id="33" xr3:uid="{6195493A-456C-4C44-B9DF-98C9E8089751}" name="4_60" dataDxfId="41"/>
+    <tableColumn id="34" xr3:uid="{F1866EC0-083A-4F3B-AAF0-1803F6C2B42D}" name="4_70" dataDxfId="40"/>
+    <tableColumn id="35" xr3:uid="{390B86C6-69D4-4564-A935-E4BBC7D4F8A8}" name="4_80" dataDxfId="39"/>
+    <tableColumn id="36" xr3:uid="{ED9FE248-14EB-42CF-8AFF-391EA4286262}" name="4_90" dataDxfId="38"/>
+    <tableColumn id="37" xr3:uid="{BFC40A70-E504-48C8-A79E-E22CE33976C8}" name="4_100" dataDxfId="37"/>
+    <tableColumn id="38" xr3:uid="{D1D0FFC6-7CF1-4652-AF82-51A34D2E3AC6}" name="4_110" dataDxfId="36"/>
+    <tableColumn id="39" xr3:uid="{2CC579AC-3DD3-4001-B56D-1DC2C1A263FD}" name="4_120" dataDxfId="35"/>
+    <tableColumn id="40" xr3:uid="{315AC0DD-39C8-43D0-86E0-4D2C4623DE0D}" name="4_130" dataDxfId="34"/>
+    <tableColumn id="41" xr3:uid="{2425FD79-EBB2-46B1-B304-D934B2D7D102}" name="4_140" dataDxfId="33"/>
+    <tableColumn id="42" xr3:uid="{C609FC1A-078F-49A3-9596-48806045D458}" name="5_10" dataDxfId="32">
       <calculatedColumnFormula>POWER(10, AQ76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{8E55DC19-AD1E-4981-8C22-B69F0AC6C887}" name="5_20" dataDxfId="40">
+    <tableColumn id="43" xr3:uid="{8E55DC19-AD1E-4981-8C22-B69F0AC6C887}" name="5_20" dataDxfId="31">
       <calculatedColumnFormula>POWER(10, AR76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{EDB7ADA0-AAC1-4130-B607-9F228308D912}" name="5_30" dataDxfId="39">
+    <tableColumn id="44" xr3:uid="{EDB7ADA0-AAC1-4130-B607-9F228308D912}" name="5_30" dataDxfId="30">
       <calculatedColumnFormula>POWER(10, AS76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{103838C8-C95E-4A81-A5DF-21A87AA0CE52}" name="5_40" dataDxfId="38">
+    <tableColumn id="45" xr3:uid="{103838C8-C95E-4A81-A5DF-21A87AA0CE52}" name="5_40" dataDxfId="29">
       <calculatedColumnFormula>POWER(10, AT76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{3307D4B9-55B1-4FB4-A419-5578C8DF1298}" name="5_50" dataDxfId="37">
+    <tableColumn id="46" xr3:uid="{3307D4B9-55B1-4FB4-A419-5578C8DF1298}" name="5_50" dataDxfId="28">
       <calculatedColumnFormula>POWER(10, AU76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{0371D493-F585-4FA4-B57B-473FF1BA6F7F}" name="6_10" dataDxfId="36">
+    <tableColumn id="47" xr3:uid="{0371D493-F585-4FA4-B57B-473FF1BA6F7F}" name="6_10" dataDxfId="27">
       <calculatedColumnFormula>POWER(10, AV76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{B2B90DCE-6322-421A-8253-CEC7EF4BF394}" name="6_20" dataDxfId="35">
+    <tableColumn id="48" xr3:uid="{B2B90DCE-6322-421A-8253-CEC7EF4BF394}" name="6_20" dataDxfId="26">
       <calculatedColumnFormula>POWER(10, AW76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{A6597230-AAAF-4F7A-9BC9-5A15CB1AC21B}" name="6_30" dataDxfId="34">
+    <tableColumn id="49" xr3:uid="{A6597230-AAAF-4F7A-9BC9-5A15CB1AC21B}" name="6_30" dataDxfId="25">
       <calculatedColumnFormula>POWER(10, AX76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{F1C28429-47AF-4385-87D8-67AF455C3F6E}" name="6_40" dataDxfId="33">
+    <tableColumn id="50" xr3:uid="{F1C28429-47AF-4385-87D8-67AF455C3F6E}" name="6_40" dataDxfId="24">
       <calculatedColumnFormula>POWER(10, AY76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{D63E23AC-7EF5-4D43-B6AA-ADA45C3BD949}" name="6_50" dataDxfId="32">
+    <tableColumn id="51" xr3:uid="{D63E23AC-7EF5-4D43-B6AA-ADA45C3BD949}" name="6_50" dataDxfId="23">
       <calculatedColumnFormula>POWER(10, AZ76)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{60984A28-2DA9-4BBC-A1B9-95FF47C8ECE7}" name="7_10" dataDxfId="31"/>
-    <tableColumn id="53" xr3:uid="{77BDB845-37F5-4112-95D2-2F610633B1A2}" name="7_20" dataDxfId="30"/>
-    <tableColumn id="54" xr3:uid="{E084F18B-0455-46A6-A354-90995D056E9C}" name="7_30" dataDxfId="29"/>
-    <tableColumn id="55" xr3:uid="{E19422CD-F30C-404C-B004-CD237CA961D9}" name="7_40" dataDxfId="28"/>
-    <tableColumn id="56" xr3:uid="{FD609317-3C8A-46ED-B71C-3299AB3F77A8}" name="7_50" dataDxfId="27"/>
-    <tableColumn id="57" xr3:uid="{4BD2F93E-0B72-455C-865C-085B04860E0F}" name="8_10" dataDxfId="26"/>
-    <tableColumn id="58" xr3:uid="{579599ED-4378-46B2-AED8-B74819DEC543}" name="8_20" dataDxfId="25"/>
-    <tableColumn id="59" xr3:uid="{D88F4DDE-60DD-4CF7-B535-425BE6C61746}" name="8_30" dataDxfId="24"/>
-    <tableColumn id="60" xr3:uid="{4FF80C82-B62C-4DFF-97A5-55245D98FBEC}" name="8_40" dataDxfId="23"/>
-    <tableColumn id="61" xr3:uid="{7660002C-E37E-464D-9583-8785B7F23749}" name="8_50" dataDxfId="22"/>
+    <tableColumn id="52" xr3:uid="{60984A28-2DA9-4BBC-A1B9-95FF47C8ECE7}" name="7_10" dataDxfId="22"/>
+    <tableColumn id="53" xr3:uid="{77BDB845-37F5-4112-95D2-2F610633B1A2}" name="7_20" dataDxfId="21"/>
+    <tableColumn id="54" xr3:uid="{E084F18B-0455-46A6-A354-90995D056E9C}" name="7_30" dataDxfId="20"/>
+    <tableColumn id="55" xr3:uid="{E19422CD-F30C-404C-B004-CD237CA961D9}" name="7_40" dataDxfId="19"/>
+    <tableColumn id="56" xr3:uid="{FD609317-3C8A-46ED-B71C-3299AB3F77A8}" name="7_50" dataDxfId="18"/>
+    <tableColumn id="57" xr3:uid="{4BD2F93E-0B72-455C-865C-085B04860E0F}" name="8_10" dataDxfId="17"/>
+    <tableColumn id="58" xr3:uid="{579599ED-4378-46B2-AED8-B74819DEC543}" name="8_20" dataDxfId="16"/>
+    <tableColumn id="59" xr3:uid="{D88F4DDE-60DD-4CF7-B535-425BE6C61746}" name="8_30" dataDxfId="15"/>
+    <tableColumn id="60" xr3:uid="{4FF80C82-B62C-4DFF-97A5-55245D98FBEC}" name="8_40" dataDxfId="14"/>
+    <tableColumn id="61" xr3:uid="{7660002C-E37E-464D-9583-8785B7F23749}" name="8_50" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AF39C55-E78F-425F-89F4-BC666A41BB4F}" name="Table2" displayName="Table2" ref="A33:AT42" totalsRowShown="0" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AF39C55-E78F-425F-89F4-BC666A41BB4F}" name="Table2" displayName="Table2" ref="A33:AT42" totalsRowShown="0" headerRowBorderDxfId="12">
   <autoFilter ref="A33:AT42" xr:uid="{2D87966D-B079-4B69-AC3D-C8DEB2366165}"/>
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{3F1A14A8-1EC1-43C0-90DF-645BF2780390}" name="Number" dataDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{3068A1A6-2434-48C0-965D-0F7D53DC4FC3}" name="Model" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{3F1A14A8-1EC1-43C0-90DF-645BF2780390}" name="Number" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{3068A1A6-2434-48C0-965D-0F7D53DC4FC3}" name="Model" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{C568F7B3-4578-4675-A7AC-0C827C456883}" name="Dataset"/>
     <tableColumn id="24" xr3:uid="{8CC9007F-9248-45A0-9266-AF496F21AB16}" name="n_rand"/>
     <tableColumn id="3" xr3:uid="{881362A8-4402-4B10-8C23-30D575CC55CB}" name="ep_prtr"/>
-    <tableColumn id="4" xr3:uid="{EB69AEC0-3748-40EA-B73E-3B0CA4A1CF71}" name="epochs" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{574C2CD9-BA7A-4A9F-AD66-C48399A2B618}" name="lp_min" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{EB69AEC0-3748-40EA-B73E-3B0CA4A1CF71}" name="epochs" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{574C2CD9-BA7A-4A9F-AD66-C48399A2B618}" name="lp_min" dataDxfId="8">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{95F6BAB4-45FA-4A58-B3C2-5B03531A165E}" name="lp_max">
@@ -21270,23 +21270,23 @@
       <calculatedColumnFormula>10^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{E8C65F8C-DCEC-45AB-9C33-C0EE0EEC6D16}" name="i2_min"/>
-    <tableColumn id="16" xr3:uid="{654EB017-AFCF-423B-A3DF-971634304CF4}" name="i2_max" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{F1B5EE51-2F0E-4154-B129-5AC962EE57AC}" name="m_error" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{654EB017-AFCF-423B-A3DF-971634304CF4}" name="i2_max" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{F1B5EE51-2F0E-4154-B129-5AC962EE57AC}" name="m_error" dataDxfId="6"/>
     <tableColumn id="18" xr3:uid="{0F9C365A-A5F6-4966-93F2-3D347586FF8E}" name="m_lr_prtr"/>
     <tableColumn id="19" xr3:uid="{4067613D-3729-4F8C-84A8-334F13889526}" name="m_lr"/>
     <tableColumn id="20" xr3:uid="{775DCFA6-1A9F-4484-B078-65F12C846750}" name="m_alph1"/>
     <tableColumn id="21" xr3:uid="{67BB85F2-0E40-495F-BF27-F45E857C89F1}" name="m_iter1"/>
     <tableColumn id="22" xr3:uid="{F14B21BF-A4AC-4D41-9367-6C9CC7818A67}" name="m_alph2"/>
     <tableColumn id="23" xr3:uid="{04052317-4708-4F4E-9267-A6145C60BDEC}" name="m_iter2"/>
-    <tableColumn id="26" xr3:uid="{41773DF5-193A-445A-9AAA-479A43BEB2A9}" name="m_100" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{41773DF5-193A-445A-9AAA-479A43BEB2A9}" name="m_100" dataDxfId="5"/>
     <tableColumn id="27" xr3:uid="{EC86E464-A6D9-49E1-815D-8542C1228ABB}" name="m_101"/>
     <tableColumn id="28" xr3:uid="{4B38D253-C2CD-4576-9063-A543C71D8605}" name="m_102"/>
     <tableColumn id="29" xr3:uid="{6D0A127F-B800-48AF-9B8E-B9345289C8CF}" name="m_103"/>
     <tableColumn id="30" xr3:uid="{6CDF9D63-D2F3-41D6-AD0B-05A360DEF902}" name="m_104"/>
-    <tableColumn id="31" xr3:uid="{CA369538-3236-43E6-964E-146A1B0485DD}" name="m_avg" dataDxfId="2">
+    <tableColumn id="31" xr3:uid="{CA369538-3236-43E6-964E-146A1B0485DD}" name="m_avg" dataDxfId="4">
       <calculatedColumnFormula>POWER(Table2[[#This Row],[m_100]]*Table2[[#This Row],[m_101]]*Table2[[#This Row],[m_102]]*Table2[[#This Row],[m_103]]*Table2[[#This Row],[m_104]], 0.2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{A3D2E1A3-B0A5-43A1-9059-ABDF52E991E1}" name="m_factor" dataDxfId="12">
+    <tableColumn id="32" xr3:uid="{A3D2E1A3-B0A5-43A1-9059-ABDF52E991E1}" name="m_factor" dataDxfId="3">
       <calculatedColumnFormula>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="33" xr3:uid="{699EA3B8-B29A-465D-BC9F-713CDF47A61D}" name="o_error"/>
@@ -21296,7 +21296,7 @@
     <tableColumn id="37" xr3:uid="{C58B625D-9925-4C98-810B-CE4402697B7F}" name="o_iter1"/>
     <tableColumn id="38" xr3:uid="{0783DC29-BAF4-4ECF-BB08-ADE3795E7A5F}" name="o_alph2"/>
     <tableColumn id="39" xr3:uid="{6F70DDBA-5254-43A2-862E-9FE57565B5C3}" name="o_iter2"/>
-    <tableColumn id="40" xr3:uid="{97C55CE7-1A9D-4D9B-89E6-D9D0E960508C}" name="o_100" dataDxfId="13"/>
+    <tableColumn id="40" xr3:uid="{97C55CE7-1A9D-4D9B-89E6-D9D0E960508C}" name="o_100" dataDxfId="2"/>
     <tableColumn id="41" xr3:uid="{BC42833B-B81F-4AC7-9486-1DCCD6F5CAE6}" name="o_101"/>
     <tableColumn id="42" xr3:uid="{008D91E5-2435-4988-94E5-8ED001682B6E}" name="o_102"/>
     <tableColumn id="43" xr3:uid="{83388950-CA3A-4221-A19A-812286D2CDC2}" name="o_103"/>
@@ -21577,8 +21577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X31" workbookViewId="0">
-      <selection activeCell="AR36" sqref="AR36"/>
+    <sheetView tabSelected="1" topLeftCell="Z31" workbookViewId="0">
+      <selection activeCell="AG36" sqref="AG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21614,87 +21614,87 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="86" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="84" t="s">
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="62" t="s">
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="64" t="s">
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="66" t="s">
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="57" t="s">
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="59" t="s">
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
     </row>
     <row r="2" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -21883,7 +21883,7 @@
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -22130,7 +22130,7 @@
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
+      <c r="A4" s="67"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -22375,7 +22375,7 @@
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
+      <c r="A5" s="67"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -22620,7 +22620,7 @@
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -22865,7 +22865,7 @@
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="69" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="str">
@@ -23055,7 +23055,7 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="67"/>
       <c r="B8" t="str">
         <f t="shared" ref="B8:C8" si="32">B4</f>
         <v>skopt.dummy_min</v>
@@ -23243,7 +23243,7 @@
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
+      <c r="A9" s="67"/>
       <c r="B9" t="str">
         <f t="shared" ref="B9:C9" si="33">B5</f>
         <v>skopt.forest_min</v>
@@ -23431,7 +23431,7 @@
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="1" t="str">
         <f t="shared" ref="B10:C10" si="34">B6</f>
         <v>skopt.gbrt_min</v>
@@ -23619,7 +23619,7 @@
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="69" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="str">
@@ -23809,7 +23809,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
+      <c r="A12" s="67"/>
       <c r="B12" t="str">
         <f t="shared" ref="B12:C12" si="35">B4</f>
         <v>skopt.dummy_min</v>
@@ -23997,7 +23997,7 @@
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+      <c r="A13" s="67"/>
       <c r="B13" t="str">
         <f t="shared" ref="B13:C13" si="36">B5</f>
         <v>skopt.forest_min</v>
@@ -24185,7 +24185,7 @@
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="1" t="str">
         <f t="shared" ref="B14:C14" si="37">B6</f>
         <v>skopt.gbrt_min</v>
@@ -24373,7 +24373,7 @@
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="69" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="str">
@@ -24563,7 +24563,7 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
+      <c r="A16" s="67"/>
       <c r="B16" t="str">
         <f t="shared" ref="B16:C16" si="38">B4</f>
         <v>skopt.dummy_min</v>
@@ -24751,7 +24751,7 @@
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
+      <c r="A17" s="67"/>
       <c r="B17" t="str">
         <f t="shared" ref="B17:C17" si="39">B5</f>
         <v>skopt.forest_min</v>
@@ -24939,7 +24939,7 @@
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="1" t="str">
         <f t="shared" ref="B18:C18" si="40">B6</f>
         <v>skopt.gbrt_min</v>
@@ -25127,7 +25127,7 @@
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="69" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="str">
@@ -25317,7 +25317,7 @@
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
+      <c r="A20" s="67"/>
       <c r="B20" t="str">
         <f t="shared" ref="B20:C20" si="41">B4</f>
         <v>skopt.dummy_min</v>
@@ -25505,7 +25505,7 @@
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
+      <c r="A21" s="67"/>
       <c r="B21" t="str">
         <f t="shared" ref="B21:C21" si="42">B5</f>
         <v>skopt.forest_min</v>
@@ -25693,7 +25693,7 @@
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="1" t="str">
         <f t="shared" ref="B22:C22" si="43">B6</f>
         <v>skopt.gbrt_min</v>
@@ -25881,7 +25881,7 @@
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="69" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="str">
@@ -26071,7 +26071,7 @@
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
+      <c r="A24" s="67"/>
       <c r="B24" t="str">
         <f t="shared" ref="B24:C24" si="44">B4</f>
         <v>skopt.dummy_min</v>
@@ -26259,7 +26259,7 @@
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
+      <c r="A25" s="67"/>
       <c r="B25" t="str">
         <f t="shared" ref="B25:C25" si="45">B5</f>
         <v>skopt.forest_min</v>
@@ -26447,7 +26447,7 @@
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
+      <c r="A26" s="67"/>
       <c r="B26" t="str">
         <f t="shared" ref="B26:C26" si="46">B6</f>
         <v>skopt.gbrt_min</v>
@@ -26733,63 +26733,63 @@
       <c r="A32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="74" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="76" t="s">
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="68" t="s">
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="95" t="s">
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="59" t="s">
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="60"/>
-      <c r="AQ32" s="60"/>
-      <c r="AR32" s="60"/>
-      <c r="AS32" s="60"/>
-      <c r="AT32" s="60"/>
+      <c r="AO32" s="78"/>
+      <c r="AP32" s="78"/>
+      <c r="AQ32" s="78"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="78"/>
     </row>
     <row r="33" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
@@ -26843,7 +26843,7 @@
       <c r="Q33" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="R33" s="90" t="s">
+      <c r="R33" s="57" t="s">
         <v>87</v>
       </c>
       <c r="S33" s="5" t="s">
@@ -26885,28 +26885,28 @@
       <c r="AE33" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AF33" s="92" t="s">
+      <c r="AF33" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="AG33" s="96" t="s">
+      <c r="AG33" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="AH33" s="96" t="s">
+      <c r="AH33" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="AI33" s="96" t="s">
+      <c r="AI33" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AJ33" s="96" t="s">
+      <c r="AJ33" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="AK33" s="96" t="s">
+      <c r="AK33" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="AL33" s="96" t="s">
+      <c r="AL33" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="AM33" s="96" t="s">
+      <c r="AM33" s="60" t="s">
         <v>149</v>
       </c>
       <c r="AN33" s="38" t="s">
@@ -27969,7 +27969,7 @@
         <f>POWER(Table2[[#This Row],[m_100]]*Table2[[#This Row],[m_101]]*Table2[[#This Row],[m_102]]*Table2[[#This Row],[m_103]]*Table2[[#This Row],[m_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AF41" s="93">
+      <c r="AF41" s="59">
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>0</v>
       </c>
@@ -28085,7 +28085,7 @@
         <f>POWER(Table2[[#This Row],[m_100]]*Table2[[#This Row],[m_101]]*Table2[[#This Row],[m_102]]*Table2[[#This Row],[m_103]]*Table2[[#This Row],[m_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AF42" s="93">
+      <c r="AF42" s="59">
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>0</v>
       </c>
@@ -28116,7 +28116,7 @@
       </c>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A76" s="82" t="s">
+      <c r="A76" s="61" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="26" t="s">
@@ -28360,7 +28360,7 @@
       </c>
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="26" t="s">
         <v>55</v>
       </c>
@@ -28602,7 +28602,7 @@
       </c>
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A78" s="82"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="26" t="s">
         <v>56</v>
       </c>
@@ -28844,7 +28844,7 @@
       </c>
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="26" t="s">
         <v>54</v>
       </c>
@@ -29086,7 +29086,7 @@
       </c>
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A81" s="82" t="s">
+      <c r="A81" s="61" t="s">
         <v>59</v>
       </c>
       <c r="B81" s="26" t="s">
@@ -29330,7 +29330,7 @@
       </c>
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A82" s="82"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="26" t="s">
         <v>55</v>
       </c>
@@ -29572,7 +29572,7 @@
       </c>
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A83" s="82"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="26" t="s">
         <v>56</v>
       </c>
@@ -29814,7 +29814,7 @@
       </c>
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A84" s="82"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="26" t="s">
         <v>54</v>
       </c>
@@ -30059,10 +30059,10 @@
       <c r="B85" s="12"/>
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="83" t="s">
+      <c r="B86" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D86">
@@ -30303,8 +30303,8 @@
       </c>
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
-      <c r="B87" s="83"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="62"/>
       <c r="D87">
         <f t="shared" ref="D87:G87" si="102">POWER(10, D76+D81)</f>
         <v>7.3310546557995085E-2</v>
@@ -30543,8 +30543,8 @@
       </c>
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
-      <c r="B88" s="83" t="s">
+      <c r="A88" s="61"/>
+      <c r="B88" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D88">
@@ -30785,8 +30785,8 @@
       </c>
     </row>
     <row r="89" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="83"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="62"/>
       <c r="D89">
         <f t="shared" ref="D89:G89" si="116">POWER(10, D77+D82)</f>
         <v>0.11982771531626747</v>
@@ -31025,8 +31025,8 @@
       </c>
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="83" t="s">
+      <c r="A90" s="61"/>
+      <c r="B90" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D90">
@@ -31267,8 +31267,8 @@
       </c>
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
-      <c r="B91" s="83"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="62"/>
       <c r="D91">
         <f t="shared" ref="D91:G91" si="130">POWER(10, D78+D83)</f>
         <v>0.11982771531626747</v>
@@ -31507,8 +31507,8 @@
       </c>
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
-      <c r="B92" s="83" t="s">
+      <c r="A92" s="61"/>
+      <c r="B92" s="62" t="s">
         <v>54</v>
       </c>
       <c r="D92">
@@ -31749,8 +31749,8 @@
       </c>
     </row>
     <row r="93" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
-      <c r="B93" s="83"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="62"/>
       <c r="D93">
         <f t="shared" ref="D93:G93" si="144">POWER(10, D79+D84)</f>
         <v>6.1861212555328234E-2</v>
@@ -31989,7 +31989,7 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="61" t="s">
         <v>61</v>
       </c>
       <c r="B95" t="s">
@@ -32233,7 +32233,7 @@
       </c>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
+      <c r="A96" s="61"/>
       <c r="B96" t="s">
         <v>53</v>
       </c>
@@ -32475,7 +32475,7 @@
       </c>
     </row>
     <row r="97" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
+      <c r="A97" s="61"/>
       <c r="B97" t="s">
         <v>57</v>
       </c>
@@ -32717,7 +32717,7 @@
       </c>
     </row>
     <row r="98" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A98" s="82"/>
+      <c r="A98" s="61"/>
       <c r="B98" t="s">
         <v>55</v>
       </c>
@@ -32959,7 +32959,7 @@
       </c>
     </row>
     <row r="99" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A99" s="82"/>
+      <c r="A99" s="61"/>
       <c r="B99" t="s">
         <v>57</v>
       </c>
@@ -33201,7 +33201,7 @@
       </c>
     </row>
     <row r="100" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
+      <c r="A100" s="61"/>
       <c r="B100" t="s">
         <v>56</v>
       </c>
@@ -33443,7 +33443,7 @@
       </c>
     </row>
     <row r="101" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
+      <c r="A101" s="61"/>
       <c r="B101" t="s">
         <v>57</v>
       </c>
@@ -33685,7 +33685,7 @@
       </c>
     </row>
     <row r="102" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
+      <c r="A102" s="61"/>
       <c r="B102" t="s">
         <v>54</v>
       </c>
@@ -33928,24 +33928,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A95:A102"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A86:A93"/>
-    <mergeCell ref="Z32:AF32"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="G32:R32"/>
-    <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="AG32:AM32"/>
     <mergeCell ref="AN32:AT32"/>
     <mergeCell ref="BA1:BE1"/>
@@ -33958,6 +33940,24 @@
     <mergeCell ref="S1:AB1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:R1"/>
+    <mergeCell ref="Z32:AF32"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="G32:R32"/>
+    <mergeCell ref="S32:Y32"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A95:A102"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A86:A93"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D6">
     <cfRule type="colorScale" priority="83">
@@ -34080,10 +34080,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H26">
-    <cfRule type="top10" dxfId="11" priority="78" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="78" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M26">
-    <cfRule type="top10" dxfId="10" priority="72" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="72" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
     <cfRule type="colorScale" priority="71">
@@ -34146,7 +34146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R26">
-    <cfRule type="top10" dxfId="9" priority="66" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="71" priority="66" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
     <cfRule type="colorScale" priority="65">
@@ -34209,7 +34209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AB26">
-    <cfRule type="top10" dxfId="8" priority="55" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="55" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
     <cfRule type="colorScale" priority="60">
@@ -34380,7 +34380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP7:AP26">
-    <cfRule type="top10" dxfId="7" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="31" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL6">
     <cfRule type="colorScale" priority="36">
@@ -34563,10 +34563,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:AU26">
-    <cfRule type="top10" dxfId="6" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="20" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ7:AZ26">
-    <cfRule type="top10" dxfId="5" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3:BA6">
     <cfRule type="colorScale" priority="12">
@@ -34629,7 +34629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE7:BE26">
-    <cfRule type="top10" dxfId="4" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF6">
     <cfRule type="colorScale" priority="6">
@@ -34692,7 +34692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BJ26">
-    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9C919-E86D-4F36-A688-684CA7C9EFF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B34DB3-66B7-4423-AB98-A1BAEFDA3CA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="160">
   <si>
     <t>Algorithm</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>Paramaeters</t>
   </si>
   <si>
     <t>Dataset</t>
@@ -948,51 +945,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,6 +1007,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21577,8 +21574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z31" workbookViewId="0">
-      <selection activeCell="AG36" sqref="AG36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21614,87 +21611,87 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="84" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
-      <c r="BA1" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
     </row>
     <row r="2" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -21705,186 +21702,186 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="S2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="X2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="AC2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AE2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="AF2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AH2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="AH2" s="28" t="s">
+      <c r="AI2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AI2" s="28" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2" s="28" t="s">
+      <c r="AK2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="28" t="s">
+      <c r="AL2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="28" t="s">
-        <v>73</v>
-      </c>
       <c r="AM2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="AN2" s="28" t="s">
+      <c r="AO2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AP2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" s="28" t="s">
-        <v>78</v>
-      </c>
       <c r="AQ2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AR2" s="32" t="s">
+      <c r="AS2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AS2" s="32" t="s">
+      <c r="AT2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="32" t="s">
+      <c r="AU2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AU2" s="32" t="s">
+      <c r="AV2" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AW2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="34" t="s">
+      <c r="AX2" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="34" t="s">
+      <c r="AY2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="34" t="s">
+      <c r="AZ2" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="AZ2" s="34" t="s">
-        <v>104</v>
-      </c>
       <c r="BA2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="BB2" s="35" t="s">
+      <c r="BC2" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="BC2" s="35" t="s">
+      <c r="BD2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="BD2" s="35" t="s">
+      <c r="BE2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="BE2" s="35" t="s">
-        <v>112</v>
-      </c>
       <c r="BF2" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG2" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="BG2" s="38" t="s">
+      <c r="BH2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="BH2" s="38" t="s">
+      <c r="BI2" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="BI2" s="38" t="s">
+      <c r="BJ2" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="BJ2" s="38" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>23</v>
+      <c r="A3" s="85" t="s">
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -22130,7 +22127,7 @@
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+      <c r="A4" s="86"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -22375,7 +22372,7 @@
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="86"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -22620,7 +22617,7 @@
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -22865,8 +22862,8 @@
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
-        <v>24</v>
+      <c r="A7" s="88" t="s">
+        <v>23</v>
       </c>
       <c r="B7" t="str">
         <f>B3</f>
@@ -23055,7 +23052,7 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+      <c r="A8" s="86"/>
       <c r="B8" t="str">
         <f t="shared" ref="B8:C8" si="32">B4</f>
         <v>skopt.dummy_min</v>
@@ -23243,7 +23240,7 @@
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="A9" s="86"/>
       <c r="B9" t="str">
         <f t="shared" ref="B9:C9" si="33">B5</f>
         <v>skopt.forest_min</v>
@@ -23431,7 +23428,7 @@
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="1" t="str">
         <f t="shared" ref="B10:C10" si="34">B6</f>
         <v>skopt.gbrt_min</v>
@@ -23619,8 +23616,8 @@
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
-        <v>25</v>
+      <c r="A11" s="88" t="s">
+        <v>24</v>
       </c>
       <c r="B11" t="str">
         <f>B3</f>
@@ -23809,7 +23806,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
+      <c r="A12" s="86"/>
       <c r="B12" t="str">
         <f t="shared" ref="B12:C12" si="35">B4</f>
         <v>skopt.dummy_min</v>
@@ -23997,7 +23994,7 @@
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
+      <c r="A13" s="86"/>
       <c r="B13" t="str">
         <f t="shared" ref="B13:C13" si="36">B5</f>
         <v>skopt.forest_min</v>
@@ -24185,7 +24182,7 @@
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="1" t="str">
         <f t="shared" ref="B14:C14" si="37">B6</f>
         <v>skopt.gbrt_min</v>
@@ -24373,8 +24370,8 @@
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
-        <v>26</v>
+      <c r="A15" s="88" t="s">
+        <v>25</v>
       </c>
       <c r="B15" t="str">
         <f>B3</f>
@@ -24563,7 +24560,7 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
+      <c r="A16" s="86"/>
       <c r="B16" t="str">
         <f t="shared" ref="B16:C16" si="38">B4</f>
         <v>skopt.dummy_min</v>
@@ -24751,7 +24748,7 @@
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
+      <c r="A17" s="86"/>
       <c r="B17" t="str">
         <f t="shared" ref="B17:C17" si="39">B5</f>
         <v>skopt.forest_min</v>
@@ -24939,7 +24936,7 @@
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="1" t="str">
         <f t="shared" ref="B18:C18" si="40">B6</f>
         <v>skopt.gbrt_min</v>
@@ -25127,8 +25124,8 @@
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
-        <v>27</v>
+      <c r="A19" s="88" t="s">
+        <v>26</v>
       </c>
       <c r="B19" t="str">
         <f>B3</f>
@@ -25317,7 +25314,7 @@
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
+      <c r="A20" s="86"/>
       <c r="B20" t="str">
         <f t="shared" ref="B20:C20" si="41">B4</f>
         <v>skopt.dummy_min</v>
@@ -25505,7 +25502,7 @@
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
+      <c r="A21" s="86"/>
       <c r="B21" t="str">
         <f t="shared" ref="B21:C21" si="42">B5</f>
         <v>skopt.forest_min</v>
@@ -25693,7 +25690,7 @@
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="1" t="str">
         <f t="shared" ref="B22:C22" si="43">B6</f>
         <v>skopt.gbrt_min</v>
@@ -25881,8 +25878,8 @@
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
-        <v>28</v>
+      <c r="A23" s="88" t="s">
+        <v>27</v>
       </c>
       <c r="B23" t="str">
         <f>B3</f>
@@ -26071,7 +26068,7 @@
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
+      <c r="A24" s="86"/>
       <c r="B24" t="str">
         <f t="shared" ref="B24:C24" si="44">B4</f>
         <v>skopt.dummy_min</v>
@@ -26259,7 +26256,7 @@
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
+      <c r="A25" s="86"/>
       <c r="B25" t="str">
         <f t="shared" ref="B25:C25" si="45">B5</f>
         <v>skopt.forest_min</v>
@@ -26447,7 +26444,7 @@
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
+      <c r="A26" s="86"/>
       <c r="B26" t="str">
         <f t="shared" ref="B26:C26" si="46">B6</f>
         <v>skopt.gbrt_min</v>
@@ -26652,10 +26649,10 @@
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC28" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
@@ -26673,10 +26670,10 @@
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
@@ -26694,10 +26691,10 @@
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
@@ -26733,202 +26730,202 @@
       <c r="A32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="70" t="s">
+      <c r="B32" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="83"/>
+      <c r="AF32" s="84"/>
+      <c r="AG32" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH32" s="76"/>
-      <c r="AI32" s="76"/>
-      <c r="AJ32" s="76"/>
-      <c r="AK32" s="76"/>
-      <c r="AL32" s="76"/>
-      <c r="AM32" s="76"/>
-      <c r="AN32" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO32" s="78"/>
-      <c r="AP32" s="78"/>
-      <c r="AQ32" s="78"/>
-      <c r="AR32" s="78"/>
-      <c r="AS32" s="78"/>
-      <c r="AT32" s="78"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
     </row>
     <row r="33" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="51" t="s">
+      <c r="F33" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="52" t="s">
-        <v>14</v>
-      </c>
       <c r="G33" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="I33" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="J33" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="54" t="s">
+      <c r="K33" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="54" t="s">
+      <c r="L33" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="54" t="s">
+      <c r="M33" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="M33" s="54" t="s">
+      <c r="N33" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q33" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="R33" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="N33" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="O33" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="P33" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q33" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="R33" s="57" t="s">
-        <v>87</v>
-      </c>
       <c r="S33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T33" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="U33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="V33" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="W33" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="X33" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="X33" s="5" t="s">
+      <c r="Y33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="Y33" s="5" t="s">
+      <c r="Z33" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="Z33" s="55" t="s">
+      <c r="AA33" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="AA33" s="56" t="s">
+      <c r="AB33" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="AB33" s="56" t="s">
+      <c r="AC33" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="AC33" s="56" t="s">
+      <c r="AD33" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="AD33" s="56" t="s">
+      <c r="AE33" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="AE33" s="56" t="s">
+      <c r="AF33" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="AF33" s="58" t="s">
-        <v>141</v>
-      </c>
       <c r="AG33" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH33" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="AH33" s="60" t="s">
+      <c r="AI33" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="AI33" s="60" t="s">
+      <c r="AJ33" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AJ33" s="60" t="s">
+      <c r="AK33" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="AK33" s="60" t="s">
+      <c r="AL33" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="AL33" s="60" t="s">
+      <c r="AM33" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="AM33" s="60" t="s">
+      <c r="AN33" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="AN33" s="38" t="s">
+      <c r="AO33" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="AO33" s="38" t="s">
+      <c r="AP33" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="AP33" s="38" t="s">
+      <c r="AQ33" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="AQ33" s="38" t="s">
+      <c r="AR33" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="AR33" s="38" t="s">
+      <c r="AS33" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="AS33" s="38" t="s">
+      <c r="AT33" s="38" t="s">
         <v>155</v>
-      </c>
-      <c r="AT33" s="38" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.3">
@@ -26936,10 +26933,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="12">
         <v>10</v>
@@ -27083,7 +27080,7 @@
         <v>20.005243465415532</v>
       </c>
       <c r="AV34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.3">
@@ -27091,10 +27088,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="12">
         <v>10</v>
@@ -27243,10 +27240,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="12">
         <v>10</v>
@@ -27393,10 +27390,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="12">
         <v>10</v>
@@ -27545,10 +27542,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="12">
         <v>50</v>
@@ -27663,31 +27660,31 @@
         <v>5</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="12">
         <v>10</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K39" s="12">
         <f>10^-1</f>
@@ -27704,25 +27701,25 @@
         <v>200</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S39" s="12">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V39" s="12">
         <v>10.7984432942895</v>
@@ -27731,10 +27728,10 @@
         <v>200</v>
       </c>
       <c r="X39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="12"/>
@@ -27775,31 +27772,31 @@
         <v>6</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="12">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K40" s="12">
         <f>10^-1</f>
@@ -27816,33 +27813,33 @@
         <v>200</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S40" s="12">
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="12"/>
@@ -27883,10 +27880,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D41" s="12">
         <v>10</v>
@@ -27914,16 +27911,16 @@
         <v>0.1</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O41" s="12">
         <f>10^0</f>
@@ -27949,10 +27946,10 @@
         <v>1.65021934868993E-2</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W41" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X41" s="12">
         <v>19.077326469266001</v>
@@ -27999,10 +27996,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
@@ -28030,16 +28027,16 @@
         <v>0.1</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O42" s="12">
         <f>10^-1</f>
@@ -28065,10 +28062,10 @@
         <v>9.4600703514308097E-5</v>
       </c>
       <c r="V42" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X42" s="12">
         <v>6.9041883127713701</v>
@@ -28112,15 +28109,15 @@
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AN44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A76" s="61" t="s">
-        <v>58</v>
+      <c r="A76" s="95" t="s">
+        <v>57</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:Y76" si="47">AVERAGE(LOG10(D7),LOG10(D11),LOG10(D15),LOG10(D19),LOG10(D23))</f>
@@ -28360,9 +28357,9 @@
       </c>
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
+      <c r="A77" s="95"/>
       <c r="B77" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <f t="shared" ref="D77:Y77" si="53">AVERAGE(LOG10(D8),LOG10(D12),LOG10(D16),LOG10(D20),LOG10(D24))</f>
@@ -28602,9 +28599,9 @@
       </c>
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78">
         <f t="shared" ref="D78:Y78" si="59">AVERAGE(LOG10(D9),LOG10(D13),LOG10(D17),LOG10(D21),LOG10(D25))</f>
@@ -28844,9 +28841,9 @@
       </c>
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A79" s="61"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D79">
         <f t="shared" ref="D79:Y79" si="64">AVERAGE(LOG10(D10),LOG10(D14),LOG10(D18),LOG10(D22),LOG10(D26))</f>
@@ -29086,11 +29083,11 @@
       </c>
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A81" s="61" t="s">
-        <v>59</v>
+      <c r="A81" s="95" t="s">
+        <v>58</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81">
         <f t="shared" ref="D81:Y81" si="71">AVEDEV(LOG10(D7),LOG10(D11),LOG10(D15),LOG10(D19),LOG10(D23))</f>
@@ -29330,9 +29327,9 @@
       </c>
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A82" s="61"/>
+      <c r="A82" s="95"/>
       <c r="B82" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82">
         <f t="shared" ref="D82:Y82" si="77">AVEDEV(LOG10(D8),LOG10(D12),LOG10(D16),LOG10(D20),LOG10(D24))</f>
@@ -29572,9 +29569,9 @@
       </c>
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A83" s="61"/>
+      <c r="A83" s="95"/>
       <c r="B83" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83">
         <f t="shared" ref="D83:Y83" si="83">AVEDEV(LOG10(D9),LOG10(D13),LOG10(D17),LOG10(D21),LOG10(D25))</f>
@@ -29814,9 +29811,9 @@
       </c>
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A84" s="61"/>
+      <c r="A84" s="95"/>
       <c r="B84" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84">
         <f t="shared" ref="D84:Y84" si="88">AVEDEV(LOG10(D10),LOG10(D14),LOG10(D18),LOG10(D22),LOG10(D26))</f>
@@ -30059,11 +30056,11 @@
       <c r="B85" s="12"/>
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A86" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="62" t="s">
-        <v>53</v>
+      <c r="A86" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="96" t="s">
+        <v>52</v>
       </c>
       <c r="D86">
         <f t="shared" ref="D86:G86" si="95">POWER(10, D76-D81)</f>
@@ -30303,8 +30300,8 @@
       </c>
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
-      <c r="B87" s="62"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="96"/>
       <c r="D87">
         <f t="shared" ref="D87:G87" si="102">POWER(10, D76+D81)</f>
         <v>7.3310546557995085E-2</v>
@@ -30543,9 +30540,9 @@
       </c>
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A88" s="61"/>
-      <c r="B88" s="62" t="s">
-        <v>55</v>
+      <c r="A88" s="95"/>
+      <c r="B88" s="96" t="s">
+        <v>54</v>
       </c>
       <c r="D88">
         <f t="shared" ref="D88:G88" si="109">POWER(10, D77-D82)</f>
@@ -30785,8 +30782,8 @@
       </c>
     </row>
     <row r="89" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A89" s="61"/>
-      <c r="B89" s="62"/>
+      <c r="A89" s="95"/>
+      <c r="B89" s="96"/>
       <c r="D89">
         <f t="shared" ref="D89:G89" si="116">POWER(10, D77+D82)</f>
         <v>0.11982771531626747</v>
@@ -31025,9 +31022,9 @@
       </c>
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A90" s="61"/>
-      <c r="B90" s="62" t="s">
-        <v>56</v>
+      <c r="A90" s="95"/>
+      <c r="B90" s="96" t="s">
+        <v>55</v>
       </c>
       <c r="D90">
         <f t="shared" ref="D90:G90" si="123">POWER(10, D78-D83)</f>
@@ -31267,8 +31264,8 @@
       </c>
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
-      <c r="B91" s="62"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="96"/>
       <c r="D91">
         <f t="shared" ref="D91:G91" si="130">POWER(10, D78+D83)</f>
         <v>0.11982771531626747</v>
@@ -31507,9 +31504,9 @@
       </c>
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A92" s="61"/>
-      <c r="B92" s="62" t="s">
-        <v>54</v>
+      <c r="A92" s="95"/>
+      <c r="B92" s="96" t="s">
+        <v>53</v>
       </c>
       <c r="D92">
         <f t="shared" ref="D92:G92" si="137">POWER(10, D79-D84)</f>
@@ -31749,8 +31746,8 @@
       </c>
     </row>
     <row r="93" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
-      <c r="B93" s="62"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="96"/>
       <c r="D93">
         <f t="shared" ref="D93:G93" si="144">POWER(10, D79+D84)</f>
         <v>6.1861212555328234E-2</v>
@@ -31989,11 +31986,11 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A95" s="61" t="s">
-        <v>61</v>
+      <c r="A95" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D95">
         <f t="shared" ref="D95:G95" si="151">D86</f>
@@ -32233,9 +32230,9 @@
       </c>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A96" s="61"/>
+      <c r="A96" s="95"/>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D96">
         <f t="shared" ref="D96:G96" si="158">D87-D86</f>
@@ -32475,9 +32472,9 @@
       </c>
     </row>
     <row r="97" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
+      <c r="A97" s="95"/>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D97">
         <f t="shared" ref="D97:G102" si="165">D88-D87</f>
@@ -32717,9 +32714,9 @@
       </c>
     </row>
     <row r="98" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
+      <c r="A98" s="95"/>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D98">
         <f t="shared" si="165"/>
@@ -32959,9 +32956,9 @@
       </c>
     </row>
     <row r="99" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
+      <c r="A99" s="95"/>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D99">
         <f t="shared" si="165"/>
@@ -33201,9 +33198,9 @@
       </c>
     </row>
     <row r="100" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
+      <c r="A100" s="95"/>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D100">
         <f t="shared" si="165"/>
@@ -33443,9 +33440,9 @@
       </c>
     </row>
     <row r="101" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A101" s="61"/>
+      <c r="A101" s="95"/>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D101">
         <f t="shared" si="165"/>
@@ -33685,9 +33682,9 @@
       </c>
     </row>
     <row r="102" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A102" s="61"/>
+      <c r="A102" s="95"/>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D102">
         <f t="shared" si="165"/>
@@ -33928,6 +33925,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A95:A102"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A86:A93"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="AG32:AM32"/>
     <mergeCell ref="AN32:AT32"/>
     <mergeCell ref="BA1:BE1"/>
@@ -33941,23 +33952,9 @@
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="Z32:AF32"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
     <mergeCell ref="G32:R32"/>
     <mergeCell ref="S32:Y32"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A95:A102"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A86:A93"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D6">
     <cfRule type="colorScale" priority="83">
@@ -34716,10 +34713,10 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2">
         <v>-1</v>
@@ -34847,10 +34844,10 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3">
@@ -35020,7 +35017,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -35155,7 +35152,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>1.05</v>

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B34DB3-66B7-4423-AB98-A1BAEFDA3CA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F6BB1-EA8C-4D8B-95E4-A4C09E8E8F2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,6 +945,24 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,18 +1035,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,12 +1052,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21574,8 +21574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21611,87 +21611,87 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="78" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="76" t="s">
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="67" t="s">
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="69" t="s">
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="71" t="s">
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="64" t="s">
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="62" t="s">
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
     </row>
     <row r="2" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -21880,7 +21880,7 @@
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -22127,7 +22127,7 @@
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="62"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -22372,7 +22372,7 @@
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="62"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -22617,7 +22617,7 @@
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -22862,7 +22862,7 @@
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="str">
@@ -23052,7 +23052,7 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+      <c r="A8" s="62"/>
       <c r="B8" t="str">
         <f t="shared" ref="B8:C8" si="32">B4</f>
         <v>skopt.dummy_min</v>
@@ -23240,7 +23240,7 @@
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
+      <c r="A9" s="62"/>
       <c r="B9" t="str">
         <f t="shared" ref="B9:C9" si="33">B5</f>
         <v>skopt.forest_min</v>
@@ -23428,7 +23428,7 @@
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="1" t="str">
         <f t="shared" ref="B10:C10" si="34">B6</f>
         <v>skopt.gbrt_min</v>
@@ -23616,7 +23616,7 @@
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="str">
@@ -23806,7 +23806,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
+      <c r="A12" s="62"/>
       <c r="B12" t="str">
         <f t="shared" ref="B12:C12" si="35">B4</f>
         <v>skopt.dummy_min</v>
@@ -23994,7 +23994,7 @@
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
+      <c r="A13" s="62"/>
       <c r="B13" t="str">
         <f t="shared" ref="B13:C13" si="36">B5</f>
         <v>skopt.forest_min</v>
@@ -24182,7 +24182,7 @@
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="1" t="str">
         <f t="shared" ref="B14:C14" si="37">B6</f>
         <v>skopt.gbrt_min</v>
@@ -24370,7 +24370,7 @@
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="str">
@@ -24560,7 +24560,7 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+      <c r="A16" s="62"/>
       <c r="B16" t="str">
         <f t="shared" ref="B16:C16" si="38">B4</f>
         <v>skopt.dummy_min</v>
@@ -24748,7 +24748,7 @@
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="62"/>
       <c r="B17" t="str">
         <f t="shared" ref="B17:C17" si="39">B5</f>
         <v>skopt.forest_min</v>
@@ -24936,7 +24936,7 @@
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="1" t="str">
         <f t="shared" ref="B18:C18" si="40">B6</f>
         <v>skopt.gbrt_min</v>
@@ -25124,7 +25124,7 @@
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="str">
@@ -25314,7 +25314,7 @@
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+      <c r="A20" s="62"/>
       <c r="B20" t="str">
         <f t="shared" ref="B20:C20" si="41">B4</f>
         <v>skopt.dummy_min</v>
@@ -25502,7 +25502,7 @@
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+      <c r="A21" s="62"/>
       <c r="B21" t="str">
         <f t="shared" ref="B21:C21" si="42">B5</f>
         <v>skopt.forest_min</v>
@@ -25690,7 +25690,7 @@
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="1" t="str">
         <f t="shared" ref="B22:C22" si="43">B6</f>
         <v>skopt.gbrt_min</v>
@@ -25878,7 +25878,7 @@
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="str">
@@ -26068,7 +26068,7 @@
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
+      <c r="A24" s="62"/>
       <c r="B24" t="str">
         <f t="shared" ref="B24:C24" si="44">B4</f>
         <v>skopt.dummy_min</v>
@@ -26256,7 +26256,7 @@
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
+      <c r="A25" s="62"/>
       <c r="B25" t="str">
         <f t="shared" ref="B25:C25" si="45">B5</f>
         <v>skopt.forest_min</v>
@@ -26444,7 +26444,7 @@
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+      <c r="A26" s="62"/>
       <c r="B26" t="str">
         <f t="shared" ref="B26:C26" si="46">B6</f>
         <v>skopt.gbrt_min</v>
@@ -26730,63 +26730,63 @@
       <c r="A32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="89" t="s">
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="92" t="s">
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="82" t="s">
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="83"/>
-      <c r="AE32" s="83"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="61" t="s">
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="89"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="61"/>
-      <c r="AJ32" s="61"/>
-      <c r="AK32" s="61"/>
-      <c r="AL32" s="61"/>
-      <c r="AM32" s="61"/>
-      <c r="AN32" s="62" t="s">
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
+      <c r="AO32" s="69"/>
+      <c r="AP32" s="69"/>
+      <c r="AQ32" s="69"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="69"/>
+      <c r="AT32" s="69"/>
     </row>
     <row r="33" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
@@ -28113,7 +28113,7 @@
       </c>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="63" t="s">
         <v>57</v>
       </c>
       <c r="B76" s="26" t="s">
@@ -28357,7 +28357,7 @@
       </c>
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A77" s="95"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="26" t="s">
         <v>54</v>
       </c>
@@ -28599,7 +28599,7 @@
       </c>
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A78" s="95"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="26" t="s">
         <v>55</v>
       </c>
@@ -28841,7 +28841,7 @@
       </c>
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A79" s="95"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="26" t="s">
         <v>53</v>
       </c>
@@ -29083,7 +29083,7 @@
       </c>
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A81" s="95" t="s">
+      <c r="A81" s="63" t="s">
         <v>58</v>
       </c>
       <c r="B81" s="26" t="s">
@@ -29327,7 +29327,7 @@
       </c>
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A82" s="95"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="26" t="s">
         <v>54</v>
       </c>
@@ -29569,7 +29569,7 @@
       </c>
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A83" s="95"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="26" t="s">
         <v>55</v>
       </c>
@@ -29811,7 +29811,7 @@
       </c>
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A84" s="95"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="26" t="s">
         <v>53</v>
       </c>
@@ -30056,10 +30056,10 @@
       <c r="B85" s="12"/>
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A86" s="95" t="s">
+      <c r="A86" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="96" t="s">
+      <c r="B86" s="64" t="s">
         <v>52</v>
       </c>
       <c r="D86">
@@ -30300,8 +30300,8 @@
       </c>
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A87" s="95"/>
-      <c r="B87" s="96"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="64"/>
       <c r="D87">
         <f t="shared" ref="D87:G87" si="102">POWER(10, D76+D81)</f>
         <v>7.3310546557995085E-2</v>
@@ -30540,8 +30540,8 @@
       </c>
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A88" s="95"/>
-      <c r="B88" s="96" t="s">
+      <c r="A88" s="63"/>
+      <c r="B88" s="64" t="s">
         <v>54</v>
       </c>
       <c r="D88">
@@ -30782,8 +30782,8 @@
       </c>
     </row>
     <row r="89" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A89" s="95"/>
-      <c r="B89" s="96"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="64"/>
       <c r="D89">
         <f t="shared" ref="D89:G89" si="116">POWER(10, D77+D82)</f>
         <v>0.11982771531626747</v>
@@ -31022,8 +31022,8 @@
       </c>
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A90" s="95"/>
-      <c r="B90" s="96" t="s">
+      <c r="A90" s="63"/>
+      <c r="B90" s="64" t="s">
         <v>55</v>
       </c>
       <c r="D90">
@@ -31264,8 +31264,8 @@
       </c>
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A91" s="95"/>
-      <c r="B91" s="96"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="64"/>
       <c r="D91">
         <f t="shared" ref="D91:G91" si="130">POWER(10, D78+D83)</f>
         <v>0.11982771531626747</v>
@@ -31504,8 +31504,8 @@
       </c>
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A92" s="95"/>
-      <c r="B92" s="96" t="s">
+      <c r="A92" s="63"/>
+      <c r="B92" s="64" t="s">
         <v>53</v>
       </c>
       <c r="D92">
@@ -31746,8 +31746,8 @@
       </c>
     </row>
     <row r="93" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A93" s="95"/>
-      <c r="B93" s="96"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="64"/>
       <c r="D93">
         <f t="shared" ref="D93:G93" si="144">POWER(10, D79+D84)</f>
         <v>6.1861212555328234E-2</v>
@@ -31986,7 +31986,7 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A95" s="95" t="s">
+      <c r="A95" s="63" t="s">
         <v>60</v>
       </c>
       <c r="B95" t="s">
@@ -32230,7 +32230,7 @@
       </c>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A96" s="95"/>
+      <c r="A96" s="63"/>
       <c r="B96" t="s">
         <v>52</v>
       </c>
@@ -32472,7 +32472,7 @@
       </c>
     </row>
     <row r="97" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A97" s="95"/>
+      <c r="A97" s="63"/>
       <c r="B97" t="s">
         <v>56</v>
       </c>
@@ -32714,7 +32714,7 @@
       </c>
     </row>
     <row r="98" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A98" s="95"/>
+      <c r="A98" s="63"/>
       <c r="B98" t="s">
         <v>54</v>
       </c>
@@ -32956,7 +32956,7 @@
       </c>
     </row>
     <row r="99" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A99" s="95"/>
+      <c r="A99" s="63"/>
       <c r="B99" t="s">
         <v>56</v>
       </c>
@@ -33198,7 +33198,7 @@
       </c>
     </row>
     <row r="100" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A100" s="95"/>
+      <c r="A100" s="63"/>
       <c r="B100" t="s">
         <v>55</v>
       </c>
@@ -33440,7 +33440,7 @@
       </c>
     </row>
     <row r="101" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A101" s="95"/>
+      <c r="A101" s="63"/>
       <c r="B101" t="s">
         <v>56</v>
       </c>
@@ -33682,7 +33682,7 @@
       </c>
     </row>
     <row r="102" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A102" s="95"/>
+      <c r="A102" s="63"/>
       <c r="B102" t="s">
         <v>53</v>
       </c>
@@ -33925,20 +33925,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A95:A102"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A86:A93"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
     <mergeCell ref="AG32:AM32"/>
     <mergeCell ref="AN32:AT32"/>
     <mergeCell ref="BA1:BE1"/>
@@ -33955,6 +33941,20 @@
     <mergeCell ref="G32:R32"/>
     <mergeCell ref="S32:Y32"/>
     <mergeCell ref="B32:F32"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A95:A102"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A86:A93"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D6">
     <cfRule type="colorScale" priority="83">

--- a/3-Optimize.xlsx
+++ b/3-Optimize.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F6BB1-EA8C-4D8B-95E4-A4C09E8E8F2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4467070D-0536-4657-86CA-9E93DF4D0469}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1212" yWindow="576" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +535,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -881,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1053,6 +1060,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21574,8 +21585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27035,47 +27046,47 @@
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>5.8873707449335972</v>
       </c>
-      <c r="AG34" s="12">
+      <c r="AG34" s="97">
         <v>0.48961178200430799</v>
       </c>
-      <c r="AH34" s="12">
+      <c r="AH34" s="97">
         <v>0.159632018774199</v>
       </c>
-      <c r="AI34" s="12">
+      <c r="AI34" s="97">
         <v>2.9836235259774399E-2</v>
       </c>
-      <c r="AJ34" s="12">
+      <c r="AJ34" s="97">
         <v>43.375743071130401</v>
       </c>
-      <c r="AK34" s="12">
+      <c r="AK34" s="97">
         <v>30</v>
       </c>
-      <c r="AL34" s="12">
+      <c r="AL34" s="97">
         <v>1.0730399939453901</v>
       </c>
-      <c r="AM34" s="12">
+      <c r="AM34" s="97">
         <v>32</v>
       </c>
-      <c r="AN34" s="2">
+      <c r="AN34" s="98">
         <v>2.8936170212765899E-2</v>
       </c>
-      <c r="AO34" s="12">
+      <c r="AO34" s="97">
         <v>1.4893617021276499E-2</v>
       </c>
-      <c r="AP34" s="12">
+      <c r="AP34" s="97">
         <v>8.5106382978723492E-3</v>
       </c>
-      <c r="AQ34" s="12">
+      <c r="AQ34" s="97">
         <v>0.36297872340425502</v>
       </c>
-      <c r="AR34" s="12">
+      <c r="AR34" s="97">
         <v>8.9361702127659301E-3</v>
       </c>
-      <c r="AS34" s="12">
+      <c r="AS34" s="97">
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>2.6006816505040192E-2</v>
       </c>
-      <c r="AT34" s="12">
+      <c r="AT34" s="97">
         <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>20.005243465415532</v>
       </c>
@@ -27190,47 +27201,47 @@
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>3.2092112825858363</v>
       </c>
-      <c r="AG35" s="12">
+      <c r="AG35" s="97">
         <v>0.27524933167794602</v>
       </c>
-      <c r="AH35" s="12">
+      <c r="AH35" s="97">
         <v>0.16051911333587601</v>
       </c>
-      <c r="AI35" s="12">
+      <c r="AI35" s="97">
         <v>5.9985500810106097E-3</v>
       </c>
-      <c r="AJ35" s="12">
+      <c r="AJ35" s="97">
         <v>70.242690360927099</v>
       </c>
-      <c r="AK35" s="12">
+      <c r="AK35" s="97">
         <v>14</v>
       </c>
-      <c r="AL35" s="12">
+      <c r="AL35" s="97">
         <v>8.9910318728818908</v>
       </c>
-      <c r="AM35" s="12">
+      <c r="AM35" s="97">
         <v>32</v>
       </c>
-      <c r="AN35" s="2">
+      <c r="AN35" s="98">
         <v>1.7021276595744401E-3</v>
       </c>
-      <c r="AO35" s="12">
+      <c r="AO35" s="97">
         <v>3.8297872340425899E-3</v>
       </c>
-      <c r="AP35" s="12">
+      <c r="AP35" s="97">
         <v>0.04</v>
       </c>
-      <c r="AQ35" s="12">
+      <c r="AQ35" s="97">
         <v>2.1276595744680301E-3</v>
       </c>
-      <c r="AR35" s="12">
+      <c r="AR35" s="97">
         <v>1.91489361702127E-2</v>
       </c>
-      <c r="AS35" s="12">
+      <c r="AS35" s="97">
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>6.3863793533167892E-3</v>
       </c>
-      <c r="AT35" s="12">
+      <c r="AT35" s="97">
         <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>7.0959770592408775</v>
       </c>
@@ -27342,45 +27353,45 @@
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>8.0772925851646082</v>
       </c>
-      <c r="AG36" s="12">
+      <c r="AG36" s="97">
         <v>0.72566976394215799</v>
       </c>
-      <c r="AH36" s="12">
+      <c r="AH36" s="97">
         <v>5.7233463773438799E-3</v>
       </c>
-      <c r="AI36" s="20">
+      <c r="AI36" s="99">
         <v>6.9605407954603598E-4</v>
       </c>
-      <c r="AJ36" s="12">
+      <c r="AJ36" s="97">
         <v>1.0686885283416501</v>
       </c>
-      <c r="AK36" s="12">
+      <c r="AK36" s="97">
         <v>85</v>
       </c>
-      <c r="AL36" s="12">
+      <c r="AL36" s="97">
         <v>2.5275463546375301</v>
       </c>
-      <c r="AM36" s="12">
+      <c r="AM36" s="97">
         <v>100</v>
       </c>
-      <c r="AN36" s="2">
+      <c r="AN36" s="98">
         <v>0.94930555555555496</v>
       </c>
-      <c r="AO36" s="12">
+      <c r="AO36" s="97">
         <v>0.94930555555555496</v>
       </c>
-      <c r="AP36" s="12">
+      <c r="AP36" s="97">
         <v>0.94930555555555496</v>
       </c>
-      <c r="AQ36" s="12">
+      <c r="AQ36" s="97">
         <v>0.94930555555555496</v>
       </c>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="12">
+      <c r="AR36" s="97"/>
+      <c r="AS36" s="97">
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>0</v>
       </c>
-      <c r="AT36" s="12">
+      <c r="AT36" s="97">
         <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>0</v>
       </c>
@@ -27492,47 +27503,47 @@
         <f>Table2[[#This Row],[m_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>6.0258449782594052</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" s="100">
         <v>0.54849160991005597</v>
       </c>
-      <c r="AH37" s="12">
+      <c r="AH37" s="97">
         <v>1.0898482519426499E-3</v>
       </c>
-      <c r="AI37" s="12">
+      <c r="AI37" s="97">
         <v>3.9172298798781698E-3</v>
       </c>
-      <c r="AJ37" s="20">
+      <c r="AJ37" s="99">
         <v>2.5476878828065201</v>
       </c>
-      <c r="AK37" s="12">
+      <c r="AK37" s="97">
         <v>24</v>
       </c>
-      <c r="AL37" s="12">
+      <c r="AL37" s="97">
         <v>506.27253684590698</v>
       </c>
-      <c r="AM37" s="12">
+      <c r="AM37" s="97">
         <v>174</v>
       </c>
-      <c r="AN37" s="2">
+      <c r="AN37" s="98">
         <v>0.75347222222222199</v>
       </c>
-      <c r="AO37" s="12">
+      <c r="AO37" s="97">
         <v>0.48124999999999901</v>
       </c>
-      <c r="AP37" s="12">
+      <c r="AP37" s="97">
         <v>0.44097222222222199</v>
       </c>
-      <c r="AQ37" s="12">
+      <c r="AQ37" s="97">
         <v>0.78472222222222199</v>
       </c>
-      <c r="AR37" s="12">
+      <c r="AR37" s="97">
         <v>0.85694444444444395</v>
       </c>
-      <c r="AS37" s="12">
+      <c r="AS37" s="97">
         <f>POWER(Table2[[#This Row],[o_100]]*Table2[[#This Row],[o_101]]*Table2[[#This Row],[o_102]]*Table2[[#This Row],[o_103]]*Table2[[#This Row],[o_104]], 0.2)</f>
         <v>0.64018216102567316</v>
       </c>
-      <c r="AT37" s="12">
+      <c r="AT37" s="97">
         <f>Table2[[#This Row],[o_avg]]/Table2[[#This Row],[m_error]]</f>
         <v>5.6905080980059832</v>
       </c>
